--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R329"/>
+  <dimension ref="A1:R332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12528,13 +12528,13 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L169" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M169" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12600,13 +12600,13 @@
         <v>100</v>
       </c>
       <c r="K170" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L170" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M170" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q170" t="n">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,32 +12741,32 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K172" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L172" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M172" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>675</v>
+        <v>483</v>
       </c>
       <c r="Q172" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K173" t="n">
         <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M173" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="Q173" t="n">
         <v>15</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12898,7 +12898,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q174" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,20 +12957,20 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K175" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L175" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M175" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,32 +13029,32 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K176" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L176" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M176" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="Q176" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13104,17 +13104,17 @@
         <v>100</v>
       </c>
       <c r="K177" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L177" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M177" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q177" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13176,13 +13176,13 @@
         <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L178" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M178" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q178" t="n">
         <v>15</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13248,17 +13248,17 @@
         <v>100</v>
       </c>
       <c r="K179" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L179" t="n">
         <v>7000</v>
       </c>
-      <c r="L179" t="n">
-        <v>7500</v>
-      </c>
       <c r="M179" t="n">
-        <v>7250</v>
+        <v>6500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>483</v>
+        <v>325</v>
       </c>
       <c r="Q179" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13320,17 +13320,17 @@
         <v>100</v>
       </c>
       <c r="K180" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L180" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M180" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q180" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13392,29 +13392,29 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L181" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M181" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q181" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13464,13 +13464,13 @@
         <v>100</v>
       </c>
       <c r="K182" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L182" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M182" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13536,13 +13536,13 @@
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L183" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M183" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13608,17 +13608,17 @@
         <v>100</v>
       </c>
       <c r="K184" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L184" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M184" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q184" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13680,29 +13680,29 @@
         <v>100</v>
       </c>
       <c r="K185" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L185" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M185" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="Q185" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E186" t="n">
         <v>8</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13752,13 +13752,13 @@
         <v>100</v>
       </c>
       <c r="K186" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M186" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13824,13 +13824,13 @@
         <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L187" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M187" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q187" t="n">
         <v>15</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E188" t="n">
         <v>8</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,32 +13893,32 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K188" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L188" t="n">
         <v>4500</v>
       </c>
-      <c r="L188" t="n">
-        <v>5000</v>
-      </c>
       <c r="M188" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="Q188" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13968,13 +13968,13 @@
         <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M189" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q189" t="n">
         <v>15</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44362</v>
+        <v>44224</v>
       </c>
       <c r="E190" t="n">
         <v>8</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14040,17 +14040,17 @@
         <v>100</v>
       </c>
       <c r="K190" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L190" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M190" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E191" t="n">
         <v>8</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L191" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M191" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>550</v>
+        <v>317</v>
       </c>
       <c r="Q191" t="n">
         <v>15</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E192" t="n">
         <v>8</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14184,13 +14184,13 @@
         <v>100</v>
       </c>
       <c r="K192" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M192" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q192" t="n">
         <v>15</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E193" t="n">
         <v>8</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E194" t="n">
         <v>8</v>
@@ -14328,13 +14328,13 @@
         <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L194" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M194" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q194" t="n">
         <v>15</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E195" t="n">
         <v>8</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14400,13 +14400,13 @@
         <v>100</v>
       </c>
       <c r="K195" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L195" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M195" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q195" t="n">
         <v>15</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E196" t="n">
         <v>8</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14472,29 +14472,29 @@
         <v>100</v>
       </c>
       <c r="K196" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L196" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M196" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q196" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E197" t="n">
         <v>8</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14544,13 +14544,13 @@
         <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L197" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M197" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E198" t="n">
         <v>8</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14616,13 +14616,13 @@
         <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L198" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M198" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q198" t="n">
         <v>15</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14688,29 +14688,29 @@
         <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L199" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M199" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>312</v>
+        <v>617</v>
       </c>
       <c r="Q199" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14760,17 +14760,17 @@
         <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L200" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M200" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q200" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E201" t="n">
         <v>8</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14832,13 +14832,13 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L201" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M201" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E202" t="n">
         <v>8</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14904,17 +14904,17 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L202" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M202" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="Q202" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E203" t="n">
         <v>8</v>
@@ -14976,13 +14976,13 @@
         <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M203" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q203" t="n">
         <v>10</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E204" t="n">
         <v>8</v>
@@ -15048,13 +15048,13 @@
         <v>100</v>
       </c>
       <c r="K204" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L204" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M204" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q204" t="n">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44196</v>
+        <v>44168</v>
       </c>
       <c r="E205" t="n">
         <v>8</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,17 +15120,17 @@
         <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L205" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M205" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>425</v>
+        <v>217</v>
       </c>
       <c r="Q205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44196</v>
+        <v>44322</v>
       </c>
       <c r="E206" t="n">
         <v>8</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,32 +15189,32 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L206" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M206" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44196</v>
+        <v>44322</v>
       </c>
       <c r="E207" t="n">
         <v>8</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15264,13 +15264,13 @@
         <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L207" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M207" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q207" t="n">
         <v>15</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q208" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,32 +15405,32 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K209" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L209" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M209" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="Q209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E210" t="n">
         <v>8</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15480,13 +15480,13 @@
         <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L210" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M210" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E211" t="n">
         <v>8</v>
@@ -15552,13 +15552,13 @@
         <v>100</v>
       </c>
       <c r="K211" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L211" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M211" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q211" t="n">
         <v>15</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15624,17 +15624,17 @@
         <v>100</v>
       </c>
       <c r="K212" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L212" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M212" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="Q212" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -15696,13 +15696,13 @@
         <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L213" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M213" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="Q213" t="n">
         <v>15</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -15768,13 +15768,13 @@
         <v>100</v>
       </c>
       <c r="K214" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L214" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M214" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q214" t="n">
         <v>15</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15840,17 +15840,17 @@
         <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M215" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q215" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15912,13 +15912,13 @@
         <v>100</v>
       </c>
       <c r="K216" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L216" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M216" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15984,17 +15984,17 @@
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M217" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="Q217" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16056,17 +16056,17 @@
         <v>100</v>
       </c>
       <c r="K218" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L218" t="n">
         <v>7000</v>
       </c>
-      <c r="L218" t="n">
-        <v>7500</v>
-      </c>
       <c r="M218" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16128,13 +16128,13 @@
         <v>100</v>
       </c>
       <c r="K219" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16200,17 +16200,17 @@
         <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L220" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16272,17 +16272,17 @@
         <v>100</v>
       </c>
       <c r="K221" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L221" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M221" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -16344,13 +16344,13 @@
         <v>100</v>
       </c>
       <c r="K222" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L222" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M222" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16416,13 +16416,13 @@
         <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M223" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q223" t="n">
         <v>15</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16560,13 +16560,13 @@
         <v>100</v>
       </c>
       <c r="K225" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L225" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M225" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16632,13 +16632,13 @@
         <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L226" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M226" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="Q226" t="n">
         <v>15</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16704,17 +16704,17 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L227" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M227" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="Q227" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16776,13 +16776,13 @@
         <v>100</v>
       </c>
       <c r="K228" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L228" t="n">
         <v>6500</v>
       </c>
-      <c r="L228" t="n">
-        <v>7000</v>
-      </c>
       <c r="M228" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16848,17 +16848,17 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L229" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M229" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="Q229" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16920,17 +16920,17 @@
         <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L230" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M230" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>625</v>
+        <v>362</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16992,17 +16992,17 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L231" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q231" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17064,17 +17064,17 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L232" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17136,13 +17136,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M233" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q233" t="n">
         <v>10</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17208,29 +17208,29 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="L234" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M234" t="n">
-        <v>10750</v>
+        <v>6250</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>717</v>
+        <v>625</v>
       </c>
       <c r="Q234" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17280,13 +17280,13 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L235" t="n">
         <v>6500</v>
       </c>
-      <c r="L235" t="n">
-        <v>7000</v>
-      </c>
       <c r="M235" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,17 +17352,17 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L236" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M236" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17424,29 +17424,29 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="L237" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M237" t="n">
-        <v>4250</v>
+        <v>10750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>425</v>
+        <v>717</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17496,13 +17496,13 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L238" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M238" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,13 +17568,13 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L239" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M239" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q240" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,29 +17712,29 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L241" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M241" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="Q241" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L242" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M242" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,29 +18000,29 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L245" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M245" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K246" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L246" t="n">
         <v>4500</v>
       </c>
-      <c r="L246" t="n">
-        <v>5000</v>
-      </c>
       <c r="M246" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q246" t="n">
         <v>15</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44420</v>
+        <v>44194</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18144,17 +18144,17 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M247" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>675</v>
+        <v>283</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18216,29 +18216,29 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="L248" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M248" t="n">
-        <v>12500</v>
+        <v>3750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>833</v>
+        <v>375</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K249" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L249" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M249" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18360,13 +18360,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L250" t="n">
         <v>7000</v>
       </c>
-      <c r="L250" t="n">
-        <v>7500</v>
-      </c>
       <c r="M250" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18432,13 +18432,13 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M251" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>833</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q252" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18648,13 +18648,13 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L254" t="n">
         <v>8500</v>
       </c>
-      <c r="L254" t="n">
-        <v>9000</v>
-      </c>
       <c r="M254" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,17 +18720,17 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L255" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M255" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18792,17 +18792,17 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L256" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M256" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>312</v>
+        <v>725</v>
       </c>
       <c r="Q256" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,29 +18864,29 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L257" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M257" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>725</v>
+        <v>583</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,13 +18936,13 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L258" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M258" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,17 +19008,17 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L259" t="n">
         <v>6500</v>
       </c>
-      <c r="L259" t="n">
-        <v>7000</v>
-      </c>
       <c r="M259" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q259" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19080,29 +19080,29 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L260" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M260" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>283</v>
+        <v>725</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,13 +19152,13 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L261" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M261" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19224,13 +19224,13 @@
         <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L262" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M262" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19296,29 +19296,29 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L263" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M263" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="Q263" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L264" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M264" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,13 +19440,13 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L265" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M265" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,17 +19512,17 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L266" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M266" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>675</v>
+        <v>162</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L267" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M267" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>833</v>
+        <v>450</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L268" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M268" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,17 +19728,17 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L269" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M269" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,13 +19800,13 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L270" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M270" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19815,11 +19815,11 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19869,32 +19869,32 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K271" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L271" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M271" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19944,13 +19944,13 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L272" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M272" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20088,13 +20088,13 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L274" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M274" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q274" t="n">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20160,13 +20160,13 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L275" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,13 +20232,13 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20247,11 +20247,11 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20304,17 +20304,17 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L277" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M277" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,13 +20376,13 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L278" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M278" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,13 +20448,13 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L279" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M279" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20520,17 +20520,17 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L280" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M280" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q280" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,13 +20592,13 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L281" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M281" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L282" t="n">
         <v>6500</v>
       </c>
-      <c r="L282" t="n">
-        <v>7000</v>
-      </c>
       <c r="M282" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20736,13 +20736,13 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L283" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M283" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q283" t="n">
         <v>10</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20808,13 +20808,13 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L284" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M284" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q285" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20952,13 +20952,13 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L286" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M286" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q286" t="n">
         <v>10</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21024,13 +21024,13 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L287" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M287" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,17 +21096,17 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L288" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21178,7 +21178,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21240,13 +21240,13 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L290" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M290" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="Q290" t="n">
         <v>15</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44446</v>
+        <v>44294</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,17 +21384,17 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L292" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M292" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q292" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44446</v>
+        <v>44379</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21456,29 +21456,29 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L293" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="M293" t="n">
-        <v>8250</v>
+        <v>9250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>825</v>
+        <v>617</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44313</v>
+        <v>44379</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21538,7 +21538,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,29 +21600,29 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M295" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21672,17 +21672,17 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M296" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21754,7 +21754,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="Q297" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21816,29 +21816,29 @@
         <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M298" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,13 +21888,13 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M299" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22032,13 +22032,13 @@
         <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L301" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M301" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q301" t="n">
         <v>10</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22104,13 +22104,13 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L302" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M302" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22176,13 +22176,13 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L303" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M303" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22258,7 +22258,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,29 +22320,29 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L305" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M305" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>675</v>
+        <v>217</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,13 +22392,13 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L306" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M306" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>767</v>
+        <v>217</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,13 +22464,13 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L307" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M307" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22479,11 +22479,11 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22608,13 +22608,13 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>583</v>
+        <v>767</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,32 +22677,32 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K310" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L310" t="n">
         <v>7000</v>
       </c>
-      <c r="L310" t="n">
-        <v>7500</v>
-      </c>
       <c r="M310" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M311" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M312" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K313" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L313" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M313" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K314" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L314" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23050,7 +23050,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q315" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23112,17 +23112,17 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L316" t="n">
         <v>7000</v>
       </c>
-      <c r="L316" t="n">
-        <v>7500</v>
-      </c>
       <c r="M316" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K317" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L317" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M317" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>633</v>
+        <v>450</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23256,17 +23256,17 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L318" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M318" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,17 +23328,17 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L319" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M319" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L320" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M320" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44238</v>
+        <v>44279</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,29 +23616,29 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L323" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M323" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="Q323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44238</v>
+        <v>44279</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L324" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M324" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44238</v>
+        <v>44279</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L325" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M325" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,17 +23832,17 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L326" t="n">
         <v>4500</v>
       </c>
-      <c r="L326" t="n">
-        <v>5000</v>
-      </c>
       <c r="M326" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K327" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L327" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M327" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>725</v>
+        <v>350</v>
       </c>
       <c r="Q327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,13 +23976,13 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L328" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M328" t="n">
-        <v>9250</v>
+        <v>4250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>617</v>
+        <v>283</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24048,13 +24048,13 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L329" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M329" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,12 +24067,228 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>11</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E330" t="n">
+        <v>8</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>100</v>
+      </c>
+      <c r="K330" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L330" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M330" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>10</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>11</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E331" t="n">
+        <v>8</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>100</v>
+      </c>
+      <c r="K331" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L331" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M331" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>617</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>15</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>11</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E332" t="n">
+        <v>8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>100</v>
+      </c>
+      <c r="K332" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M332" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>15</v>
+      </c>
+      <c r="R332" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R332"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22248,13 +22248,13 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M304" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q304" t="n">
         <v>10</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M305" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P307" t="n">
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22536,17 +22536,17 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L308" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M308" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>675</v>
+        <v>217</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,13 +22608,13 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L309" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M309" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>767</v>
+        <v>217</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22690,19 +22690,19 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q310" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22752,13 +22752,13 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L311" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M311" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22767,11 +22767,11 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>450</v>
+        <v>767</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L312" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M312" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K313" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L313" t="n">
         <v>7000</v>
       </c>
-      <c r="L313" t="n">
-        <v>7500</v>
-      </c>
       <c r="M313" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L314" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M314" t="n">
-        <v>10000</v>
+        <v>8750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M315" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L316" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K317" t="n">
         <v>6500</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q318" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,20 +23325,20 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K319" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L319" t="n">
         <v>7000</v>
       </c>
-      <c r="L319" t="n">
-        <v>7500</v>
-      </c>
       <c r="M319" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,17 +23400,17 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L320" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>633</v>
+        <v>338</v>
       </c>
       <c r="Q320" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,17 +23472,17 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L321" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M321" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,13 +23544,13 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L322" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M322" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>417</v>
+        <v>633</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,13 +23616,13 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L323" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M323" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L325" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M325" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44238</v>
+        <v>44279</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,17 +23832,17 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L326" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M326" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44238</v>
+        <v>44279</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L327" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M327" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23986,7 +23986,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K329" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L329" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M329" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,17 +24120,17 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L330" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M330" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q330" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,13 +24192,13 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L331" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M331" t="n">
-        <v>9250</v>
+        <v>4750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>617</v>
+        <v>317</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24252,43 +24252,187 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>100</v>
+      </c>
+      <c r="K332" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M332" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>10</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>11</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E333" t="n">
+        <v>8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>100</v>
+      </c>
+      <c r="K333" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L333" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M333" t="n">
+        <v>9250</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
+        <v>617</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>15</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>11</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E334" t="n">
+        <v>8</v>
+      </c>
+      <c r="F334" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J332" t="n">
-        <v>100</v>
-      </c>
-      <c r="K332" t="n">
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>100</v>
+      </c>
+      <c r="K334" t="n">
         <v>6000</v>
       </c>
-      <c r="L332" t="n">
+      <c r="L334" t="n">
         <v>6500</v>
       </c>
-      <c r="M332" t="n">
+      <c r="M334" t="n">
         <v>6250</v>
       </c>
-      <c r="N332" t="inlineStr">
+      <c r="N334" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O332" t="inlineStr">
+      <c r="O334" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P332" t="n">
+      <c r="P334" t="n">
         <v>417</v>
       </c>
-      <c r="Q332" t="n">
+      <c r="Q334" t="n">
         <v>15</v>
       </c>
-      <c r="R332" t="inlineStr">
+      <c r="R334" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -16704,13 +16704,13 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L227" t="n">
         <v>6500</v>
       </c>
-      <c r="L227" t="n">
-        <v>7000</v>
-      </c>
       <c r="M227" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q227" t="n">
         <v>10</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K228" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L228" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M228" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44265</v>
+        <v>44455</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -16848,13 +16848,13 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L229" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M229" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44343</v>
+        <v>44455</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16992,29 +16992,29 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L231" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>517</v>
+        <v>675</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17064,13 +17064,13 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L232" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M232" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17136,13 +17136,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L233" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M233" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17208,13 +17208,13 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L234" t="n">
         <v>6500</v>
       </c>
-      <c r="L234" t="n">
-        <v>7000</v>
-      </c>
       <c r="M234" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17280,13 +17280,13 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M235" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,17 +17352,17 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L236" t="n">
         <v>6500</v>
       </c>
-      <c r="L236" t="n">
-        <v>7000</v>
-      </c>
       <c r="M236" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q236" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17496,17 +17496,17 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L238" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M238" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,29 +17568,29 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L239" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M239" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q239" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17640,17 +17640,17 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L240" t="n">
         <v>7000</v>
       </c>
       <c r="M240" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>650</v>
+        <v>338</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,13 +17712,13 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L241" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M241" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L242" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M242" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17856,17 +17856,17 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L243" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M243" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="Q243" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,32 +17925,32 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L244" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M244" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>283</v>
+        <v>650</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,13 +18000,13 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L245" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M245" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>217</v>
+        <v>500</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44390</v>
+        <v>44260</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,17 +18072,17 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L246" t="n">
         <v>6000</v>
       </c>
-      <c r="L246" t="n">
-        <v>6500</v>
-      </c>
       <c r="M246" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18144,29 +18144,29 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L247" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M247" t="n">
-        <v>8250</v>
+        <v>3750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K248" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L248" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M248" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18288,13 +18288,13 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L249" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M249" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18360,13 +18360,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L250" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M250" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18432,13 +18432,13 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L251" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M251" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,13 +18504,13 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L252" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M252" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18586,7 +18586,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q253" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18648,13 +18648,13 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L254" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M254" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q254" t="n">
         <v>10</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18720,13 +18720,13 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L255" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M255" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q256" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,17 +18864,17 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L257" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M257" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L258" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M258" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>350</v>
+        <v>725</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M259" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>283</v>
+        <v>550</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19080,17 +19080,17 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L260" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M260" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="Q260" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K262" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L262" t="n">
         <v>5500</v>
       </c>
-      <c r="L262" t="n">
-        <v>6000</v>
-      </c>
       <c r="M262" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44252</v>
+        <v>44196</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19368,17 +19368,17 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L264" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M264" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>525</v>
+        <v>283</v>
       </c>
       <c r="Q264" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,29 +19440,29 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M265" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,13 +19512,13 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L266" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M266" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19584,17 +19584,17 @@
         <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L267" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M267" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="Q267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,29 +19656,29 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L268" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M268" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>217</v>
+        <v>525</v>
       </c>
       <c r="Q268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,13 +19728,13 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L269" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M269" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19743,11 +19743,11 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,13 +19800,13 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L270" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M270" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20088,13 +20088,13 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L274" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M274" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q274" t="n">
         <v>15</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20160,17 +20160,17 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L275" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M275" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,29 +20232,29 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L276" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M276" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="Q276" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44316</v>
+        <v>44168</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20304,17 +20304,17 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L277" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M277" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q277" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,13 +20376,13 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L278" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20520,29 +20520,29 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L280" t="n">
         <v>7000</v>
       </c>
-      <c r="L280" t="n">
-        <v>7500</v>
-      </c>
       <c r="M280" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,17 +20592,17 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L281" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M281" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L282" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M282" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,17 +20736,17 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L283" t="n">
         <v>7000</v>
       </c>
-      <c r="L283" t="n">
-        <v>7500</v>
-      </c>
       <c r="M283" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20808,13 +20808,13 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L284" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M284" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20880,13 +20880,13 @@
         <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L285" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M285" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21024,17 +21024,17 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L287" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M287" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,13 +21096,13 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L288" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M288" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,17 +21168,17 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L289" t="n">
         <v>6000</v>
       </c>
-      <c r="L289" t="n">
-        <v>6500</v>
-      </c>
       <c r="M289" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q289" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,17 +21240,17 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L290" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M290" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,13 +21312,13 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L291" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M291" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L292" t="n">
         <v>6500</v>
       </c>
-      <c r="L292" t="n">
-        <v>7000</v>
-      </c>
       <c r="M292" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21456,17 +21456,17 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L293" t="n">
         <v>6500</v>
       </c>
-      <c r="L293" t="n">
-        <v>7000</v>
-      </c>
       <c r="M293" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>675</v>
+        <v>312</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M294" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,13 +21600,13 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L295" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M295" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21672,13 +21672,13 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M296" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21744,13 +21744,13 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L297" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="Q297" t="n">
         <v>10</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M298" t="n">
-        <v>4250</v>
+        <v>8750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>283</v>
+        <v>583</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22032,29 +22032,29 @@
         <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L301" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M301" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,13 +22104,13 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22186,7 +22186,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,29 +22320,29 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L305" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M305" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,13 +22392,13 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L306" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M306" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22536,17 +22536,17 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L308" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M308" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,29 +22608,29 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L309" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M309" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>317</v>
+        <v>625</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22680,13 +22680,13 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L310" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M310" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22752,13 +22752,13 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L311" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M311" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M312" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22896,13 +22896,13 @@
         <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L313" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M313" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22968,13 +22968,13 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L314" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M314" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23040,13 +23040,13 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L315" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M315" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23112,29 +23112,29 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q316" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,13 +23184,13 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L317" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M317" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,13 +23328,13 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L319" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M319" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L320" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M320" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,17 +23472,17 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L321" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M321" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q321" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,29 +23544,29 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L322" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M322" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,13 +23616,13 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L323" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M323" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,13 +23688,13 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L324" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M324" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,17 +23760,17 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L325" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M325" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q325" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23842,19 +23842,19 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L327" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M327" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23986,7 +23986,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q328" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q329" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24120,13 +24120,13 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L330" t="n">
         <v>7500</v>
       </c>
-      <c r="L330" t="n">
-        <v>8000</v>
-      </c>
       <c r="M330" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24192,13 +24192,13 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L331" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M331" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24264,13 +24264,13 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L332" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M332" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q332" t="n">
         <v>20</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L333" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M333" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q333" t="n">
         <v>10</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L334" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M334" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L335" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M335" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,17 +24552,17 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L336" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M336" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="Q336" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L337" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M337" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q337" t="n">
         <v>10</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L338" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M338" t="n">
-        <v>11500</v>
+        <v>4250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>767</v>
+        <v>283</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24768,13 +24768,13 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L339" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M339" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,12 +24787,300 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q339" t="n">
         <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>11</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E340" t="n">
+        <v>8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>100</v>
+      </c>
+      <c r="K340" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L340" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M340" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>15</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>11</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E341" t="n">
+        <v>8</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>100</v>
+      </c>
+      <c r="K341" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L341" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M341" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>10</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>11</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E342" t="n">
+        <v>8</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>100</v>
+      </c>
+      <c r="K342" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L342" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M342" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>15</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>11</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E343" t="n">
+        <v>8</v>
+      </c>
+      <c r="F343" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>100</v>
+      </c>
+      <c r="K343" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L343" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M343" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>15</v>
+      </c>
+      <c r="R343" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16992,13 +16992,13 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L231" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M231" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q231" t="n">
         <v>10</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17064,13 +17064,13 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L232" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>833</v>
+        <v>450</v>
       </c>
       <c r="Q232" t="n">
         <v>15</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44265</v>
+        <v>44460</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17136,13 +17136,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L233" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M233" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>500</v>
+        <v>383</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17208,13 +17208,13 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L234" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17280,13 +17280,13 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M235" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>517</v>
+        <v>833</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,13 +17352,13 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L236" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17496,29 +17496,29 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L238" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M238" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="Q238" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,13 +17568,13 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L239" t="n">
         <v>6500</v>
       </c>
-      <c r="L239" t="n">
-        <v>7000</v>
-      </c>
       <c r="M239" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17640,17 +17640,17 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L240" t="n">
         <v>6500</v>
       </c>
-      <c r="L240" t="n">
-        <v>7000</v>
-      </c>
       <c r="M240" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q240" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,17 +17712,17 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L241" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M241" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q241" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L242" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17856,13 +17856,13 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L243" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M243" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q243" t="n">
         <v>20</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17931,14 +17931,14 @@
         <v>6000</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M244" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="Q244" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,13 +18000,13 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L245" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M245" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,17 +18072,17 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L246" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M246" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="Q246" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18144,13 +18144,13 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L247" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M247" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M248" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>283</v>
+        <v>500</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18288,13 +18288,13 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L249" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M249" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18360,13 +18360,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L250" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M250" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q250" t="n">
         <v>10</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K251" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L251" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M251" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>283</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,13 +18504,13 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L252" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M252" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18576,17 +18576,17 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M253" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18648,29 +18648,29 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L254" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M254" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,13 +18720,13 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L255" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M255" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18792,13 +18792,13 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L256" t="n">
         <v>6000</v>
       </c>
-      <c r="L256" t="n">
-        <v>6500</v>
-      </c>
       <c r="M256" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>288</v>
+        <v>575</v>
       </c>
       <c r="Q257" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,29 +18936,29 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L258" t="n">
         <v>7000</v>
       </c>
-      <c r="L258" t="n">
-        <v>7500</v>
-      </c>
       <c r="M258" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L259" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M259" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19080,13 +19080,13 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L260" t="n">
         <v>6000</v>
       </c>
-      <c r="L260" t="n">
-        <v>6500</v>
-      </c>
       <c r="M260" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q260" t="n">
         <v>20</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19152,13 +19152,13 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L261" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M261" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>425</v>
+        <v>725</v>
       </c>
       <c r="Q261" t="n">
         <v>10</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L262" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M262" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q262" t="n">
         <v>15</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19296,17 +19296,17 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M263" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,32 +19437,32 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K265" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L265" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M265" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="Q265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,13 +19512,13 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L266" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M266" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19527,11 +19527,11 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19656,13 +19656,13 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L268" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M268" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="Q268" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19728,13 +19728,13 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L269" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19800,13 +19800,13 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L270" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M270" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q270" t="n">
         <v>15</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19872,13 +19872,13 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L271" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M271" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="Q271" t="n">
         <v>10</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19944,13 +19944,13 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L272" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M272" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20016,13 +20016,13 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L273" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M273" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q273" t="n">
         <v>15</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20170,19 +20170,19 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,17 +20376,17 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M278" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,13 +20448,13 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L279" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M279" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20520,17 +20520,17 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M280" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="Q280" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,17 +20592,17 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L281" t="n">
         <v>7000</v>
       </c>
-      <c r="L281" t="n">
-        <v>7500</v>
-      </c>
       <c r="M281" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L282" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="Q283" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20818,19 +20818,19 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20880,13 +20880,13 @@
         <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L285" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M285" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20952,13 +20952,13 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L286" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M286" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21034,19 +21034,19 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>725</v>
+        <v>483</v>
       </c>
       <c r="Q287" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,13 +21096,13 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L288" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M288" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,13 +21168,13 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M289" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,17 +21240,17 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L290" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M290" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,13 +21312,13 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L291" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M291" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L292" t="n">
         <v>6000</v>
       </c>
-      <c r="L292" t="n">
-        <v>6500</v>
-      </c>
       <c r="M292" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21466,7 +21466,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q293" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21528,17 +21528,17 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L294" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M294" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,13 +21600,13 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M295" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21672,17 +21672,17 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L296" t="n">
         <v>6500</v>
       </c>
-      <c r="L296" t="n">
-        <v>7000</v>
-      </c>
       <c r="M296" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21744,13 +21744,13 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M297" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q297" t="n">
         <v>10</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L298" t="n">
         <v>9000</v>
       </c>
       <c r="M298" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,13 +21888,13 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L299" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M299" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,17 +21960,17 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L300" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K301" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L301" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M301" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,13 +22104,13 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22186,7 +22186,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L304" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M304" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L305" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M305" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22536,13 +22536,13 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L308" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M308" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22551,11 +22551,11 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22680,13 +22680,13 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M310" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L312" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M312" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22896,13 +22896,13 @@
         <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L313" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M313" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22968,13 +22968,13 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L314" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M314" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23050,7 +23050,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23112,29 +23112,29 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L316" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M316" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>625</v>
+        <v>317</v>
       </c>
       <c r="Q316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,13 +23184,13 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L317" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M317" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23256,13 +23256,13 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L318" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M318" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23338,7 +23338,7 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L320" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,13 +23472,13 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L321" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M321" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,13 +23616,13 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L323" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M323" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23688,13 +23688,13 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L324" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M324" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,29 +23760,29 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L325" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M325" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q325" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,17 +23832,17 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L326" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M326" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L327" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M327" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,17 +23976,17 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L328" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M328" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,17 +24048,17 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L329" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M329" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24120,13 +24120,13 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L330" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M330" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,13 +24192,13 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L331" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M331" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24274,7 +24274,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q332" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,29 +24336,29 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L333" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M333" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L334" t="n">
         <v>7500</v>
       </c>
-      <c r="L334" t="n">
-        <v>8000</v>
-      </c>
       <c r="M334" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,17 +24552,17 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L336" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M336" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="Q336" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,29 +24624,29 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L337" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M337" t="n">
-        <v>3250</v>
+        <v>7750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="Q337" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L338" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M338" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,17 +24768,17 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L339" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M339" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24850,7 +24850,7 @@
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,29 +24912,29 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L341" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M341" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>825</v>
+        <v>283</v>
       </c>
       <c r="Q341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,13 +24984,13 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L342" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M342" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>767</v>
+        <v>217</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,13 +25056,13 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L343" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M343" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,12 +25075,228 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q343" t="n">
         <v>15</v>
       </c>
       <c r="R343" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>11</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E344" t="n">
+        <v>8</v>
+      </c>
+      <c r="F344" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>100</v>
+      </c>
+      <c r="K344" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L344" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M344" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>10</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>11</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E345" t="n">
+        <v>8</v>
+      </c>
+      <c r="F345" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>100</v>
+      </c>
+      <c r="K345" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L345" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M345" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>15</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>11</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E346" t="n">
+        <v>8</v>
+      </c>
+      <c r="F346" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>100</v>
+      </c>
+      <c r="K346" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L346" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M346" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>15</v>
+      </c>
+      <c r="R346" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23328,13 +23328,13 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L319" t="n">
         <v>6000</v>
       </c>
-      <c r="L319" t="n">
-        <v>6500</v>
-      </c>
       <c r="M319" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q319" t="n">
         <v>10</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L320" t="n">
         <v>6500</v>
       </c>
-      <c r="L320" t="n">
-        <v>7000</v>
-      </c>
       <c r="M320" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,13 +23472,13 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L321" t="n">
         <v>6000</v>
       </c>
-      <c r="L321" t="n">
-        <v>6500</v>
-      </c>
       <c r="M321" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23554,7 +23554,7 @@
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23616,13 +23616,13 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L323" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M323" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,13 +23688,13 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L324" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M324" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23775,7 +23775,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L326" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M326" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L327" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M327" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,29 +23976,29 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L328" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M328" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q328" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,17 +24048,17 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L329" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M329" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q329" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,13 +24120,13 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L330" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M330" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,17 +24192,17 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L331" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M331" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24264,17 +24264,17 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L332" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L333" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M333" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q333" t="n">
         <v>15</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L334" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M334" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q335" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,29 +24552,29 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L336" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L337" t="n">
         <v>7500</v>
       </c>
-      <c r="L337" t="n">
-        <v>8000</v>
-      </c>
       <c r="M337" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24706,7 +24706,7 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,17 +24768,17 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L339" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M339" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="Q339" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,29 +24840,29 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L340" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M340" t="n">
-        <v>3250</v>
+        <v>7750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="Q340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L341" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M341" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,17 +24984,17 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L342" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M342" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,29 +25128,29 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L344" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M344" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>825</v>
+        <v>283</v>
       </c>
       <c r="Q344" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,13 +25200,13 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L345" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M345" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>767</v>
+        <v>217</v>
       </c>
       <c r="Q345" t="n">
         <v>15</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,13 +25272,13 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L346" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M346" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,12 +25291,228 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
       </c>
       <c r="R346" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>11</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E347" t="n">
+        <v>8</v>
+      </c>
+      <c r="F347" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>100</v>
+      </c>
+      <c r="K347" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L347" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M347" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>10</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>11</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E348" t="n">
+        <v>8</v>
+      </c>
+      <c r="F348" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>100</v>
+      </c>
+      <c r="K348" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L348" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M348" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>15</v>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>11</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E349" t="n">
+        <v>8</v>
+      </c>
+      <c r="F349" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>100</v>
+      </c>
+      <c r="K349" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L349" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M349" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>15</v>
+      </c>
+      <c r="R349" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R351"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19512,13 +19512,13 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L266" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M266" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q266" t="n">
         <v>10</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L267" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M267" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,13 +19656,13 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L268" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M268" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,13 +19728,13 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L269" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M269" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44243</v>
+        <v>44463</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,17 +19800,17 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L270" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M270" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19872,29 +19872,29 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L271" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M271" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="Q271" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K272" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L272" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M272" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44252</v>
+        <v>44196</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20016,17 +20016,17 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L273" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M273" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>525</v>
+        <v>283</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44252</v>
+        <v>44196</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20088,13 +20088,13 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L274" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M274" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20103,11 +20103,11 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="Q274" t="n">
         <v>15</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20160,17 +20160,17 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L275" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M275" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,29 +20232,29 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L276" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M276" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20304,13 +20304,13 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L277" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M277" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,17 +20376,17 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M278" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>217</v>
+        <v>525</v>
       </c>
       <c r="Q278" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,13 +20448,13 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L279" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M279" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20520,17 +20520,17 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L280" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q280" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20602,19 +20602,19 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,13 +20736,13 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L283" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M283" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20808,13 +20808,13 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L284" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M284" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20880,17 +20880,17 @@
         <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L285" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M285" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="Q285" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44168</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20952,29 +20952,29 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L286" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M286" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44316</v>
+        <v>44168</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21024,13 +21024,13 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L287" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M287" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21039,11 +21039,11 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>217</v>
       </c>
       <c r="Q287" t="n">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,13 +21168,13 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L289" t="n">
         <v>7000</v>
       </c>
-      <c r="L289" t="n">
-        <v>7500</v>
-      </c>
       <c r="M289" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,17 +21240,17 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L290" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M290" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,17 +21312,17 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L291" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M291" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,29 +21384,29 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L292" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M292" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21456,13 +21456,13 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L293" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M293" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21528,13 +21528,13 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M294" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,17 +21744,17 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M297" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21816,29 +21816,29 @@
         <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L298" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M298" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>312</v>
+        <v>567</v>
       </c>
       <c r="Q298" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,17 +21888,17 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L299" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>725</v>
+        <v>383</v>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,13 +21960,13 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M300" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22032,13 +22032,13 @@
         <v>100</v>
       </c>
       <c r="K301" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L301" t="n">
         <v>6500</v>
       </c>
-      <c r="L301" t="n">
-        <v>7000</v>
-      </c>
       <c r="M301" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q301" t="n">
         <v>15</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,17 +22104,17 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L302" t="n">
         <v>6500</v>
       </c>
-      <c r="L302" t="n">
-        <v>7000</v>
-      </c>
       <c r="M302" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,32 +22173,32 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L303" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M303" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>583</v>
+        <v>312</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L304" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M304" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M305" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,17 +22392,17 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L306" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M306" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,29 +22464,29 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L307" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M307" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>283</v>
+        <v>675</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,32 +22533,32 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K308" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L308" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M308" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22680,13 +22680,13 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M310" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22752,17 +22752,17 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L311" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M311" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M312" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22906,7 +22906,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22978,7 +22978,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q314" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23040,13 +23040,13 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L315" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M315" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,17 +23184,17 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L317" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M317" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23256,13 +23256,13 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L318" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M318" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,17 +23328,17 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L319" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M319" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L320" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M320" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,17 +23472,17 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L321" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M321" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="Q321" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,17 +23544,17 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L322" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M322" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,13 +23616,13 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L323" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M323" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23631,11 +23631,11 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="Q323" t="n">
         <v>15</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,17 +23688,17 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L324" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M324" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L325" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M325" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,17 +23832,17 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L326" t="n">
         <v>6000</v>
       </c>
-      <c r="L326" t="n">
-        <v>6500</v>
-      </c>
       <c r="M326" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,13 +23976,13 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L328" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M328" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,17 +24048,17 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M329" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24120,13 +24120,13 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L330" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M330" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24192,13 +24192,13 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L331" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M331" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q331" t="n">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24264,13 +24264,13 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L332" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M332" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q332" t="n">
         <v>15</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,29 +24336,29 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L333" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M333" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q333" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,17 +24408,17 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M334" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q334" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L335" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M335" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>633</v>
+        <v>417</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L336" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q336" t="n">
         <v>15</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L337" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M337" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,29 +24696,29 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L338" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M338" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>483</v>
+        <v>238</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24778,7 +24778,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,17 +24840,17 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L340" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M340" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="Q340" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24922,7 +24922,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,13 +24984,13 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L342" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M342" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,13 +25056,13 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L343" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M343" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q343" t="n">
         <v>15</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,17 +25128,17 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L344" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M344" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q344" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,17 +25200,17 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L345" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M345" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,29 +25272,29 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L346" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M346" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L347" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M347" t="n">
-        <v>3250</v>
+        <v>7750</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>217</v>
+        <v>517</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25416,13 +25416,13 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L348" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M348" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25488,17 +25488,17 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L349" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M349" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>825</v>
+        <v>288</v>
       </c>
       <c r="Q349" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,29 +25560,29 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L350" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M350" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>767</v>
+        <v>325</v>
       </c>
       <c r="Q350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25632,13 +25632,13 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L351" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M351" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,16 +25647,376 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
       </c>
       <c r="R351" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>11</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E352" t="n">
+        <v>8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>100</v>
+      </c>
+      <c r="K352" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L352" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M352" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>15</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>11</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E353" t="n">
+        <v>8</v>
+      </c>
+      <c r="F353" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>100</v>
+      </c>
+      <c r="K353" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M353" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P353" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>15</v>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>11</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E354" t="n">
+        <v>8</v>
+      </c>
+      <c r="F354" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>100</v>
+      </c>
+      <c r="K354" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L354" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M354" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>10</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>11</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E355" t="n">
+        <v>8</v>
+      </c>
+      <c r="F355" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>100</v>
+      </c>
+      <c r="K355" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L355" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M355" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>15</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>11</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E356" t="n">
+        <v>8</v>
+      </c>
+      <c r="F356" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>100</v>
+      </c>
+      <c r="K356" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L356" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M356" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>15</v>
+      </c>
+      <c r="R356" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10944,13 +10944,13 @@
         <v>100</v>
       </c>
       <c r="K147" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L147" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M147" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q147" t="n">
         <v>10</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11016,13 +11016,13 @@
         <v>100</v>
       </c>
       <c r="K148" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L148" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M148" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q148" t="n">
         <v>15</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11088,17 +11088,17 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L149" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M149" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="Q149" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11160,17 +11160,17 @@
         <v>100</v>
       </c>
       <c r="K150" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L150" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M150" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="Q150" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11232,29 +11232,29 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L151" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M151" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q151" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11304,17 +11304,17 @@
         <v>100</v>
       </c>
       <c r="K152" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L152" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M152" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q152" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11376,29 +11376,29 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="L153" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M153" t="n">
-        <v>10750</v>
+        <v>6750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>717</v>
+        <v>338</v>
       </c>
       <c r="Q153" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11448,17 +11448,17 @@
         <v>100</v>
       </c>
       <c r="K154" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L154" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M154" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q154" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11520,13 +11520,13 @@
         <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L155" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q155" t="n">
         <v>15</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11592,13 +11592,13 @@
         <v>100</v>
       </c>
       <c r="K156" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L156" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M156" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q156" t="n">
         <v>10</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11664,13 +11664,13 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L157" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M157" t="n">
-        <v>8250</v>
+        <v>10750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>550</v>
+        <v>717</v>
       </c>
       <c r="Q157" t="n">
         <v>15</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11736,13 +11736,13 @@
         <v>100</v>
       </c>
       <c r="K158" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L158" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M158" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q158" t="n">
         <v>15</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L159" t="n">
         <v>7000</v>
       </c>
-      <c r="L159" t="n">
-        <v>7500</v>
-      </c>
       <c r="M159" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q159" t="n">
         <v>15</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11880,17 +11880,17 @@
         <v>100</v>
       </c>
       <c r="K160" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L160" t="n">
         <v>6500</v>
       </c>
-      <c r="L160" t="n">
-        <v>7000</v>
-      </c>
       <c r="M160" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q160" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L161" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M161" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q161" t="n">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12024,17 +12024,17 @@
         <v>100</v>
       </c>
       <c r="K162" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L162" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M162" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q162" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12096,13 +12096,13 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L163" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M163" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q163" t="n">
         <v>15</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12168,13 +12168,13 @@
         <v>100</v>
       </c>
       <c r="K164" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L164" t="n">
         <v>7000</v>
       </c>
-      <c r="L164" t="n">
-        <v>7500</v>
-      </c>
       <c r="M164" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q164" t="n">
         <v>15</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12240,13 +12240,13 @@
         <v>100</v>
       </c>
       <c r="K165" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L165" t="n">
         <v>6500</v>
       </c>
-      <c r="L165" t="n">
-        <v>7000</v>
-      </c>
       <c r="M165" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q165" t="n">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12384,13 +12384,13 @@
         <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L167" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M167" t="n">
-        <v>9250</v>
+        <v>8250</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="Q167" t="n">
         <v>15</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12456,13 +12456,13 @@
         <v>100</v>
       </c>
       <c r="K168" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L168" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M168" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q168" t="n">
         <v>15</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44218</v>
+        <v>44300</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12528,13 +12528,13 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L169" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M169" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12600,17 +12600,17 @@
         <v>100</v>
       </c>
       <c r="K170" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L170" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M170" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>283</v>
+        <v>725</v>
       </c>
       <c r="Q170" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12672,29 +12672,29 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L171" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M171" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Q171" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12744,13 +12744,13 @@
         <v>100</v>
       </c>
       <c r="K172" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L172" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M172" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q172" t="n">
         <v>15</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12816,13 +12816,13 @@
         <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L173" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M173" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q173" t="n">
         <v>15</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12888,17 +12888,17 @@
         <v>100</v>
       </c>
       <c r="K174" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L174" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M174" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q174" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12960,29 +12960,29 @@
         <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L175" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M175" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13032,13 +13032,13 @@
         <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L176" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M176" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q176" t="n">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13176,17 +13176,17 @@
         <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L178" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M178" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13248,13 +13248,13 @@
         <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L179" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M179" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q179" t="n">
         <v>15</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44161</v>
+        <v>44441</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13320,17 +13320,17 @@
         <v>100</v>
       </c>
       <c r="K180" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L180" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M180" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q180" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13392,13 +13392,13 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L181" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M181" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q181" t="n">
         <v>15</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13464,13 +13464,13 @@
         <v>100</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L182" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M182" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q182" t="n">
         <v>15</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13536,13 +13536,13 @@
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L183" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M183" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q183" t="n">
         <v>15</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44336</v>
+        <v>44161</v>
       </c>
       <c r="E184" t="n">
         <v>8</v>
@@ -13608,13 +13608,13 @@
         <v>100</v>
       </c>
       <c r="K184" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M184" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q184" t="n">
         <v>10</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44336</v>
+        <v>44161</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13680,13 +13680,13 @@
         <v>100</v>
       </c>
       <c r="K185" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M185" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q185" t="n">
         <v>15</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44336</v>
+        <v>44161</v>
       </c>
       <c r="E186" t="n">
         <v>8</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13752,13 +13752,13 @@
         <v>100</v>
       </c>
       <c r="K186" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M186" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q186" t="n">
         <v>15</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44341</v>
+        <v>44161</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L187" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M187" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q187" t="n">
         <v>15</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E188" t="n">
         <v>8</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q188" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13968,13 +13968,13 @@
         <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L189" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M189" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q189" t="n">
         <v>15</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E190" t="n">
         <v>8</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E191" t="n">
         <v>8</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,32 +14109,32 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L191" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M191" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>338</v>
+        <v>517</v>
       </c>
       <c r="Q191" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E192" t="n">
         <v>8</v>
@@ -14184,13 +14184,13 @@
         <v>100</v>
       </c>
       <c r="K192" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L192" t="n">
         <v>6500</v>
       </c>
-      <c r="L192" t="n">
-        <v>7000</v>
-      </c>
       <c r="M192" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q192" t="n">
         <v>15</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E193" t="n">
         <v>8</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E194" t="n">
         <v>8</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14328,17 +14328,17 @@
         <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L194" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M194" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q194" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E195" t="n">
         <v>8</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14400,17 +14400,17 @@
         <v>100</v>
       </c>
       <c r="K195" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L195" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M195" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>625</v>
+        <v>338</v>
       </c>
       <c r="Q195" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E196" t="n">
         <v>8</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14472,13 +14472,13 @@
         <v>100</v>
       </c>
       <c r="K196" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L196" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M196" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q196" t="n">
         <v>15</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E197" t="n">
         <v>8</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14544,13 +14544,13 @@
         <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L197" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M197" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q197" t="n">
         <v>15</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E198" t="n">
         <v>8</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14616,17 +14616,17 @@
         <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L198" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M198" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E199" t="n">
         <v>8</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14688,29 +14688,29 @@
         <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L199" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M199" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14760,29 +14760,29 @@
         <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L200" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M200" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q200" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E201" t="n">
         <v>8</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14832,13 +14832,13 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L201" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M201" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q201" t="n">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E202" t="n">
         <v>8</v>
@@ -14904,13 +14904,13 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L202" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M202" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E203" t="n">
         <v>8</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14976,29 +14976,29 @@
         <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L203" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M203" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Q203" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E204" t="n">
         <v>8</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15048,29 +15048,29 @@
         <v>100</v>
       </c>
       <c r="K204" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L204" t="n">
         <v>6500</v>
       </c>
-      <c r="L204" t="n">
-        <v>7000</v>
-      </c>
       <c r="M204" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q204" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E205" t="n">
         <v>8</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,13 +15120,13 @@
         <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L205" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M205" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="Q205" t="n">
         <v>15</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44208</v>
+        <v>44453</v>
       </c>
       <c r="E206" t="n">
         <v>8</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15192,17 +15192,17 @@
         <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L206" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M206" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E207" t="n">
         <v>8</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,32 +15261,32 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L207" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M207" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q207" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E208" t="n">
         <v>8</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15336,13 +15336,13 @@
         <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L208" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M208" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q208" t="n">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15408,13 +15408,13 @@
         <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L209" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M209" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="Q209" t="n">
         <v>15</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44420</v>
+        <v>44208</v>
       </c>
       <c r="E210" t="n">
         <v>8</v>
@@ -15480,13 +15480,13 @@
         <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M210" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>675</v>
+        <v>375</v>
       </c>
       <c r="Q210" t="n">
         <v>10</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44420</v>
+        <v>44208</v>
       </c>
       <c r="E211" t="n">
         <v>8</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L211" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M211" t="n">
-        <v>12500</v>
+        <v>4250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>833</v>
+        <v>283</v>
       </c>
       <c r="Q211" t="n">
         <v>15</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44420</v>
+        <v>44208</v>
       </c>
       <c r="E212" t="n">
         <v>8</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15624,13 +15624,13 @@
         <v>100</v>
       </c>
       <c r="K212" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L212" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M212" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q212" t="n">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44370</v>
+        <v>44208</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15696,17 +15696,17 @@
         <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L213" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M213" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15768,29 +15768,29 @@
         <v>100</v>
       </c>
       <c r="K214" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L214" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q214" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15840,13 +15840,13 @@
         <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L215" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M215" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44285</v>
+        <v>44420</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15912,17 +15912,17 @@
         <v>100</v>
       </c>
       <c r="K216" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L216" t="n">
         <v>6500</v>
       </c>
-      <c r="L216" t="n">
-        <v>7000</v>
-      </c>
       <c r="M216" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q216" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,32 +15981,32 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K217" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L217" t="n">
         <v>6500</v>
       </c>
-      <c r="L217" t="n">
-        <v>7000</v>
-      </c>
       <c r="M217" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q217" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16056,13 +16056,13 @@
         <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L218" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M218" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q218" t="n">
         <v>15</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16128,17 +16128,17 @@
         <v>100</v>
       </c>
       <c r="K219" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L219" t="n">
         <v>6500</v>
       </c>
-      <c r="L219" t="n">
-        <v>7000</v>
-      </c>
       <c r="M219" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q219" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16200,29 +16200,29 @@
         <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L220" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M220" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>283</v>
+        <v>675</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K221" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L221" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M221" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q221" t="n">
         <v>15</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -16344,13 +16344,13 @@
         <v>100</v>
       </c>
       <c r="K222" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L222" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M222" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q222" t="n">
         <v>15</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -16416,13 +16416,13 @@
         <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L223" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M223" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="Q223" t="n">
         <v>20</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K224" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L224" t="n">
         <v>4500</v>
       </c>
-      <c r="L224" t="n">
-        <v>5000</v>
-      </c>
       <c r="M224" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q224" t="n">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -16560,13 +16560,13 @@
         <v>100</v>
       </c>
       <c r="K225" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L225" t="n">
         <v>3500</v>
       </c>
-      <c r="L225" t="n">
-        <v>4000</v>
-      </c>
       <c r="M225" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16632,17 +16632,17 @@
         <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L226" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M226" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q226" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44266</v>
+        <v>44210</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16704,29 +16704,29 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L227" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M227" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>550</v>
+        <v>162</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,32 +16773,32 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K228" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L228" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M228" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>625</v>
+        <v>317</v>
       </c>
       <c r="Q228" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44455</v>
+        <v>44217</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16848,17 +16848,17 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L229" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M229" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,32 +16917,32 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L230" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M230" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16992,13 +16992,13 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L231" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M231" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q231" t="n">
         <v>15</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q232" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17136,13 +17136,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M233" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q233" t="n">
         <v>10</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K234" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M234" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17280,13 +17280,13 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L235" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M235" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,17 +17352,17 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L236" t="n">
         <v>6500</v>
       </c>
-      <c r="L236" t="n">
-        <v>7000</v>
-      </c>
       <c r="M236" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q236" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17424,29 +17424,29 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L237" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M237" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>833</v>
+        <v>575</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44265</v>
+        <v>44460</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17496,13 +17496,13 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L238" t="n">
         <v>7000</v>
       </c>
-      <c r="L238" t="n">
-        <v>8000</v>
-      </c>
       <c r="M238" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44343</v>
+        <v>44460</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,17 +17568,17 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L239" t="n">
         <v>6000</v>
       </c>
-      <c r="L239" t="n">
-        <v>6500</v>
-      </c>
       <c r="M239" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17640,29 +17640,29 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M240" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>517</v>
+        <v>675</v>
       </c>
       <c r="Q240" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,13 +17712,13 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L241" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M241" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L242" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M242" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17856,13 +17856,13 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L243" t="n">
         <v>6500</v>
       </c>
-      <c r="L243" t="n">
-        <v>7000</v>
-      </c>
       <c r="M243" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q243" t="n">
         <v>10</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17928,13 +17928,13 @@
         <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M244" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,17 +18000,17 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L245" t="n">
         <v>6500</v>
       </c>
-      <c r="L245" t="n">
-        <v>7000</v>
-      </c>
       <c r="M245" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q245" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18144,17 +18144,17 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L247" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M247" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18216,29 +18216,29 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L248" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M248" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q248" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18288,17 +18288,17 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L249" t="n">
         <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>650</v>
+        <v>338</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18360,13 +18360,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L250" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M250" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18432,13 +18432,13 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L251" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M251" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q251" t="n">
         <v>15</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,17 +18504,17 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L252" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M252" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>4250</v>
+        <v>6500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>283</v>
+        <v>650</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18648,13 +18648,13 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M254" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>217</v>
+        <v>500</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44390</v>
+        <v>44260</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,17 +18720,17 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L255" t="n">
         <v>6000</v>
       </c>
-      <c r="L255" t="n">
-        <v>6500</v>
-      </c>
       <c r="M255" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18792,29 +18792,29 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L256" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M256" t="n">
-        <v>8250</v>
+        <v>3750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q256" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K257" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L257" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M257" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18936,13 +18936,13 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L258" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M258" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L259" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M259" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q259" t="n">
         <v>10</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19080,13 +19080,13 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L260" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M260" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,13 +19152,13 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L261" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M261" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19234,7 +19234,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q262" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19296,13 +19296,13 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L263" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q263" t="n">
         <v>10</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19368,13 +19368,13 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L264" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M264" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q265" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19522,7 +19522,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>575</v>
+        <v>288</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19594,19 +19594,19 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,13 +19656,13 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L268" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M268" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,17 +19728,17 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L269" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M269" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,17 +19800,17 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L270" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M270" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>262</v>
+        <v>575</v>
       </c>
       <c r="Q270" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19872,29 +19872,29 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M271" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L272" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M272" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q272" t="n">
         <v>15</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20016,13 +20016,13 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L273" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M273" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q273" t="n">
         <v>15</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20088,17 +20088,17 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L274" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M274" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L276" t="n">
         <v>5500</v>
       </c>
-      <c r="L276" t="n">
-        <v>6000</v>
-      </c>
       <c r="M276" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q276" t="n">
         <v>15</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44252</v>
+        <v>44196</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,17 +20376,17 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L278" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M278" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>525</v>
+        <v>283</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,29 +20448,29 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L279" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M279" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20520,13 +20520,13 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M280" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,17 +20592,17 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L281" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M281" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,29 +20664,29 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L282" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M282" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>217</v>
+        <v>525</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,13 +20736,13 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L283" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M283" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20808,13 +20808,13 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L284" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M284" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q284" t="n">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,13 +21096,13 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L288" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M288" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21168,17 +21168,17 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L289" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M289" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="Q289" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,29 +21240,29 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L290" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M290" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>338</v>
+        <v>217</v>
       </c>
       <c r="Q290" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44316</v>
+        <v>44168</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,17 +21312,17 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L291" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M291" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q291" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L292" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M292" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21528,29 +21528,29 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L294" t="n">
         <v>7000</v>
       </c>
-      <c r="L294" t="n">
-        <v>7500</v>
-      </c>
       <c r="M294" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q294" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,17 +21600,17 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M295" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21672,13 +21672,13 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M296" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21687,11 +21687,11 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,17 +21744,17 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L297" t="n">
         <v>7000</v>
       </c>
-      <c r="L297" t="n">
-        <v>7500</v>
-      </c>
       <c r="M297" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21816,13 +21816,13 @@
         <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M298" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,13 +21888,13 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M299" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22032,17 +22032,17 @@
         <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M301" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,13 +22104,13 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M302" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q302" t="n">
         <v>15</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,17 +22176,17 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L303" t="n">
         <v>6000</v>
       </c>
-      <c r="L303" t="n">
-        <v>6500</v>
-      </c>
       <c r="M303" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q303" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M304" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q304" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L305" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M305" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22335,11 +22335,11 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,13 +22392,13 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L306" t="n">
         <v>6500</v>
       </c>
-      <c r="L306" t="n">
-        <v>7000</v>
-      </c>
       <c r="M306" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,17 +22464,17 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L307" t="n">
         <v>6500</v>
       </c>
-      <c r="L307" t="n">
-        <v>7000</v>
-      </c>
       <c r="M307" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>675</v>
+        <v>312</v>
       </c>
       <c r="Q307" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,32 +22533,32 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L308" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M308" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,13 +22608,13 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M309" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22680,13 +22680,13 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M310" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22752,13 +22752,13 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L311" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M311" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="Q311" t="n">
         <v>10</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L312" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M312" t="n">
-        <v>4250</v>
+        <v>8750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>283</v>
+        <v>583</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22906,7 +22906,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23040,29 +23040,29 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L315" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M315" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23112,13 +23112,13 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L316" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M316" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23127,11 +23127,11 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,29 +23328,29 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L319" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M319" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L320" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M320" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,17 +23544,17 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L322" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M322" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,29 +23616,29 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L323" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M323" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>317</v>
+        <v>625</v>
       </c>
       <c r="Q323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,13 +23688,13 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L324" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M324" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23703,11 +23703,11 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q324" t="n">
         <v>15</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L325" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M325" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L326" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M326" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>575</v>
+        <v>425</v>
       </c>
       <c r="Q326" t="n">
         <v>10</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L327" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M327" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,13 +23976,13 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L328" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M328" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,17 +24048,17 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L329" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M329" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q329" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,29 +24120,29 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L330" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M330" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24264,13 +24264,13 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L332" t="n">
         <v>6000</v>
       </c>
-      <c r="L332" t="n">
-        <v>6500</v>
-      </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q332" t="n">
         <v>15</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,29 +24336,29 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L333" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M333" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L334" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M334" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24423,11 +24423,11 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24495,7 +24495,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L336" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M336" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q336" t="n">
         <v>15</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L337" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M337" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,17 +24696,17 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L338" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M338" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q338" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,29 +24768,29 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L339" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M339" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,13 +24840,13 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L340" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M340" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="Q340" t="n">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L341" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M341" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,17 +24984,17 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L342" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M342" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25066,19 +25066,19 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,13 +25128,13 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L344" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M344" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q344" t="n">
         <v>15</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25210,7 +25210,7 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q345" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25282,7 +25282,7 @@
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q346" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L347" t="n">
         <v>7500</v>
       </c>
-      <c r="L347" t="n">
-        <v>8000</v>
-      </c>
       <c r="M347" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25416,13 +25416,13 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L348" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M348" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25488,13 +25488,13 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L349" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M349" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q349" t="n">
         <v>20</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25560,13 +25560,13 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L350" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M350" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q350" t="n">
         <v>10</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25632,13 +25632,13 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L351" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M351" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,13 +25704,13 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L352" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M352" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q352" t="n">
         <v>15</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,17 +25776,17 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L353" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M353" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="Q353" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25848,13 +25848,13 @@
         <v>100</v>
       </c>
       <c r="K354" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L354" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M354" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q354" t="n">
         <v>10</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25920,13 +25920,13 @@
         <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L355" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M355" t="n">
-        <v>11500</v>
+        <v>4250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>767</v>
+        <v>283</v>
       </c>
       <c r="Q355" t="n">
         <v>15</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25992,13 +25992,13 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L356" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M356" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,12 +26011,300 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q356" t="n">
         <v>15</v>
       </c>
       <c r="R356" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>11</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E357" t="n">
+        <v>8</v>
+      </c>
+      <c r="F357" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>100</v>
+      </c>
+      <c r="K357" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L357" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M357" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>15</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>11</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E358" t="n">
+        <v>8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>100</v>
+      </c>
+      <c r="K358" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L358" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M358" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>10</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>11</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E359" t="n">
+        <v>8</v>
+      </c>
+      <c r="F359" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>100</v>
+      </c>
+      <c r="K359" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L359" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M359" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>15</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>11</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E360" t="n">
+        <v>8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>100</v>
+      </c>
+      <c r="K360" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L360" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M360" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P360" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>15</v>
+      </c>
+      <c r="R360" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23112,13 +23112,13 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L316" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M316" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q316" t="n">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L317" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M317" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23256,13 +23256,13 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L318" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M318" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23271,11 +23271,11 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,13 +23328,13 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L319" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M319" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L320" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="Q320" t="n">
         <v>10</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K321" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L321" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M321" t="n">
-        <v>4250</v>
+        <v>8750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>283</v>
+        <v>583</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23554,7 +23554,7 @@
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,29 +23688,29 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L324" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M324" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L325" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M325" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,29 +23976,29 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L328" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M328" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="Q328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,13 +24048,13 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L329" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M329" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,17 +24192,17 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L331" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M331" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24264,29 +24264,29 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L332" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M332" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>317</v>
+        <v>625</v>
       </c>
       <c r="Q332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L333" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M333" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q333" t="n">
         <v>15</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L334" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M334" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L335" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M335" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>575</v>
+        <v>425</v>
       </c>
       <c r="Q335" t="n">
         <v>10</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L336" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q336" t="n">
         <v>15</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L337" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M337" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,17 +24696,17 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L338" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M338" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,29 +24768,29 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L339" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M339" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L341" t="n">
         <v>6000</v>
       </c>
-      <c r="L341" t="n">
-        <v>6500</v>
-      </c>
       <c r="M341" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,29 +24984,29 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L342" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M342" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,13 +25056,13 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L343" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M343" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q343" t="n">
         <v>15</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25143,7 +25143,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P344" t="n">
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44239</v>
+        <v>44357</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,13 +25200,13 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L345" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M345" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q345" t="n">
         <v>15</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,13 +25272,13 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L346" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M346" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44239</v>
+        <v>44162</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,17 +25344,17 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L347" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M347" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q347" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25416,29 +25416,29 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L348" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M348" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q348" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25488,13 +25488,13 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L349" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M349" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>633</v>
+        <v>283</v>
       </c>
       <c r="Q349" t="n">
         <v>15</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,13 +25560,13 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L350" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M350" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25632,17 +25632,17 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L351" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M351" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q351" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25714,19 +25714,19 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q352" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,13 +25776,13 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L353" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M353" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q354" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q355" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25992,13 +25992,13 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L356" t="n">
         <v>7500</v>
       </c>
-      <c r="L356" t="n">
-        <v>8000</v>
-      </c>
       <c r="M356" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q356" t="n">
         <v>15</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26064,13 +26064,13 @@
         <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L357" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M357" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q357" t="n">
         <v>15</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26136,13 +26136,13 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L358" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M358" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q358" t="n">
         <v>20</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26208,13 +26208,13 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L359" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M359" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q359" t="n">
         <v>10</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L360" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M360" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,13 +26352,13 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L361" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M361" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q361" t="n">
         <v>15</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26424,17 +26424,17 @@
         <v>100</v>
       </c>
       <c r="K362" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L362" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M362" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="Q362" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26496,13 +26496,13 @@
         <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L363" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M363" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="Q363" t="n">
         <v>10</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26568,13 +26568,13 @@
         <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L364" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M364" t="n">
-        <v>11500</v>
+        <v>4250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>767</v>
+        <v>283</v>
       </c>
       <c r="Q364" t="n">
         <v>15</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26640,13 +26640,13 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L365" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M365" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,12 +26659,300 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
       </c>
       <c r="R365" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>11</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E366" t="n">
+        <v>8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>100</v>
+      </c>
+      <c r="K366" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M366" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>15</v>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>11</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E367" t="n">
+        <v>8</v>
+      </c>
+      <c r="F367" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>100</v>
+      </c>
+      <c r="K367" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L367" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M367" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>825</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>10</v>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>11</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E368" t="n">
+        <v>8</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>100</v>
+      </c>
+      <c r="K368" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L368" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M368" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P368" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>15</v>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>11</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E369" t="n">
+        <v>8</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>100</v>
+      </c>
+      <c r="K369" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L369" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M369" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>15</v>
+      </c>
+      <c r="R369" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R372"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,29 +23832,29 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L326" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M326" t="n">
-        <v>9250</v>
+        <v>5250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="Q326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L327" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M327" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23919,11 +23919,11 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q327" t="n">
         <v>15</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,13 +23976,13 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L328" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M328" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>450</v>
+        <v>617</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q329" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,13 +24120,13 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L330" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M330" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q330" t="n">
         <v>15</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24202,7 +24202,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24274,7 +24274,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q332" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24346,7 +24346,7 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,29 +24408,29 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L334" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M334" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q334" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,29 +24552,29 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L336" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L337" t="n">
         <v>6500</v>
       </c>
-      <c r="L337" t="n">
-        <v>7000</v>
-      </c>
       <c r="M337" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24706,7 +24706,7 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,13 +24768,13 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L339" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M339" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24783,11 +24783,11 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q339" t="n">
         <v>15</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,13 +24840,13 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L340" t="n">
         <v>6500</v>
       </c>
-      <c r="L340" t="n">
-        <v>7000</v>
-      </c>
       <c r="M340" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q340" t="n">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,17 +24984,17 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L342" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M342" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q342" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,13 +25056,13 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L343" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M343" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25071,11 +25071,11 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q343" t="n">
         <v>15</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,17 +25128,17 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L344" t="n">
         <v>6500</v>
       </c>
-      <c r="L344" t="n">
-        <v>7000</v>
-      </c>
       <c r="M344" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,13 +25200,13 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L345" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M345" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25215,11 +25215,11 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q345" t="n">
         <v>15</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,17 +25272,17 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L346" t="n">
         <v>7000</v>
       </c>
-      <c r="L346" t="n">
-        <v>7500</v>
-      </c>
       <c r="M346" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q346" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L347" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M347" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25416,17 +25416,17 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L348" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M348" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>383</v>
+        <v>725</v>
       </c>
       <c r="Q348" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25488,13 +25488,13 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L349" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M349" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25503,11 +25503,11 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q349" t="n">
         <v>15</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,17 +25560,17 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L350" t="n">
         <v>6000</v>
       </c>
-      <c r="L350" t="n">
-        <v>6500</v>
-      </c>
       <c r="M350" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q350" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25632,13 +25632,13 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L351" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M351" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25647,11 +25647,11 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,17 +25704,17 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L352" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M352" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q352" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,13 +25776,13 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L353" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M353" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25848,17 +25848,17 @@
         <v>100</v>
       </c>
       <c r="K354" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L354" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M354" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="Q354" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25920,13 +25920,13 @@
         <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L355" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M355" t="n">
-        <v>11500</v>
+        <v>5250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>767</v>
+        <v>350</v>
       </c>
       <c r="Q355" t="n">
         <v>15</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25992,17 +25992,17 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L356" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M356" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>483</v>
+        <v>825</v>
       </c>
       <c r="Q356" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26064,29 +26064,29 @@
         <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L357" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M357" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>625</v>
+        <v>767</v>
       </c>
       <c r="Q357" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,13 +26136,13 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L358" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M358" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q358" t="n">
         <v>15</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26208,17 +26208,17 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L359" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M359" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q359" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L360" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M360" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,17 +26352,17 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M361" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q361" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K362" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L362" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M362" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="Q362" t="n">
         <v>15</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,17 +26496,17 @@
         <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L363" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M363" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="Q363" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,32 +26565,32 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K364" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L364" t="n">
         <v>4500</v>
       </c>
-      <c r="L364" t="n">
-        <v>5000</v>
-      </c>
       <c r="M364" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>475</v>
+        <v>283</v>
       </c>
       <c r="Q364" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26640,13 +26640,13 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L365" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M365" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,17 +26712,17 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L366" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M366" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>283</v>
+        <v>475</v>
       </c>
       <c r="Q366" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,29 +26784,29 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L367" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M367" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q367" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,17 +26856,17 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L368" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M368" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="Q368" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,17 +26928,17 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L369" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q369" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>383</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,17 +27072,17 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L371" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M371" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q371" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L372" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M372" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,16 +27159,160 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>11</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E373" t="n">
+        <v>8</v>
+      </c>
+      <c r="F373" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>100</v>
+      </c>
+      <c r="K373" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L373" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M373" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P373" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>10</v>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>11</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E374" t="n">
+        <v>8</v>
+      </c>
+      <c r="F374" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>100</v>
+      </c>
+      <c r="K374" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L374" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M374" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P374" t="n">
+        <v>517</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>15</v>
+      </c>
+      <c r="R374" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R384"/>
+  <dimension ref="A1:R388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E191" t="n">
         <v>8</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K191" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L191" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M191" t="n">
-        <v>6250</v>
+        <v>5222</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>417</v>
+        <v>522</v>
       </c>
       <c r="Q191" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E192" t="n">
         <v>8</v>
@@ -14172,29 +14172,29 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K192" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L192" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M192" t="n">
-        <v>6250</v>
+        <v>3889</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="Q192" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E193" t="n">
         <v>8</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,32 +14253,32 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K193" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L193" t="n">
         <v>6000</v>
       </c>
-      <c r="L193" t="n">
-        <v>6500</v>
-      </c>
       <c r="M193" t="n">
-        <v>6250</v>
+        <v>5722</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="Q193" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E194" t="n">
         <v>8</v>
@@ -14316,41 +14316,41 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K194" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L194" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M194" t="n">
-        <v>6250</v>
+        <v>3767</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>625</v>
+        <v>251</v>
       </c>
       <c r="Q194" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E195" t="n">
         <v>8</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q195" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E196" t="n">
         <v>8</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E197" t="n">
         <v>8</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14544,17 +14544,17 @@
         <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L197" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M197" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>725</v>
+        <v>312</v>
       </c>
       <c r="Q197" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E198" t="n">
         <v>8</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14616,29 +14616,29 @@
         <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L198" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M198" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E199" t="n">
         <v>8</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14760,13 +14760,13 @@
         <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L200" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M200" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q200" t="n">
         <v>15</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>8</v>
@@ -14832,13 +14832,13 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L201" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M201" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>425</v>
+        <v>725</v>
       </c>
       <c r="Q201" t="n">
         <v>10</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>8</v>
@@ -14904,13 +14904,13 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L202" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M202" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q202" t="n">
         <v>15</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>8</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14976,13 +14976,13 @@
         <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L203" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M203" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q203" t="n">
         <v>15</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E204" t="n">
         <v>8</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>725</v>
+        <v>483</v>
       </c>
       <c r="Q204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E205" t="n">
         <v>8</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,29 +15120,29 @@
         <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L205" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M205" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q205" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E206" t="n">
         <v>8</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15192,13 +15192,13 @@
         <v>100</v>
       </c>
       <c r="K206" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L206" t="n">
         <v>6500</v>
       </c>
-      <c r="L206" t="n">
-        <v>7000</v>
-      </c>
       <c r="M206" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q206" t="n">
         <v>15</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44356</v>
+        <v>44232</v>
       </c>
       <c r="E207" t="n">
         <v>8</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15264,17 +15264,17 @@
         <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L207" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M207" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q207" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E208" t="n">
         <v>8</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15336,17 +15336,17 @@
         <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L208" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M208" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q208" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15408,29 +15408,29 @@
         <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L209" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M209" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E210" t="n">
         <v>8</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L210" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M210" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q210" t="n">
         <v>15</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E211" t="n">
         <v>8</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15552,17 +15552,17 @@
         <v>100</v>
       </c>
       <c r="K211" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L211" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M211" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E212" t="n">
         <v>8</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15696,17 +15696,17 @@
         <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L213" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M213" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="Q213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,32 +15765,32 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K214" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L214" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M214" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>525</v>
+        <v>217</v>
       </c>
       <c r="Q214" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15840,13 +15840,13 @@
         <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L215" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M215" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q215" t="n">
         <v>15</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -15912,13 +15912,13 @@
         <v>100</v>
       </c>
       <c r="K216" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L216" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M216" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q216" t="n">
         <v>15</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -15984,13 +15984,13 @@
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L217" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Q217" t="n">
         <v>20</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -16056,13 +16056,13 @@
         <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L218" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M218" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q218" t="n">
         <v>10</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -16128,13 +16128,13 @@
         <v>100</v>
       </c>
       <c r="K219" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L219" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M219" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>833</v>
+        <v>483</v>
       </c>
       <c r="Q219" t="n">
         <v>15</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44273</v>
+        <v>44467</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16200,17 +16200,17 @@
         <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L220" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M220" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>725</v>
+        <v>350</v>
       </c>
       <c r="Q220" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44273</v>
+        <v>44467</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16272,29 +16272,29 @@
         <v>100</v>
       </c>
       <c r="K221" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L221" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M221" t="n">
-        <v>8500</v>
+        <v>5250</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>567</v>
+        <v>262</v>
       </c>
       <c r="Q221" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q222" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44236</v>
+        <v>44427</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16416,29 +16416,29 @@
         <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M223" t="n">
-        <v>4750</v>
+        <v>12500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>475</v>
+        <v>833</v>
       </c>
       <c r="Q223" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,32 +16485,32 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K224" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L224" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M224" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>350</v>
+        <v>725</v>
       </c>
       <c r="Q224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16560,13 +16560,13 @@
         <v>100</v>
       </c>
       <c r="K225" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M225" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>317</v>
+        <v>567</v>
       </c>
       <c r="Q225" t="n">
         <v>15</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44215</v>
+        <v>44273</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16632,17 +16632,17 @@
         <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L226" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M226" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="Q226" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16714,19 +16714,19 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="Q227" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K228" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L228" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M228" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16848,13 +16848,13 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L229" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M229" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44426</v>
+        <v>44215</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16920,17 +16920,17 @@
         <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L230" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M230" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q230" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44426</v>
+        <v>44215</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16992,29 +16992,29 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L231" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M231" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q231" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44469</v>
+        <v>44215</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17064,17 +17064,17 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L232" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M232" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="Q232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44469</v>
+        <v>44215</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17136,13 +17136,13 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L233" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M233" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q233" t="n">
         <v>15</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17208,13 +17208,13 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L234" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="Q234" t="n">
         <v>15</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17280,17 +17280,17 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L235" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M235" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q235" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,17 +17352,17 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L236" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M236" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>262</v>
+        <v>575</v>
       </c>
       <c r="Q236" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17424,29 +17424,29 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L237" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M237" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17496,13 +17496,13 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L238" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M238" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="Q238" t="n">
         <v>15</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,13 +17568,13 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L239" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M239" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q239" t="n">
         <v>15</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17640,17 +17640,17 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L240" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M240" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>725</v>
+        <v>262</v>
       </c>
       <c r="Q240" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,29 +17712,29 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M241" t="n">
-        <v>10750</v>
+        <v>3250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>717</v>
+        <v>325</v>
       </c>
       <c r="Q241" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L242" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M242" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17856,13 +17856,13 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L243" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M243" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q243" t="n">
         <v>15</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17938,19 +17938,19 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="Q244" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,13 +18000,13 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L245" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M245" t="n">
-        <v>7250</v>
+        <v>10750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>483</v>
+        <v>717</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,17 +18072,17 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L246" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q246" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18144,17 +18144,17 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L247" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M247" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18216,13 +18216,13 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M248" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18288,13 +18288,13 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M249" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18360,17 +18360,17 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L250" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M250" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18432,29 +18432,29 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L251" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M251" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>517</v>
+        <v>325</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,13 +18504,13 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L252" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M252" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18576,13 +18576,13 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L253" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M253" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q253" t="n">
         <v>15</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18648,13 +18648,13 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L254" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M254" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,29 +18720,29 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="Q255" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18792,13 +18792,13 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L256" t="n">
         <v>6500</v>
       </c>
-      <c r="L256" t="n">
-        <v>7000</v>
-      </c>
       <c r="M256" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,17 +18864,17 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L257" t="n">
         <v>6500</v>
       </c>
-      <c r="L257" t="n">
-        <v>7000</v>
-      </c>
       <c r="M257" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q257" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44229</v>
+        <v>44351</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,17 +18936,17 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L258" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M258" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L259" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M259" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q259" t="n">
         <v>10</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19080,13 +19080,13 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L260" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M260" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,17 +19152,17 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L261" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M261" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q261" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44358</v>
+        <v>44229</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19224,17 +19224,17 @@
         <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L262" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M262" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>288</v>
+        <v>425</v>
       </c>
       <c r="Q262" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q263" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19368,13 +19368,13 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L264" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M264" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>383</v>
+        <v>517</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,17 +19440,17 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L265" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M265" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="Q265" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44320</v>
+        <v>44358</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,17 +19512,17 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L266" t="n">
         <v>6000</v>
       </c>
-      <c r="L266" t="n">
-        <v>6500</v>
-      </c>
       <c r="M266" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>625</v>
+        <v>288</v>
       </c>
       <c r="Q266" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19584,13 +19584,13 @@
         <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L267" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M267" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,13 +19656,13 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L268" t="n">
         <v>6000</v>
       </c>
-      <c r="L268" t="n">
-        <v>6500</v>
-      </c>
       <c r="M268" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,17 +19728,17 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L269" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M269" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,29 +19800,29 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L270" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M270" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19872,13 +19872,13 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M271" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q271" t="n">
         <v>15</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19944,17 +19944,17 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L272" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M272" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q272" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20016,17 +20016,17 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L273" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M273" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P275" t="n">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,29 +20232,29 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L276" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M276" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,13 +20448,13 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L279" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M279" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20463,11 +20463,11 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q279" t="n">
         <v>15</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,32 +20517,32 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L280" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M280" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q280" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,32 +20589,32 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L281" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M281" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>283</v>
+        <v>525</v>
       </c>
       <c r="Q281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M282" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,17 +20736,17 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L283" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M283" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,32 +20805,32 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L284" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M284" t="n">
-        <v>8250</v>
+        <v>3750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K285" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L285" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M285" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20895,11 +20895,11 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20952,17 +20952,17 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L286" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M286" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>725</v>
+        <v>217</v>
       </c>
       <c r="Q286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21024,29 +21024,29 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L287" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M287" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,13 +21096,13 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L288" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M288" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21168,13 +21168,13 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L289" t="n">
         <v>6500</v>
       </c>
-      <c r="L289" t="n">
-        <v>7000</v>
-      </c>
       <c r="M289" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21240,29 +21240,29 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L290" t="n">
         <v>7500</v>
       </c>
-      <c r="L290" t="n">
-        <v>8000</v>
-      </c>
       <c r="M290" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P290" t="n">
-        <v>517</v>
+        <v>725</v>
       </c>
       <c r="Q290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,13 +21312,13 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L291" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M291" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L292" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M292" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44372</v>
+        <v>44300</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21466,7 +21466,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L294" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M294" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21744,13 +21744,13 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q297" t="n">
         <v>10</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L298" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M298" t="n">
-        <v>4250</v>
+        <v>8750</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21888,13 +21888,13 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M299" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -21960,13 +21960,13 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M300" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,29 +22104,29 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L302" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M302" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,13 +22176,13 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L303" t="n">
         <v>6000</v>
       </c>
-      <c r="L303" t="n">
-        <v>6500</v>
-      </c>
       <c r="M303" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,13 +22248,13 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M304" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L305" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M305" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q305" t="n">
         <v>10</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L306" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M306" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,13 +22464,13 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L307" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M307" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22536,17 +22536,17 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L308" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M308" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,29 +22608,29 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L309" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M309" t="n">
-        <v>8250</v>
+        <v>3750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L311" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M311" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,32 +22821,32 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L312" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M312" t="n">
-        <v>10000</v>
+        <v>6250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22896,13 +22896,13 @@
         <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L313" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M313" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22968,13 +22968,13 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L314" t="n">
         <v>6500</v>
       </c>
-      <c r="L314" t="n">
-        <v>7000</v>
-      </c>
       <c r="M314" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K315" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M315" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q315" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,32 +23109,32 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K316" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L316" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>338</v>
+        <v>667</v>
       </c>
       <c r="Q316" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,13 +23184,13 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L317" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M317" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23256,13 +23256,13 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L318" t="n">
         <v>7000</v>
       </c>
-      <c r="L318" t="n">
-        <v>7500</v>
-      </c>
       <c r="M318" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q318" t="n">
         <v>15</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K319" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L319" t="n">
         <v>7000</v>
       </c>
-      <c r="L319" t="n">
-        <v>7500</v>
-      </c>
       <c r="M319" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L320" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="Q320" t="n">
         <v>20</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,13 +23472,13 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L321" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M321" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,13 +23544,13 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L322" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M322" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,17 +23616,17 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L323" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M323" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q323" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44159</v>
+        <v>44377</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,17 +23688,17 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L324" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M324" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="Q324" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L325" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M325" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L326" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M326" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,17 +23904,17 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23976,13 +23976,13 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L328" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M328" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="Q328" t="n">
         <v>10</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K329" t="n">
         <v>3000</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24264,13 +24264,13 @@
         <v>100</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L332" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q332" t="n">
         <v>10</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L333" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M333" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q333" t="n">
         <v>15</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M334" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L335" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M335" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L336" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M336" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q336" t="n">
         <v>10</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L337" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M337" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44384</v>
+        <v>44334</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L338" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M338" t="n">
-        <v>9250</v>
+        <v>5750</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24711,11 +24711,11 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P338" t="n">
-        <v>617</v>
+        <v>383</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44384</v>
+        <v>44334</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,17 +24840,17 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L340" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M340" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="Q340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,29 +24912,29 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L341" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M341" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q341" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,13 +24984,13 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L342" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M342" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>417</v>
+        <v>617</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,17 +25128,17 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L344" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M344" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q344" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25210,7 +25210,7 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>625</v>
+        <v>312</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,13 +25272,13 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L346" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M346" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>625</v>
+        <v>312</v>
       </c>
       <c r="Q348" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25488,29 +25488,29 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L349" t="n">
         <v>6500</v>
       </c>
-      <c r="L349" t="n">
-        <v>7000</v>
-      </c>
       <c r="M349" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q349" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,13 +25560,13 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L350" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M350" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,17 +25704,17 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L352" t="n">
         <v>6500</v>
       </c>
-      <c r="L352" t="n">
-        <v>7000</v>
-      </c>
       <c r="M352" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q352" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,13 +25776,13 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L353" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M353" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q354" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25920,13 +25920,13 @@
         <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L355" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M355" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q355" t="n">
         <v>15</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,17 +26136,17 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L358" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M358" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>725</v>
+        <v>312</v>
       </c>
       <c r="Q358" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26208,13 +26208,13 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L359" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M359" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="Q359" t="n">
         <v>15</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L360" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M360" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26424,13 +26424,13 @@
         <v>100</v>
       </c>
       <c r="K362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L362" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M362" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q362" t="n">
         <v>10</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26499,11 +26499,11 @@
         <v>8000</v>
       </c>
       <c r="L363" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M363" t="n">
         <v>8500</v>
       </c>
-      <c r="M363" t="n">
-        <v>8250</v>
-      </c>
       <c r="N363" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="Q363" t="n">
         <v>15</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26568,13 +26568,13 @@
         <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L364" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M364" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q364" t="n">
         <v>15</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26640,13 +26640,13 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L365" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M365" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26712,13 +26712,13 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L366" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M366" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q366" t="n">
         <v>10</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26784,13 +26784,13 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L367" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M367" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>767</v>
+        <v>550</v>
       </c>
       <c r="Q367" t="n">
         <v>15</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,13 +26856,13 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L368" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M368" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q368" t="n">
         <v>15</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,17 +26928,17 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L369" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="Q369" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27010,19 +27010,19 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="Q370" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,13 +27072,13 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L371" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M371" t="n">
-        <v>5250</v>
+        <v>11500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>350</v>
+        <v>767</v>
       </c>
       <c r="Q371" t="n">
         <v>15</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L372" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M372" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L373" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M373" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q373" t="n">
         <v>10</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L374" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M374" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>283</v>
+        <v>550</v>
       </c>
       <c r="Q374" t="n">
         <v>15</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,13 +27360,13 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L375" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M375" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q375" t="n">
         <v>15</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44250</v>
+        <v>44390</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,17 +27432,17 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L376" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M376" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="Q376" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L377" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M377" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q377" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K378" t="n">
         <v>4000</v>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P378" t="n">
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,17 +27648,17 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M379" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q379" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L380" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M380" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q380" t="n">
         <v>10</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27807,7 +27807,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P381" t="n">
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,13 +27864,13 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L382" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M382" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q382" t="n">
         <v>15</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44432</v>
+        <v>44250</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,17 +27936,17 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L383" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M383" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>725</v>
+        <v>238</v>
       </c>
       <c r="Q383" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,58 +27981,346 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E384" t="n">
+        <v>8</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>100</v>
+      </c>
+      <c r="K384" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L384" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M384" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>10</v>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>11</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E385" t="n">
+        <v>8</v>
+      </c>
+      <c r="F385" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>100</v>
+      </c>
+      <c r="K385" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L385" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M385" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P385" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>15</v>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>11</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E386" t="n">
+        <v>8</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>100</v>
+      </c>
+      <c r="K386" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L386" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M386" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>15</v>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>11</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E384" t="n">
-        <v>8</v>
-      </c>
-      <c r="F384" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H384" t="inlineStr">
+      <c r="E387" t="n">
+        <v>8</v>
+      </c>
+      <c r="F387" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>100</v>
+      </c>
+      <c r="K387" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L387" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M387" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P387" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>10</v>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>11</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E388" t="n">
+        <v>8</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
         <is>
           <t>Escarola</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J384" t="n">
-        <v>100</v>
-      </c>
-      <c r="K384" t="n">
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>100</v>
+      </c>
+      <c r="K388" t="n">
         <v>7500</v>
       </c>
-      <c r="L384" t="n">
+      <c r="L388" t="n">
         <v>8000</v>
       </c>
-      <c r="M384" t="n">
+      <c r="M388" t="n">
         <v>7750</v>
       </c>
-      <c r="N384" t="inlineStr">
+      <c r="N388" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O384" t="inlineStr">
+      <c r="O388" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="P384" t="n">
+      <c r="P388" t="n">
         <v>517</v>
       </c>
-      <c r="Q384" t="n">
+      <c r="Q388" t="n">
         <v>15</v>
       </c>
-      <c r="R384" t="inlineStr">
+      <c r="R388" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R388"/>
+  <dimension ref="A1:R391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17712,13 +17712,13 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L241" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M241" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="Q241" t="n">
         <v>10</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K242" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L242" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>3250</v>
+        <v>6833</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>217</v>
+        <v>456</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17856,13 +17856,13 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L243" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M243" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q243" t="n">
         <v>15</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17928,13 +17928,13 @@
         <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L244" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M244" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>725</v>
+        <v>325</v>
       </c>
       <c r="Q244" t="n">
         <v>10</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -18000,13 +18000,13 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M245" t="n">
-        <v>10750</v>
+        <v>3250</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>717</v>
+        <v>217</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,13 +18072,13 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M246" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q246" t="n">
         <v>15</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18144,17 +18144,17 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M247" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q247" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18216,13 +18216,13 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L248" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M248" t="n">
-        <v>7250</v>
+        <v>10750</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>483</v>
+        <v>717</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18288,13 +18288,13 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L249" t="n">
         <v>7000</v>
       </c>
-      <c r="L249" t="n">
-        <v>7500</v>
-      </c>
       <c r="M249" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18360,17 +18360,17 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L250" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M250" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q250" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18432,29 +18432,29 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M251" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,13 +18504,13 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L252" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M252" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18576,17 +18576,17 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M253" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="Q253" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18720,13 +18720,13 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M255" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18792,13 +18792,13 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L256" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M256" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,13 +18864,13 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L257" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M257" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q257" t="n">
         <v>15</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,13 +18936,13 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L258" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M258" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q258" t="n">
         <v>15</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,17 +19008,17 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L259" t="n">
         <v>6500</v>
       </c>
-      <c r="L259" t="n">
-        <v>7000</v>
-      </c>
       <c r="M259" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19080,13 +19080,13 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L260" t="n">
         <v>6500</v>
       </c>
-      <c r="L260" t="n">
-        <v>7000</v>
-      </c>
       <c r="M260" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,17 +19152,17 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L261" t="n">
         <v>6500</v>
       </c>
-      <c r="L261" t="n">
-        <v>7000</v>
-      </c>
       <c r="M261" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q261" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19224,13 +19224,13 @@
         <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L262" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M262" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>425</v>
+        <v>675</v>
       </c>
       <c r="Q262" t="n">
         <v>10</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19296,29 +19296,29 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L263" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M263" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19368,29 +19368,29 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L264" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M264" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>517</v>
+        <v>338</v>
       </c>
       <c r="Q264" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44358</v>
+        <v>44229</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,17 +19440,17 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M265" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,17 +19512,17 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L266" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M266" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="Q266" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19584,13 +19584,13 @@
         <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L267" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M267" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19599,11 +19599,11 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q267" t="n">
         <v>15</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19656,13 +19656,13 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L268" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M268" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19728,13 +19728,13 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L269" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="Q269" t="n">
         <v>20</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19872,13 +19872,13 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L271" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M271" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19887,11 +19887,11 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q271" t="n">
         <v>15</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19944,17 +19944,17 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L272" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M272" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20160,13 +20160,13 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L275" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M275" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q275" t="n">
         <v>15</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,17 +20232,17 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q276" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20304,29 +20304,29 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L277" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M277" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="Q277" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,13 +20376,13 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M278" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20391,11 +20391,11 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,29 +20448,29 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L279" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M279" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20530,19 +20530,19 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Q280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20592,29 +20592,29 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L281" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M281" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L282" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M282" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,13 +20736,13 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L283" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M283" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20751,11 +20751,11 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q283" t="n">
         <v>15</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L284" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M284" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q284" t="n">
         <v>10</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L285" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M285" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q285" t="n">
         <v>15</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20952,13 +20952,13 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L286" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M286" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q286" t="n">
         <v>15</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L287" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M287" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q287" t="n">
         <v>10</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L288" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M288" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>550</v>
+        <v>283</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21168,13 +21168,13 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L289" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M289" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21240,13 +21240,13 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L290" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M290" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q290" t="n">
         <v>10</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L292" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M292" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21456,17 +21456,17 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M293" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21528,13 +21528,13 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L294" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M294" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,13 +21600,13 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M295" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21672,13 +21672,13 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M296" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q296" t="n">
         <v>15</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,29 +21744,29 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M297" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>675</v>
+        <v>517</v>
       </c>
       <c r="Q297" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M298" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q298" t="n">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,17 +21960,17 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L300" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,32 +22029,32 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K301" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L301" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M301" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,17 +22104,17 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L302" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M302" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,13 +22176,13 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L303" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M303" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,17 +22248,17 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M304" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q304" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22320,13 +22320,13 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L305" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M305" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q305" t="n">
         <v>10</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22392,13 +22392,13 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L306" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,13 +22464,13 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L307" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M307" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q307" t="n">
         <v>15</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22536,17 +22536,17 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L308" t="n">
         <v>6500</v>
       </c>
-      <c r="L308" t="n">
-        <v>7000</v>
-      </c>
       <c r="M308" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,29 +22608,29 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L309" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M309" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>375</v>
+        <v>517</v>
       </c>
       <c r="Q309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M310" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22695,11 +22695,11 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="Q310" t="n">
         <v>15</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22752,13 +22752,13 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L311" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M311" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L312" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M312" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q312" t="n">
         <v>10</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K313" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L313" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M313" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>550</v>
+        <v>317</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22968,13 +22968,13 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L314" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M314" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L315" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M315" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q315" t="n">
         <v>10</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L316" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M316" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,13 +23184,13 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L317" t="n">
         <v>6500</v>
       </c>
-      <c r="L317" t="n">
-        <v>7000</v>
-      </c>
       <c r="M317" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,20 +23253,20 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K318" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L318" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M318" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K319" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L319" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M319" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q320" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,13 +23472,13 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M321" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K322" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L322" t="n">
         <v>7000</v>
       </c>
-      <c r="L322" t="n">
-        <v>7500</v>
-      </c>
       <c r="M322" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,17 +23616,17 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L323" t="n">
         <v>7000</v>
       </c>
-      <c r="L323" t="n">
-        <v>7500</v>
-      </c>
       <c r="M323" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q323" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,29 +23688,29 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L324" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M324" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q324" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L325" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M325" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L326" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M326" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L327" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M327" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="Q327" t="n">
         <v>20</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,17 +23976,17 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L328" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M328" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="Q328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M329" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,17 +24120,17 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L330" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M330" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,17 +24192,17 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L331" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M331" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K332" t="n">
         <v>3000</v>
@@ -24274,19 +24274,19 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="Q332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24351,7 +24351,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P333" t="n">
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24552,29 +24552,29 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L336" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M336" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>625</v>
+        <v>217</v>
       </c>
       <c r="Q336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L337" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M337" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>517</v>
+        <v>217</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L338" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M338" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24778,7 +24778,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,29 +24840,29 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L340" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M340" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L341" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M341" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44384</v>
+        <v>44334</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,13 +24984,13 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L342" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M342" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -24999,11 +24999,11 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>617</v>
+        <v>417</v>
       </c>
       <c r="Q342" t="n">
         <v>15</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,17 +25056,17 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L343" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M343" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,13 +25128,13 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L344" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M344" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25143,11 +25143,11 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q344" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,29 +25200,29 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L345" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M345" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>312</v>
+        <v>617</v>
       </c>
       <c r="Q345" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L347" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M347" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25498,7 +25498,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q349" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25560,13 +25560,13 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L350" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M350" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25575,11 +25575,11 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25642,7 +25642,7 @@
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q351" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -25776,13 +25776,13 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L353" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M353" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q353" t="n">
         <v>15</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q355" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -26007,7 +26007,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P356" t="n">
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26146,7 +26146,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q358" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26208,13 +26208,13 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L359" t="n">
         <v>7000</v>
       </c>
-      <c r="L359" t="n">
-        <v>7500</v>
-      </c>
       <c r="M359" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q359" t="n">
         <v>15</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L360" t="n">
         <v>6500</v>
       </c>
-      <c r="L360" t="n">
-        <v>7000</v>
-      </c>
       <c r="M360" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26362,7 +26362,7 @@
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q361" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26434,19 +26434,19 @@
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>725</v>
+        <v>483</v>
       </c>
       <c r="Q362" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,13 +26496,13 @@
         <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L363" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M363" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="Q363" t="n">
         <v>15</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26568,13 +26568,13 @@
         <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L364" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M364" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q364" t="n">
         <v>15</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26640,17 +26640,17 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L365" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M365" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="Q365" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,29 +26712,29 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L366" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M366" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Q366" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L367" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M367" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>550</v>
+        <v>383</v>
       </c>
       <c r="Q367" t="n">
         <v>15</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,13 +26856,13 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L368" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M368" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q368" t="n">
         <v>15</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,17 +26928,17 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L369" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M369" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q369" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27010,19 +27010,19 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="Q370" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,13 +27072,13 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M371" t="n">
-        <v>11500</v>
+        <v>5250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>767</v>
+        <v>350</v>
       </c>
       <c r="Q371" t="n">
         <v>15</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L372" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M372" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L373" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M373" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q373" t="n">
         <v>10</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27288,13 +27288,13 @@
         <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L374" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M374" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>550</v>
+        <v>767</v>
       </c>
       <c r="Q374" t="n">
         <v>15</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,13 +27360,13 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L375" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M375" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q375" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,17 +27432,17 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L376" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M376" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L377" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M377" t="n">
-        <v>3750</v>
+        <v>8250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="Q377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L378" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M378" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q378" t="n">
         <v>15</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27648,13 +27648,13 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L379" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M379" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="Q379" t="n">
         <v>15</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L380" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M380" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q380" t="n">
         <v>10</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K381" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L381" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M381" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q381" t="n">
         <v>15</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,13 +27864,13 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L382" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M382" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q382" t="n">
         <v>15</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="Q383" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,29 +28008,29 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L384" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M384" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="Q384" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28080,13 +28080,13 @@
         <v>100</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L385" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M385" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q385" t="n">
         <v>15</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28152,17 +28152,17 @@
         <v>100</v>
       </c>
       <c r="K386" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L386" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M386" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="Q386" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28224,13 +28224,13 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L387" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M387" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q387" t="n">
         <v>10</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,13 +28296,13 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L388" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M388" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,16 +28311,232 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
       </c>
       <c r="R388" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>11</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E389" t="n">
+        <v>8</v>
+      </c>
+      <c r="F389" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>100</v>
+      </c>
+      <c r="K389" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L389" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M389" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>15</v>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>11</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E390" t="n">
+        <v>8</v>
+      </c>
+      <c r="F390" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>100</v>
+      </c>
+      <c r="K390" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L390" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M390" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>10</v>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>11</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E391" t="n">
+        <v>8</v>
+      </c>
+      <c r="F391" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>100</v>
+      </c>
+      <c r="K391" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L391" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M391" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P391" t="n">
+        <v>517</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>15</v>
+      </c>
+      <c r="R391" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,17 +26136,17 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L358" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M358" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="Q358" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26208,29 +26208,29 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L359" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M359" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q359" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q360" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,13 +26352,13 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L361" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M361" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q361" t="n">
         <v>15</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26424,13 +26424,13 @@
         <v>100</v>
       </c>
       <c r="K362" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L362" t="n">
         <v>6500</v>
       </c>
-      <c r="L362" t="n">
-        <v>7000</v>
-      </c>
       <c r="M362" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q362" t="n">
         <v>15</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26568,17 +26568,17 @@
         <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L364" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M364" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q364" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26640,13 +26640,13 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L365" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M365" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,17 +26712,17 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L366" t="n">
         <v>6500</v>
       </c>
-      <c r="L366" t="n">
-        <v>7000</v>
-      </c>
       <c r="M366" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q366" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L367" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M367" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q367" t="n">
         <v>15</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,17 +26856,17 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L368" t="n">
         <v>7000</v>
       </c>
-      <c r="L368" t="n">
-        <v>7500</v>
-      </c>
       <c r="M368" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="Q368" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,13 +26928,13 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L369" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M369" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q369" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27000,17 +27000,17 @@
         <v>100</v>
       </c>
       <c r="K370" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L370" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M370" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>383</v>
+        <v>725</v>
       </c>
       <c r="Q370" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,13 +27072,13 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L371" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M371" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>417</v>
+        <v>567</v>
       </c>
       <c r="Q371" t="n">
         <v>15</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,17 +27144,17 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L372" t="n">
         <v>6000</v>
       </c>
-      <c r="L372" t="n">
-        <v>6500</v>
-      </c>
       <c r="M372" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q372" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44392</v>
+        <v>44397</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L373" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M373" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q373" t="n">
         <v>15</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27288,17 +27288,17 @@
         <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L374" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M374" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q374" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,13 +27360,13 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L375" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M375" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q375" t="n">
         <v>15</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,17 +27432,17 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L376" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M376" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="Q376" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,13 +27504,13 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L377" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M377" t="n">
-        <v>11500</v>
+        <v>5250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>767</v>
+        <v>350</v>
       </c>
       <c r="Q377" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,17 +27576,17 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L378" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M378" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>483</v>
+        <v>825</v>
       </c>
       <c r="Q378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,29 +27648,29 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L379" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M379" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>625</v>
+        <v>767</v>
       </c>
       <c r="Q379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L380" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M380" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q380" t="n">
         <v>15</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27792,17 +27792,17 @@
         <v>100</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L381" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M381" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q381" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,13 +27864,13 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L382" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M382" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="Q382" t="n">
         <v>15</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,17 +27936,17 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L383" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M383" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="Q383" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L384" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M384" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="Q384" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28080,17 +28080,17 @@
         <v>100</v>
       </c>
       <c r="K385" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L385" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M385" t="n">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="Q385" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,32 +28149,32 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K386" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L386" t="n">
         <v>4500</v>
       </c>
-      <c r="L386" t="n">
-        <v>5000</v>
-      </c>
       <c r="M386" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>475</v>
+        <v>283</v>
       </c>
       <c r="Q386" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,13 +28224,13 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L387" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M387" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q387" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,17 +28296,17 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L388" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M388" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>283</v>
+        <v>475</v>
       </c>
       <c r="Q388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,29 +28368,29 @@
         <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L389" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M389" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q389" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,17 +28440,17 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L390" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M390" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="Q390" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,17 +28512,17 @@
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L391" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M391" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q391" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28594,7 +28594,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>383</v>
+        <v>575</v>
       </c>
       <c r="Q392" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28656,17 +28656,17 @@
         <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L393" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M393" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q393" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,13 +28728,13 @@
         <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L394" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M394" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,16 +28743,160 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q394" t="n">
         <v>15</v>
       </c>
       <c r="R394" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>11</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E395" t="n">
+        <v>8</v>
+      </c>
+      <c r="F395" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>100</v>
+      </c>
+      <c r="K395" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L395" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M395" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P395" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>10</v>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>11</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E396" t="n">
+        <v>8</v>
+      </c>
+      <c r="F396" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>100</v>
+      </c>
+      <c r="K396" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L396" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M396" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P396" t="n">
+        <v>517</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>15</v>
+      </c>
+      <c r="R396" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R407"/>
+  <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,32 +26133,32 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K358" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L358" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M358" t="n">
-        <v>9250</v>
+        <v>6714</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>617</v>
+        <v>671</v>
       </c>
       <c r="Q358" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K359" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L359" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M359" t="n">
-        <v>6250</v>
+        <v>7214</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="Q359" t="n">
         <v>15</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L360" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M360" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>450</v>
+        <v>617</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26362,7 +26362,7 @@
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q361" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26424,17 +26424,17 @@
         <v>100</v>
       </c>
       <c r="K362" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L362" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M362" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>825</v>
+        <v>450</v>
       </c>
       <c r="Q362" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,29 +26496,29 @@
         <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L363" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M363" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>767</v>
+        <v>312</v>
       </c>
       <c r="Q363" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26568,17 +26568,17 @@
         <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L364" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M364" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>483</v>
+        <v>825</v>
       </c>
       <c r="Q364" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26640,29 +26640,29 @@
         <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L365" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M365" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>625</v>
+        <v>767</v>
       </c>
       <c r="Q365" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,13 +26712,13 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L366" t="n">
         <v>7500</v>
       </c>
-      <c r="L366" t="n">
-        <v>8000</v>
-      </c>
       <c r="M366" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q366" t="n">
         <v>15</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q367" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,13 +26856,13 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L368" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M368" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q368" t="n">
         <v>15</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q369" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27000,13 +27000,13 @@
         <v>100</v>
       </c>
       <c r="K370" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L370" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M370" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q370" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q371" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,29 +27144,29 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L372" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M372" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q372" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L373" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M373" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q373" t="n">
         <v>15</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27288,13 +27288,13 @@
         <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L374" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M374" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="Q374" t="n">
         <v>10</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27360,13 +27360,13 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L375" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M375" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q375" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L377" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M377" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>625</v>
+        <v>217</v>
       </c>
       <c r="Q377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,13 +27576,13 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L378" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M378" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>550</v>
+        <v>217</v>
       </c>
       <c r="Q378" t="n">
         <v>15</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,17 +27648,17 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M379" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q379" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L380" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M380" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q380" t="n">
         <v>15</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K381" t="n">
         <v>5000</v>
@@ -27798,11 +27798,11 @@
         <v>5500</v>
       </c>
       <c r="M381" t="n">
-        <v>5222</v>
+        <v>5250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>522</v>
+        <v>350</v>
       </c>
       <c r="Q381" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,29 +27852,29 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L382" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M382" t="n">
-        <v>3889</v>
+        <v>5250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="Q382" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,29 +27936,29 @@
         <v>450</v>
       </c>
       <c r="K383" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L383" t="n">
         <v>5500</v>
       </c>
-      <c r="L383" t="n">
-        <v>6000</v>
-      </c>
       <c r="M383" t="n">
-        <v>5722</v>
+        <v>5222</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="Q383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,32 +28005,32 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K384" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L384" t="n">
         <v>4000</v>
       </c>
       <c r="M384" t="n">
-        <v>3767</v>
+        <v>3889</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="Q384" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,32 +28077,32 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K385" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L385" t="n">
         <v>6000</v>
       </c>
-      <c r="L385" t="n">
-        <v>6500</v>
-      </c>
       <c r="M385" t="n">
-        <v>6250</v>
+        <v>5722</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>625</v>
+        <v>381</v>
       </c>
       <c r="Q385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,25 +28140,25 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K386" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L386" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M386" t="n">
-        <v>6250</v>
+        <v>3767</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="Q386" t="n">
         <v>15</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,17 +28224,17 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L387" t="n">
         <v>6500</v>
       </c>
-      <c r="L387" t="n">
-        <v>7000</v>
-      </c>
       <c r="M387" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>338</v>
+        <v>625</v>
       </c>
       <c r="Q387" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,13 +28296,13 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L388" t="n">
         <v>6500</v>
       </c>
-      <c r="L388" t="n">
-        <v>7000</v>
-      </c>
       <c r="M388" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,17 +28368,17 @@
         <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L389" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M389" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q389" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,17 +28440,17 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L390" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M390" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q390" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,13 +28512,13 @@
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L391" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M391" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q391" t="n">
         <v>15</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,32 +28581,32 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L392" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M392" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q392" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28656,13 +28656,13 @@
         <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L393" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M393" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q393" t="n">
         <v>15</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,32 +28725,32 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K394" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>625</v>
+        <v>317</v>
       </c>
       <c r="Q394" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28800,17 +28800,17 @@
         <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L395" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M395" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q395" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28882,7 +28882,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q396" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29016,13 +29016,13 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L398" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M398" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q398" t="n">
         <v>15</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29160,29 +29160,29 @@
         <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L400" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M400" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29232,13 +29232,13 @@
         <v>100</v>
       </c>
       <c r="K401" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L401" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M401" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>567</v>
+        <v>417</v>
       </c>
       <c r="Q401" t="n">
         <v>15</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29304,17 +29304,17 @@
         <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L402" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M402" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,13 +29376,13 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L403" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M403" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q403" t="n">
         <v>15</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29530,7 +29530,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q405" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L406" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M406" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29664,13 +29664,13 @@
         <v>100</v>
       </c>
       <c r="K407" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L407" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M407" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,12 +29683,156 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Q407" t="n">
         <v>20</v>
       </c>
       <c r="R407" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>11</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E408" t="n">
+        <v>8</v>
+      </c>
+      <c r="F408" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J408" t="n">
+        <v>100</v>
+      </c>
+      <c r="K408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L408" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M408" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P408" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>15</v>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>11</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E409" t="n">
+        <v>8</v>
+      </c>
+      <c r="F409" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>100</v>
+      </c>
+      <c r="K409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L409" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M409" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P409" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>20</v>
+      </c>
+      <c r="R409" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R409"/>
+  <dimension ref="A1:R412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K364" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L364" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M364" t="n">
-        <v>8250</v>
+        <v>4300</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>825</v>
+        <v>430</v>
       </c>
       <c r="Q364" t="n">
         <v>10</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K365" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L365" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M365" t="n">
-        <v>11500</v>
+        <v>5727</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>767</v>
+        <v>382</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,32 +26709,32 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K366" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L366" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M366" t="n">
-        <v>7250</v>
+        <v>4265</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>483</v>
+        <v>237</v>
       </c>
       <c r="Q366" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26784,13 +26784,13 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L367" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M367" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q367" t="n">
         <v>10</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26856,13 +26856,13 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L368" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M368" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>517</v>
+        <v>767</v>
       </c>
       <c r="Q368" t="n">
         <v>15</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,13 +26928,13 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L369" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q369" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q370" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,29 +27072,29 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L371" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M371" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>625</v>
+        <v>517</v>
       </c>
       <c r="Q371" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L372" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M372" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,17 +27432,17 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L376" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M376" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q376" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L377" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M377" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q377" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,13 +27576,13 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L378" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M378" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q378" t="n">
         <v>15</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27648,13 +27648,13 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L379" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M379" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q379" t="n">
         <v>10</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L380" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M380" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>550</v>
+        <v>217</v>
       </c>
       <c r="Q380" t="n">
         <v>15</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27792,13 +27792,13 @@
         <v>100</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L381" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M381" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q381" t="n">
         <v>15</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,17 +27864,17 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L382" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M382" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q382" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27933,32 +27933,32 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L383" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M383" t="n">
-        <v>5222</v>
+        <v>8250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="Q383" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,29 +27996,29 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L384" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M384" t="n">
-        <v>3889</v>
+        <v>5250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="Q384" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K385" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L385" t="n">
         <v>5500</v>
       </c>
-      <c r="L385" t="n">
-        <v>6000</v>
-      </c>
       <c r="M385" t="n">
-        <v>5722</v>
+        <v>5250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28095,11 +28095,11 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="Q385" t="n">
         <v>15</v>
@@ -28140,41 +28140,41 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K386" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L386" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M386" t="n">
-        <v>3767</v>
+        <v>5222</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>251</v>
+        <v>522</v>
       </c>
       <c r="Q386" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L387" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M387" t="n">
-        <v>6250</v>
+        <v>3889</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="Q387" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K388" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L388" t="n">
         <v>6000</v>
       </c>
-      <c r="L388" t="n">
-        <v>6500</v>
-      </c>
       <c r="M388" t="n">
-        <v>6250</v>
+        <v>5722</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28356,41 +28356,41 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K389" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L389" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M389" t="n">
-        <v>6750</v>
+        <v>3767</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="Q389" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,17 +28440,17 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L390" t="n">
         <v>6500</v>
       </c>
-      <c r="L390" t="n">
-        <v>7000</v>
-      </c>
       <c r="M390" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="Q390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28584,13 +28584,13 @@
         <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L392" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M392" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q392" t="n">
         <v>20</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28656,13 +28656,13 @@
         <v>100</v>
       </c>
       <c r="K393" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L393" t="n">
         <v>7000</v>
       </c>
-      <c r="L393" t="n">
-        <v>8000</v>
-      </c>
       <c r="M393" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q393" t="n">
         <v>15</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L394" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M394" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="Q394" t="n">
         <v>15</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28800,17 +28800,17 @@
         <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L395" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M395" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q395" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28872,29 +28872,29 @@
         <v>100</v>
       </c>
       <c r="K396" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L396" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M396" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,32 +28941,32 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K397" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L397" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M397" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>625</v>
+        <v>317</v>
       </c>
       <c r="Q397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29016,13 +29016,13 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L398" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M398" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q398" t="n">
         <v>15</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29160,29 +29160,29 @@
         <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L400" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M400" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q400" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29304,13 +29304,13 @@
         <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L402" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M402" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q402" t="n">
         <v>10</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29379,10 +29379,10 @@
         <v>8000</v>
       </c>
       <c r="L403" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M403" t="n">
-        <v>8500</v>
+        <v>8250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="Q403" t="n">
         <v>15</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29448,13 +29448,13 @@
         <v>100</v>
       </c>
       <c r="K404" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L404" t="n">
         <v>6500</v>
       </c>
-      <c r="L404" t="n">
-        <v>7000</v>
-      </c>
       <c r="M404" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q404" t="n">
         <v>15</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,17 +29520,17 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L405" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M405" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q405" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L406" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M406" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q407" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,13 +29736,13 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L408" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M408" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q408" t="n">
         <v>15</v>
@@ -29781,58 +29781,274 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E409" t="n">
+        <v>8</v>
+      </c>
+      <c r="F409" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>100</v>
+      </c>
+      <c r="K409" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L409" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M409" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P409" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>15</v>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>11</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E410" t="n">
+        <v>8</v>
+      </c>
+      <c r="F410" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J410" t="n">
+        <v>100</v>
+      </c>
+      <c r="K410" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L410" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M410" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P410" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>20</v>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>11</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E409" t="n">
-        <v>8</v>
-      </c>
-      <c r="F409" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H409" t="inlineStr">
+      <c r="E411" t="n">
+        <v>8</v>
+      </c>
+      <c r="F411" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J411" t="n">
+        <v>100</v>
+      </c>
+      <c r="K411" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L411" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M411" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P411" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>15</v>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>11</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E412" t="n">
+        <v>8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J409" t="n">
-        <v>100</v>
-      </c>
-      <c r="K409" t="n">
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>100</v>
+      </c>
+      <c r="K412" t="n">
         <v>5000</v>
       </c>
-      <c r="L409" t="n">
+      <c r="L412" t="n">
         <v>5500</v>
       </c>
-      <c r="M409" t="n">
+      <c r="M412" t="n">
         <v>5250</v>
       </c>
-      <c r="N409" t="inlineStr">
+      <c r="N412" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O409" t="inlineStr">
+      <c r="O412" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P409" t="n">
+      <c r="P412" t="n">
         <v>262</v>
       </c>
-      <c r="Q409" t="n">
+      <c r="Q412" t="n">
         <v>20</v>
       </c>
-      <c r="R409" t="inlineStr">
+      <c r="R412" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R412"/>
+  <dimension ref="A1:R415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29088,13 +29088,13 @@
         <v>100</v>
       </c>
       <c r="K399" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L399" t="n">
         <v>6000</v>
       </c>
-      <c r="L399" t="n">
-        <v>6500</v>
-      </c>
       <c r="M399" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q399" t="n">
         <v>10</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,32 +29157,32 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L400" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M400" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29232,17 +29232,17 @@
         <v>100</v>
       </c>
       <c r="K401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L401" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M401" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q401" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,29 +29376,29 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L403" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M403" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29520,13 +29520,13 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L405" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M405" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q405" t="n">
         <v>10</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29595,10 +29595,10 @@
         <v>8000</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M406" t="n">
-        <v>8500</v>
+        <v>8250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29664,13 +29664,13 @@
         <v>100</v>
       </c>
       <c r="K407" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L407" t="n">
         <v>6500</v>
       </c>
-      <c r="L407" t="n">
-        <v>7000</v>
-      </c>
       <c r="M407" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q407" t="n">
         <v>15</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,17 +29736,17 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L408" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M408" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q408" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29808,13 +29808,13 @@
         <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M409" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q409" t="n">
         <v>15</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29890,7 +29890,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q410" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29952,13 +29952,13 @@
         <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L411" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M411" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q411" t="n">
         <v>15</v>
@@ -29997,58 +29997,274 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E412" t="n">
+        <v>8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>100</v>
+      </c>
+      <c r="K412" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L412" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M412" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>15</v>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>11</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E413" t="n">
+        <v>8</v>
+      </c>
+      <c r="F413" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>100</v>
+      </c>
+      <c r="K413" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L413" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M413" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>20</v>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>11</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E412" t="n">
-        <v>8</v>
-      </c>
-      <c r="F412" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H412" t="inlineStr">
+      <c r="E414" t="n">
+        <v>8</v>
+      </c>
+      <c r="F414" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>100</v>
+      </c>
+      <c r="K414" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L414" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M414" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>15</v>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>11</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E415" t="n">
+        <v>8</v>
+      </c>
+      <c r="F415" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I412" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J412" t="n">
-        <v>100</v>
-      </c>
-      <c r="K412" t="n">
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>100</v>
+      </c>
+      <c r="K415" t="n">
         <v>5000</v>
       </c>
-      <c r="L412" t="n">
+      <c r="L415" t="n">
         <v>5500</v>
       </c>
-      <c r="M412" t="n">
+      <c r="M415" t="n">
         <v>5250</v>
       </c>
-      <c r="N412" t="inlineStr">
+      <c r="N415" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O412" t="inlineStr">
+      <c r="O415" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P412" t="n">
+      <c r="P415" t="n">
         <v>262</v>
       </c>
-      <c r="Q412" t="n">
+      <c r="Q415" t="n">
         <v>20</v>
       </c>
-      <c r="R412" t="inlineStr">
+      <c r="R415" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R415"/>
+  <dimension ref="A1:R419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -16704,13 +16704,13 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L227" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M227" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="Q227" t="n">
         <v>10</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K228" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L228" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M228" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q228" t="n">
         <v>15</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -16848,13 +16848,13 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L229" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M229" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="Q229" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44188</v>
+        <v>44512</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16920,17 +16920,17 @@
         <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L230" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M230" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="Q230" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16992,29 +16992,29 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L231" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M231" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="Q231" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K232" t="n">
         <v>3000</v>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P232" t="n">
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="Q233" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44222</v>
+        <v>44188</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -17208,13 +17208,13 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L234" t="n">
         <v>3500</v>
       </c>
-      <c r="L234" t="n">
-        <v>4000</v>
-      </c>
       <c r="M234" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="Q234" t="n">
         <v>10</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44222</v>
+        <v>44188</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K235" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L235" t="n">
         <v>4500</v>
       </c>
-      <c r="L235" t="n">
-        <v>5000</v>
-      </c>
       <c r="M235" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q235" t="n">
         <v>15</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,13 +17352,13 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L236" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M236" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="Q236" t="n">
         <v>15</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17424,17 +17424,17 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L237" t="n">
         <v>3500</v>
       </c>
-      <c r="L237" t="n">
-        <v>4000</v>
-      </c>
       <c r="M237" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="Q237" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17506,7 +17506,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44334</v>
+        <v>44222</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,32 +17565,32 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K239" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L239" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M239" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>625</v>
+        <v>317</v>
       </c>
       <c r="Q239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44334</v>
+        <v>44189</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -17640,13 +17640,13 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L240" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M240" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="Q240" t="n">
         <v>15</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44334</v>
+        <v>44189</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,13 +17712,13 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L241" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M241" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="Q241" t="n">
         <v>15</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44334</v>
+        <v>44189</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -17784,13 +17784,13 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L242" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M242" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q242" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q243" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17928,13 +17928,13 @@
         <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L244" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M244" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>350</v>
+        <v>517</v>
       </c>
       <c r="Q244" t="n">
         <v>15</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E245" t="n">
         <v>8</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,13 +18000,13 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L245" t="n">
         <v>6000</v>
       </c>
-      <c r="L245" t="n">
-        <v>6500</v>
-      </c>
       <c r="M245" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q245" t="n">
         <v>15</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44350</v>
+        <v>44334</v>
       </c>
       <c r="E246" t="n">
         <v>8</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18082,7 +18082,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44278</v>
+        <v>44405</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44278</v>
+        <v>44405</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18216,13 +18216,13 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M248" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="Q248" t="n">
         <v>15</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44474</v>
+        <v>44405</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18288,17 +18288,17 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L249" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M249" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="Q249" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44474</v>
+        <v>44350</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18360,29 +18360,29 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L250" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M250" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44474</v>
+        <v>44278</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18432,29 +18432,29 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L251" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M251" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44474</v>
+        <v>44278</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18504,13 +18504,13 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L252" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M252" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="Q252" t="n">
         <v>15</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44294</v>
+        <v>44474</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
@@ -18576,13 +18576,13 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L253" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M253" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q253" t="n">
         <v>10</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44294</v>
+        <v>44474</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18648,13 +18648,13 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M254" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q254" t="n">
         <v>15</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44294</v>
+        <v>44474</v>
       </c>
       <c r="E255" t="n">
         <v>8</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,13 +18720,13 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L255" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M255" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q255" t="n">
         <v>15</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44294</v>
+        <v>44474</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -18792,13 +18792,13 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L256" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M256" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44496</v>
+        <v>44294</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,20 +18861,20 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M257" t="n">
-        <v>5786</v>
+        <v>7250</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>386</v>
+        <v>725</v>
       </c>
       <c r="Q257" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44496</v>
+        <v>44294</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,32 +18933,32 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L258" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M258" t="n">
-        <v>5300</v>
+        <v>8250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>265</v>
+        <v>550</v>
       </c>
       <c r="Q258" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E260" t="n">
         <v>8</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19080,13 +19080,13 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L260" t="n">
         <v>7500</v>
       </c>
-      <c r="L260" t="n">
-        <v>8000</v>
-      </c>
       <c r="M260" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19095,11 +19095,11 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q260" t="n">
         <v>15</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44385</v>
+        <v>44496</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K261" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L261" t="n">
         <v>6000</v>
       </c>
-      <c r="L261" t="n">
-        <v>6500</v>
-      </c>
       <c r="M261" t="n">
-        <v>6250</v>
+        <v>5786</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="Q261" t="n">
         <v>15</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44385</v>
+        <v>44496</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19221,20 +19221,20 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K262" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L262" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M262" t="n">
-        <v>6750</v>
+        <v>5300</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>450</v>
+        <v>265</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44196</v>
+        <v>44385</v>
       </c>
       <c r="E263" t="n">
         <v>8</v>
@@ -19296,13 +19296,13 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M263" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q263" t="n">
         <v>10</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44196</v>
+        <v>44385</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L264" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M264" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>350</v>
+        <v>517</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44196</v>
+        <v>44385</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19440,13 +19440,13 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L265" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M265" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q265" t="n">
         <v>15</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44196</v>
+        <v>44385</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19512,13 +19512,13 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L266" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M266" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="Q266" t="n">
         <v>15</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44341</v>
+        <v>44196</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,32 +19581,32 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L267" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M267" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="Q267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44341</v>
+        <v>44196</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K268" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L268" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M268" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19671,11 +19671,11 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q268" t="n">
         <v>15</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44341</v>
+        <v>44196</v>
       </c>
       <c r="E269" t="n">
         <v>8</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19728,13 +19728,13 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L269" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M269" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q269" t="n">
         <v>15</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44308</v>
+        <v>44196</v>
       </c>
       <c r="E270" t="n">
         <v>8</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19800,17 +19800,17 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L270" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M270" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="Q270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K271" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M271" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q271" t="n">
         <v>15</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20016,17 +20016,17 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L273" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M273" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q273" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44454</v>
+        <v>44308</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20088,17 +20088,17 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L274" t="n">
         <v>6000</v>
       </c>
-      <c r="L274" t="n">
-        <v>6500</v>
-      </c>
       <c r="M274" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44454</v>
+        <v>44308</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20170,19 +20170,19 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q275" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44208</v>
+        <v>44308</v>
       </c>
       <c r="E276" t="n">
         <v>8</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,17 +20232,17 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44208</v>
+        <v>44308</v>
       </c>
       <c r="E277" t="n">
         <v>8</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,32 +20301,32 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L277" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M277" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q277" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44208</v>
+        <v>44454</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20376,13 +20376,13 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L278" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M278" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q278" t="n">
         <v>15</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44208</v>
+        <v>44454</v>
       </c>
       <c r="E279" t="n">
         <v>8</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,17 +20448,17 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L279" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M279" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44490</v>
+        <v>44208</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -20520,13 +20520,13 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L280" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M280" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20535,11 +20535,11 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q280" t="n">
         <v>10</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44490</v>
+        <v>44208</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K281" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L281" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M281" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20607,11 +20607,11 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q281" t="n">
         <v>15</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44490</v>
+        <v>44208</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -20664,13 +20664,13 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L282" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M282" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q282" t="n">
         <v>15</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44399</v>
+        <v>44208</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20736,17 +20736,17 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L283" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M283" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>725</v>
+        <v>250</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44399</v>
+        <v>44490</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20808,17 +20808,17 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L284" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M284" t="n">
-        <v>9250</v>
+        <v>5250</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44399</v>
+        <v>44490</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44490</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44357</v>
+        <v>44399</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21024,29 +21024,29 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L287" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M287" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q287" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44399</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21096,13 +21096,13 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L288" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M288" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21111,11 +21111,11 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>417</v>
+        <v>617</v>
       </c>
       <c r="Q288" t="n">
         <v>15</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44399</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
@@ -21312,13 +21312,13 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L291" t="n">
         <v>7000</v>
       </c>
-      <c r="L291" t="n">
-        <v>7500</v>
-      </c>
       <c r="M291" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q291" t="n">
         <v>15</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44229</v>
+        <v>44357</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21456,17 +21456,17 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M293" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -21528,13 +21528,13 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L294" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M294" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q294" t="n">
         <v>10</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -21600,13 +21600,13 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M295" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21615,11 +21615,11 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="Q295" t="n">
         <v>15</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,17 +21744,17 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M297" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E299" t="n">
         <v>8</v>
@@ -21888,13 +21888,13 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L299" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M299" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>550</v>
+        <v>633</v>
       </c>
       <c r="Q299" t="n">
         <v>15</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E300" t="n">
         <v>8</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,13 +21960,13 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L300" t="n">
         <v>6500</v>
       </c>
-      <c r="L300" t="n">
-        <v>7000</v>
-      </c>
       <c r="M300" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q300" t="n">
         <v>15</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44453</v>
+        <v>44376</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22104,29 +22104,29 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L302" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M302" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="Q302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22176,13 +22176,13 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M303" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22191,11 +22191,11 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q303" t="n">
         <v>15</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44351</v>
+        <v>44316</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22248,13 +22248,13 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22263,11 +22263,11 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22330,7 +22330,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,13 +22392,13 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L306" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M306" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22407,11 +22407,11 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q306" t="n">
         <v>15</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44453</v>
       </c>
       <c r="E307" t="n">
         <v>8</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22536,13 +22536,13 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L308" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M308" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22752,17 +22752,17 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L311" t="n">
         <v>6500</v>
       </c>
-      <c r="L311" t="n">
-        <v>7000</v>
-      </c>
       <c r="M311" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22824,13 +22824,13 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M312" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q312" t="n">
         <v>15</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22896,17 +22896,17 @@
         <v>100</v>
       </c>
       <c r="K313" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L313" t="n">
         <v>6500</v>
       </c>
-      <c r="L313" t="n">
-        <v>7000</v>
-      </c>
       <c r="M313" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="Q313" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44442</v>
+        <v>44279</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22968,13 +22968,13 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L314" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M314" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23040,13 +23040,13 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L315" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M315" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q315" t="n">
         <v>10</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -23112,13 +23112,13 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L316" t="n">
         <v>7000</v>
       </c>
-      <c r="L316" t="n">
-        <v>7500</v>
-      </c>
       <c r="M316" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44372</v>
+        <v>44280</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>338</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44372</v>
+        <v>44442</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K318" t="n">
         <v>8500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,17 +23328,17 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L319" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M319" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="Q319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,13 +23400,13 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L320" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M320" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23415,11 +23415,11 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q320" t="n">
         <v>15</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44482</v>
+        <v>44372</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L321" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M321" t="n">
-        <v>4700</v>
+        <v>6750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>470</v>
+        <v>675</v>
       </c>
       <c r="Q321" t="n">
         <v>10</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44482</v>
+        <v>44372</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K322" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L322" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M322" t="n">
-        <v>6278</v>
+        <v>8750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>419</v>
+        <v>583</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44482</v>
+        <v>44372</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,32 +23613,32 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L323" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M323" t="n">
-        <v>5300</v>
+        <v>6250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="Q323" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44293</v>
+        <v>44372</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,17 +23688,17 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L324" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M324" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,32 +23757,32 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K325" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L325" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M325" t="n">
-        <v>7750</v>
+        <v>4700</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="Q325" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44204</v>
+        <v>44482</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,32 +23829,32 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K326" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L326" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M326" t="n">
-        <v>3750</v>
+        <v>6278</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="Q326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44204</v>
+        <v>44482</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K327" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L327" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M327" t="n">
-        <v>4250</v>
+        <v>5300</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q327" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,17 +23976,17 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L328" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M328" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>217</v>
+        <v>725</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44218</v>
+        <v>44293</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24048,13 +24048,13 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L329" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M329" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44218</v>
+        <v>44204</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K330" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L330" t="n">
         <v>4000</v>
       </c>
-      <c r="L330" t="n">
-        <v>4500</v>
-      </c>
       <c r="M330" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="Q330" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,32 +24189,32 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K331" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L331" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M331" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="Q331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L333" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M333" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="Q333" t="n">
         <v>15</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44218</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L334" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M334" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L335" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M335" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="Q335" t="n">
         <v>10</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L336" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M336" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q336" t="n">
         <v>15</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L337" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M337" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L338" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M338" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,17 +24768,17 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L339" t="n">
         <v>6000</v>
       </c>
-      <c r="L339" t="n">
-        <v>6500</v>
-      </c>
       <c r="M339" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>312</v>
+        <v>575</v>
       </c>
       <c r="Q339" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44356</v>
+        <v>44477</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,29 +24840,29 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L340" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M340" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44356</v>
+        <v>44292</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L341" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M341" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,17 +24984,17 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L342" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M342" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,29 +25056,29 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L343" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M343" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25138,7 +25138,7 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44211</v>
+        <v>44356</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,17 +25200,17 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L345" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M345" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,29 +25272,29 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L346" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M346" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L347" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M347" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25416,13 +25416,13 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L348" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M348" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q348" t="n">
         <v>15</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25488,13 +25488,13 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L349" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M349" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="Q349" t="n">
         <v>10</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25560,13 +25560,13 @@
         <v>100</v>
       </c>
       <c r="K350" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L350" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M350" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25632,13 +25632,13 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L351" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M351" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,13 +25704,13 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L352" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M352" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q352" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,17 +25776,17 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L353" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M353" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>262</v>
+        <v>575</v>
       </c>
       <c r="Q353" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25848,29 +25848,29 @@
         <v>100</v>
       </c>
       <c r="K354" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L354" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M354" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q354" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25920,13 +25920,13 @@
         <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L355" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M355" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25935,11 +25935,11 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="Q355" t="n">
         <v>15</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25992,13 +25992,13 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L356" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M356" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q356" t="n">
         <v>15</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26064,17 +26064,17 @@
         <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L357" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M357" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="Q357" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L358" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M358" t="n">
-        <v>6714</v>
+        <v>4250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>671</v>
+        <v>425</v>
       </c>
       <c r="Q358" t="n">
         <v>10</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L359" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M359" t="n">
-        <v>7214</v>
+        <v>4750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>481</v>
+        <v>317</v>
       </c>
       <c r="Q359" t="n">
         <v>15</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44384</v>
+        <v>44215</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26280,13 +26280,13 @@
         <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L360" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M360" t="n">
-        <v>9250</v>
+        <v>4250</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>617</v>
+        <v>283</v>
       </c>
       <c r="Q360" t="n">
         <v>15</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44384</v>
+        <v>44215</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,13 +26352,13 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L361" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M361" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q361" t="n">
         <v>15</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K362" t="n">
         <v>6500</v>
@@ -26430,11 +26430,11 @@
         <v>7000</v>
       </c>
       <c r="M362" t="n">
-        <v>6750</v>
+        <v>6714</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="Q362" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,20 +26493,20 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K363" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L363" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M363" t="n">
-        <v>6250</v>
+        <v>7214</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="Q363" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,32 +26565,32 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L364" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="M364" t="n">
-        <v>4300</v>
+        <v>9250</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>430</v>
+        <v>617</v>
       </c>
       <c r="Q364" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K365" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L365" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M365" t="n">
-        <v>5727</v>
+        <v>6250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26709,32 +26709,32 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K366" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L366" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M366" t="n">
-        <v>4265</v>
+        <v>6750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>237</v>
+        <v>450</v>
       </c>
       <c r="Q366" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,17 +26784,17 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L367" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M367" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>825</v>
+        <v>312</v>
       </c>
       <c r="Q367" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,32 +26853,32 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K368" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L368" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M368" t="n">
-        <v>11500</v>
+        <v>4300</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>767</v>
+        <v>430</v>
       </c>
       <c r="Q368" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K369" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L369" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M369" t="n">
-        <v>7250</v>
+        <v>5727</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="Q369" t="n">
         <v>15</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44343</v>
+        <v>44505</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,32 +26997,32 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K370" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L370" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M370" t="n">
-        <v>6250</v>
+        <v>4265</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>625</v>
+        <v>237</v>
       </c>
       <c r="Q370" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,29 +27072,29 @@
         <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L371" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M371" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>517</v>
+        <v>825</v>
       </c>
       <c r="Q371" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L372" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M372" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>417</v>
+        <v>767</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L373" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M373" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q373" t="n">
         <v>15</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27360,13 +27360,13 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L375" t="n">
         <v>8000</v>
       </c>
-      <c r="L375" t="n">
-        <v>8500</v>
-      </c>
       <c r="M375" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="Q375" t="n">
         <v>15</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,29 +27576,29 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L378" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M378" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,29 +27648,29 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L379" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M379" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="Q379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27720,13 +27720,13 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L380" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M380" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q380" t="n">
         <v>15</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27792,17 +27792,17 @@
         <v>100</v>
       </c>
       <c r="K381" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L381" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M381" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q381" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27864,29 +27864,29 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L382" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M382" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q382" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,29 +27936,29 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L383" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M383" t="n">
-        <v>8250</v>
+        <v>3250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="Q383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,13 +28008,13 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L384" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M384" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q384" t="n">
         <v>15</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28080,13 +28080,13 @@
         <v>100</v>
       </c>
       <c r="K385" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L385" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M385" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q385" t="n">
         <v>15</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K386" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L386" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M386" t="n">
-        <v>5222</v>
+        <v>6250</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>522</v>
+        <v>625</v>
       </c>
       <c r="Q386" t="n">
         <v>10</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28212,41 +28212,41 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="L387" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M387" t="n">
-        <v>3889</v>
+        <v>8250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>324</v>
+        <v>550</v>
       </c>
       <c r="Q387" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K388" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L388" t="n">
         <v>5500</v>
       </c>
-      <c r="L388" t="n">
-        <v>6000</v>
-      </c>
       <c r="M388" t="n">
-        <v>5722</v>
+        <v>5250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44484</v>
+        <v>44392</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28356,25 +28356,25 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M389" t="n">
-        <v>3767</v>
+        <v>5250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28383,11 +28383,11 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P389" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="Q389" t="n">
         <v>15</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K390" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L390" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M390" t="n">
-        <v>6250</v>
+        <v>5222</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="Q390" t="n">
         <v>10</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K391" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L391" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M391" t="n">
-        <v>6250</v>
+        <v>3889</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="Q391" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,32 +28581,32 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K392" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M392" t="n">
-        <v>6750</v>
+        <v>5722</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="Q392" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44328</v>
+        <v>44484</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,25 +28644,25 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K393" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L393" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M393" t="n">
-        <v>6750</v>
+        <v>3767</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="Q393" t="n">
         <v>15</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28810,7 +28810,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q395" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28872,29 +28872,29 @@
         <v>100</v>
       </c>
       <c r="K396" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L396" t="n">
         <v>7000</v>
       </c>
-      <c r="L396" t="n">
-        <v>8000</v>
-      </c>
       <c r="M396" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>500</v>
+        <v>338</v>
       </c>
       <c r="Q396" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K397" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L397" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M397" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q397" t="n">
         <v>15</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44217</v>
+        <v>44328</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29016,13 +29016,13 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L398" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M398" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q398" t="n">
         <v>15</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44509</v>
+        <v>44328</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29088,17 +29088,17 @@
         <v>100</v>
       </c>
       <c r="K399" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M399" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>575</v>
+        <v>312</v>
       </c>
       <c r="Q399" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44509</v>
+        <v>44330</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M400" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q400" t="n">
         <v>15</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,32 +29229,32 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K401" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L401" t="n">
         <v>5000</v>
       </c>
-      <c r="L401" t="n">
-        <v>5500</v>
-      </c>
       <c r="M401" t="n">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="Q401" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29304,17 +29304,17 @@
         <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L402" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M402" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q402" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,13 +29376,13 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L403" t="n">
         <v>6000</v>
       </c>
-      <c r="L403" t="n">
-        <v>6500</v>
-      </c>
       <c r="M403" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q403" t="n">
         <v>10</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K404" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L404" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M404" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q404" t="n">
         <v>15</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,17 +29520,17 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L405" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M405" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>625</v>
+        <v>262</v>
       </c>
       <c r="Q405" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29592,29 +29592,29 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L406" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M406" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q406" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q407" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,17 +29736,17 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L408" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M408" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29808,29 +29808,29 @@
         <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M409" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="Q409" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29880,13 +29880,13 @@
         <v>100</v>
       </c>
       <c r="K410" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L410" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M410" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29952,13 +29952,13 @@
         <v>100</v>
       </c>
       <c r="K411" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L411" t="n">
         <v>6500</v>
       </c>
-      <c r="L411" t="n">
-        <v>7000</v>
-      </c>
       <c r="M411" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q411" t="n">
         <v>15</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30024,17 +30024,17 @@
         <v>100</v>
       </c>
       <c r="K412" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L412" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M412" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,29 +30096,29 @@
         <v>100</v>
       </c>
       <c r="K413" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L413" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M413" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>338</v>
+        <v>567</v>
       </c>
       <c r="Q413" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -30168,13 +30168,13 @@
         <v>100</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L414" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M414" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q414" t="n">
         <v>15</v>
@@ -30213,58 +30213,346 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E415" t="n">
+        <v>8</v>
+      </c>
+      <c r="F415" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>100</v>
+      </c>
+      <c r="K415" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L415" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M415" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>15</v>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>11</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E416" t="n">
+        <v>8</v>
+      </c>
+      <c r="F416" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>100</v>
+      </c>
+      <c r="K416" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L416" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M416" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P416" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>15</v>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>11</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E417" t="n">
+        <v>8</v>
+      </c>
+      <c r="F417" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>100</v>
+      </c>
+      <c r="K417" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L417" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M417" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P417" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>20</v>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>11</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E415" t="n">
-        <v>8</v>
-      </c>
-      <c r="F415" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H415" t="inlineStr">
+      <c r="E418" t="n">
+        <v>8</v>
+      </c>
+      <c r="F418" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>100</v>
+      </c>
+      <c r="K418" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L418" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M418" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>15</v>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>11</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E419" t="n">
+        <v>8</v>
+      </c>
+      <c r="F419" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I415" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J415" t="n">
-        <v>100</v>
-      </c>
-      <c r="K415" t="n">
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>100</v>
+      </c>
+      <c r="K419" t="n">
         <v>5000</v>
       </c>
-      <c r="L415" t="n">
+      <c r="L419" t="n">
         <v>5500</v>
       </c>
-      <c r="M415" t="n">
+      <c r="M419" t="n">
         <v>5250</v>
       </c>
-      <c r="N415" t="inlineStr">
+      <c r="N419" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O415" t="inlineStr">
+      <c r="O419" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P415" t="n">
+      <c r="P419" t="n">
         <v>262</v>
       </c>
-      <c r="Q415" t="n">
+      <c r="Q419" t="n">
         <v>20</v>
       </c>
-      <c r="R415" t="inlineStr">
+      <c r="R419" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R419"/>
+  <dimension ref="A1:R422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,32 +29229,32 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K401" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L401" t="n">
         <v>4500</v>
       </c>
-      <c r="L401" t="n">
-        <v>5000</v>
-      </c>
       <c r="M401" t="n">
-        <v>4750</v>
+        <v>4222</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="Q401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K402" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L402" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M402" t="n">
-        <v>3750</v>
+        <v>5222</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="Q402" t="n">
         <v>15</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,20 +29373,20 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K403" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L403" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M403" t="n">
-        <v>5750</v>
+        <v>4700</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>575</v>
+        <v>313</v>
       </c>
       <c r="Q403" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29448,13 +29448,13 @@
         <v>200</v>
       </c>
       <c r="K404" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L404" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M404" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q404" t="n">
         <v>15</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,17 +29520,17 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L405" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M405" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q405" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L406" t="n">
         <v>6000</v>
       </c>
-      <c r="L406" t="n">
-        <v>6500</v>
-      </c>
       <c r="M406" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q406" t="n">
         <v>10</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,32 +29661,32 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K407" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L407" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M407" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q407" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,17 +29736,17 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L408" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M408" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q408" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29880,29 +29880,29 @@
         <v>100</v>
       </c>
       <c r="K410" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L410" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M410" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q410" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -30024,13 +30024,13 @@
         <v>100</v>
       </c>
       <c r="K412" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M412" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q412" t="n">
         <v>10</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30099,10 +30099,10 @@
         <v>8000</v>
       </c>
       <c r="L413" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M413" t="n">
-        <v>8500</v>
+        <v>8250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="Q413" t="n">
         <v>15</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -30168,13 +30168,13 @@
         <v>100</v>
       </c>
       <c r="K414" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L414" t="n">
         <v>6500</v>
       </c>
-      <c r="L414" t="n">
-        <v>7000</v>
-      </c>
       <c r="M414" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q414" t="n">
         <v>15</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30240,17 +30240,17 @@
         <v>100</v>
       </c>
       <c r="K415" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L415" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M415" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q415" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30312,13 +30312,13 @@
         <v>100</v>
       </c>
       <c r="K416" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L416" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M416" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q416" t="n">
         <v>15</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30394,7 +30394,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q417" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30456,13 +30456,13 @@
         <v>100</v>
       </c>
       <c r="K418" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L418" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M418" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q418" t="n">
         <v>15</v>
@@ -30501,58 +30501,274 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E419" t="n">
+        <v>8</v>
+      </c>
+      <c r="F419" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>100</v>
+      </c>
+      <c r="K419" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L419" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M419" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P419" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>15</v>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>11</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E420" t="n">
+        <v>8</v>
+      </c>
+      <c r="F420" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>100</v>
+      </c>
+      <c r="K420" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L420" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M420" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P420" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>20</v>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>11</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E419" t="n">
-        <v>8</v>
-      </c>
-      <c r="F419" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
+      <c r="E421" t="n">
+        <v>8</v>
+      </c>
+      <c r="F421" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>100</v>
+      </c>
+      <c r="K421" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L421" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M421" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>15</v>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>11</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E422" t="n">
+        <v>8</v>
+      </c>
+      <c r="F422" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J419" t="n">
-        <v>100</v>
-      </c>
-      <c r="K419" t="n">
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>100</v>
+      </c>
+      <c r="K422" t="n">
         <v>5000</v>
       </c>
-      <c r="L419" t="n">
+      <c r="L422" t="n">
         <v>5500</v>
       </c>
-      <c r="M419" t="n">
+      <c r="M422" t="n">
         <v>5250</v>
       </c>
-      <c r="N419" t="inlineStr">
+      <c r="N422" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O419" t="inlineStr">
+      <c r="O422" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P419" t="n">
+      <c r="P422" t="n">
         <v>262</v>
       </c>
-      <c r="Q419" t="n">
+      <c r="Q422" t="n">
         <v>20</v>
       </c>
-      <c r="R419" t="inlineStr">
+      <c r="R422" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R428"/>
+  <dimension ref="A1:R432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -22680,13 +22680,13 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L310" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q310" t="n">
         <v>10</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -22752,13 +22752,13 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L311" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M311" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q311" t="n">
         <v>15</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M312" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>675</v>
+        <v>283</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L313" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M313" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22911,11 +22911,11 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>500</v>
+        <v>283</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22968,17 +22968,17 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L314" t="n">
         <v>6000</v>
       </c>
-      <c r="L314" t="n">
-        <v>6500</v>
-      </c>
       <c r="M314" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23040,13 +23040,13 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M315" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23055,11 +23055,11 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q315" t="n">
         <v>15</v>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23109,20 +23109,20 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K316" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L316" t="n">
         <v>7000</v>
       </c>
       <c r="M316" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="Q316" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44363</v>
+        <v>44259</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K317" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L317" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M317" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23199,11 +23199,11 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q317" t="n">
         <v>15</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44363</v>
+        <v>44259</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44363</v>
+        <v>44259</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23338,7 +23338,7 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q319" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44336</v>
+        <v>44259</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23403,14 +23403,14 @@
         <v>6000</v>
       </c>
       <c r="L320" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M320" t="n">
         <v>6500</v>
       </c>
-      <c r="M320" t="n">
-        <v>6250</v>
-      </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,13 +23472,13 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L321" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M321" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23487,11 +23487,11 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q321" t="n">
         <v>15</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,13 +23544,13 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L322" t="n">
         <v>6500</v>
       </c>
-      <c r="L322" t="n">
-        <v>7000</v>
-      </c>
       <c r="M322" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44372</v>
+        <v>44363</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,17 +23616,17 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L323" t="n">
         <v>6500</v>
       </c>
-      <c r="L323" t="n">
-        <v>7000</v>
-      </c>
       <c r="M323" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>312</v>
       </c>
       <c r="Q323" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,32 +23685,32 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L324" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M324" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L325" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M325" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23775,11 +23775,11 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L326" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M326" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44169</v>
+        <v>44372</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23904,13 +23904,13 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L327" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M327" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="Q327" t="n">
         <v>10</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44169</v>
+        <v>44372</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -23976,13 +23976,13 @@
         <v>200</v>
       </c>
       <c r="K328" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L328" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M328" t="n">
-        <v>3250</v>
+        <v>8750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>217</v>
+        <v>583</v>
       </c>
       <c r="Q328" t="n">
         <v>15</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44169</v>
+        <v>44372</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -24048,13 +24048,13 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L329" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M329" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,17 +24120,17 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L330" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M330" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q330" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,17 +24192,17 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L331" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M331" t="n">
-        <v>9500</v>
+        <v>3250</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>633</v>
+        <v>325</v>
       </c>
       <c r="Q331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L332" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M332" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q332" t="n">
         <v>15</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24336,13 +24336,13 @@
         <v>100</v>
       </c>
       <c r="K333" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L333" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M333" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q333" t="n">
         <v>15</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L334" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M334" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q334" t="n">
         <v>10</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -24480,13 +24480,13 @@
         <v>100</v>
       </c>
       <c r="K335" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L335" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M335" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24495,11 +24495,11 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>483</v>
+        <v>633</v>
       </c>
       <c r="Q335" t="n">
         <v>15</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -24552,13 +24552,13 @@
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L336" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M336" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q336" t="n">
         <v>15</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24624,13 +24624,13 @@
         <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L337" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M337" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24639,11 +24639,11 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q337" t="n">
         <v>15</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -24696,13 +24696,13 @@
         <v>100</v>
       </c>
       <c r="K338" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L338" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M338" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q338" t="n">
         <v>10</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24768,29 +24768,29 @@
         <v>100</v>
       </c>
       <c r="K339" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L339" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M339" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,13 +24840,13 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L340" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M340" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24855,11 +24855,11 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q340" t="n">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44239</v>
+        <v>44474</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,13 +24912,13 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L341" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M341" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q341" t="n">
         <v>15</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44239</v>
+        <v>44421</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24984,17 +24984,17 @@
         <v>100</v>
       </c>
       <c r="K342" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L342" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M342" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44239</v>
+        <v>44421</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25056,17 +25056,17 @@
         <v>100</v>
       </c>
       <c r="K343" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L343" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M343" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44239</v>
+        <v>44421</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25128,17 +25128,17 @@
         <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L344" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M344" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q344" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,29 +25200,29 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L345" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M345" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K346" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L346" t="n">
         <v>4500</v>
       </c>
-      <c r="L346" t="n">
-        <v>5000</v>
-      </c>
       <c r="M346" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -25344,13 +25344,13 @@
         <v>100</v>
       </c>
       <c r="K347" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L347" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M347" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25416,13 +25416,13 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L348" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M348" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="Q348" t="n">
         <v>20</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -25488,13 +25488,13 @@
         <v>100</v>
       </c>
       <c r="K349" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L349" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M349" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q349" t="n">
         <v>10</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K350" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L350" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M350" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>550</v>
+        <v>317</v>
       </c>
       <c r="Q350" t="n">
         <v>15</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -25632,13 +25632,13 @@
         <v>100</v>
       </c>
       <c r="K351" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L351" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M351" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q351" t="n">
         <v>15</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44210</v>
+        <v>44426</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,29 +25704,29 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L352" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M352" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="Q352" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,17 +25776,17 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L353" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M353" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q353" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25848,13 +25848,13 @@
         <v>100</v>
       </c>
       <c r="K354" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L354" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M354" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q354" t="n">
         <v>15</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E355" t="n">
         <v>8</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25920,17 +25920,17 @@
         <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L355" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M355" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="Q355" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25992,29 +25992,29 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L356" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M356" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q356" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26064,13 +26064,13 @@
         <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L357" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M357" t="n">
-        <v>8750</v>
+        <v>3250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>583</v>
+        <v>217</v>
       </c>
       <c r="Q357" t="n">
         <v>15</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,13 +26136,13 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L358" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M358" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q358" t="n">
         <v>15</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44279</v>
+        <v>44210</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26208,29 +26208,29 @@
         <v>100</v>
       </c>
       <c r="K359" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L359" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M359" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>483</v>
+        <v>162</v>
       </c>
       <c r="Q359" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q360" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,13 +26352,13 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L361" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M361" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26367,11 +26367,11 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q361" t="n">
         <v>15</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K362" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L362" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M362" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q362" t="n">
         <v>15</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26496,13 +26496,13 @@
         <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L363" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M363" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26511,11 +26511,11 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q363" t="n">
         <v>15</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,20 +26637,20 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K365" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L365" t="n">
         <v>6500</v>
       </c>
-      <c r="L365" t="n">
-        <v>7000</v>
-      </c>
       <c r="M365" t="n">
-        <v>6714</v>
+        <v>6250</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>671</v>
+        <v>417</v>
       </c>
       <c r="Q365" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K366" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L366" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M366" t="n">
-        <v>7214</v>
+        <v>7750</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="Q366" t="n">
         <v>15</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q367" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44384</v>
+        <v>44341</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,13 +26856,13 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L368" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M368" t="n">
-        <v>9250</v>
+        <v>6250</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>617</v>
+        <v>417</v>
       </c>
       <c r="Q368" t="n">
         <v>15</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,20 +26925,20 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K369" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L369" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>6714</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>417</v>
+        <v>671</v>
       </c>
       <c r="Q369" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K370" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L370" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M370" t="n">
-        <v>6750</v>
+        <v>7214</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="Q370" t="n">
         <v>15</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="Q371" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,29 +27144,29 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L372" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M372" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Q372" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L373" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M373" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q373" t="n">
         <v>15</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27288,13 +27288,13 @@
         <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L374" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M374" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q374" t="n">
         <v>15</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44491</v>
+        <v>44384</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,17 +27360,17 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L375" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M375" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q375" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,17 +27432,17 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L376" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M376" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>262</v>
+        <v>625</v>
       </c>
       <c r="Q376" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44166</v>
+        <v>44329</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L377" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M377" t="n">
-        <v>3250</v>
+        <v>7250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="Q377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44166</v>
+        <v>44329</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,13 +27576,13 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L378" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M378" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q378" t="n">
         <v>15</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,13 +27648,13 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L379" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M379" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q379" t="n">
         <v>15</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27720,17 +27720,17 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L380" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M380" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="Q380" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27792,13 +27792,13 @@
         <v>100</v>
       </c>
       <c r="K381" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L381" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M381" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="Q381" t="n">
         <v>10</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27864,13 +27864,13 @@
         <v>100</v>
       </c>
       <c r="K382" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L382" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M382" t="n">
-        <v>5750</v>
+        <v>3250</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="Q382" t="n">
         <v>15</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27936,13 +27936,13 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L383" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M383" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q383" t="n">
         <v>15</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -28008,13 +28008,13 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L384" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M384" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q384" t="n">
         <v>15</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28080,17 +28080,17 @@
         <v>100</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L385" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M385" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="Q385" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28152,29 +28152,29 @@
         <v>100</v>
       </c>
       <c r="K386" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L386" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M386" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>825</v>
+        <v>383</v>
       </c>
       <c r="Q386" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,13 +28224,13 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M387" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28239,11 +28239,11 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>767</v>
+        <v>417</v>
       </c>
       <c r="Q387" t="n">
         <v>15</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,13 +28296,13 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L388" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M388" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44348</v>
+        <v>44447</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,17 +28368,17 @@
         <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L389" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M389" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>725</v>
+        <v>312</v>
       </c>
       <c r="Q389" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,29 +28440,29 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L390" t="n">
         <v>8500</v>
       </c>
-      <c r="L390" t="n">
-        <v>9000</v>
-      </c>
       <c r="M390" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>583</v>
+        <v>825</v>
       </c>
       <c r="Q390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,13 +28512,13 @@
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L391" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M391" t="n">
-        <v>5250</v>
+        <v>11500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28527,11 +28527,11 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>350</v>
+        <v>767</v>
       </c>
       <c r="Q391" t="n">
         <v>15</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28584,17 +28584,17 @@
         <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L392" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M392" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q392" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28656,13 +28656,13 @@
         <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L393" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M393" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="Q393" t="n">
         <v>10</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28728,13 +28728,13 @@
         <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L394" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M394" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="Q394" t="n">
         <v>15</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K395" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L395" t="n">
         <v>5500</v>
       </c>
-      <c r="L395" t="n">
-        <v>6000</v>
-      </c>
       <c r="M395" t="n">
-        <v>5760</v>
+        <v>5250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>576</v>
+        <v>350</v>
       </c>
       <c r="Q395" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,20 +28869,20 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K396" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L396" t="n">
         <v>6500</v>
       </c>
-      <c r="L396" t="n">
-        <v>7000</v>
-      </c>
       <c r="M396" t="n">
-        <v>6786</v>
+        <v>6250</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="Q396" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28944,13 +28944,13 @@
         <v>100</v>
       </c>
       <c r="K397" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L397" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M397" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q397" t="n">
         <v>10</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29016,13 +29016,13 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M398" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q398" t="n">
         <v>15</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,20 +29085,20 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K399" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L399" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M399" t="n">
-        <v>4250</v>
+        <v>5760</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>283</v>
+        <v>576</v>
       </c>
       <c r="Q399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L400" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M400" t="n">
-        <v>6250</v>
+        <v>6786</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>625</v>
+        <v>452</v>
       </c>
       <c r="Q400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29232,29 +29232,29 @@
         <v>100</v>
       </c>
       <c r="K401" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L401" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M401" t="n">
-        <v>8250</v>
+        <v>4250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="Q401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29319,7 +29319,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P402" t="n">
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,17 +29376,17 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L403" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M403" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="Q403" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29448,29 +29448,29 @@
         <v>100</v>
       </c>
       <c r="K404" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L404" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M404" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>217</v>
+        <v>625</v>
       </c>
       <c r="Q404" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,13 +29520,13 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L405" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M405" t="n">
-        <v>3250</v>
+        <v>8250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>217</v>
+        <v>550</v>
       </c>
       <c r="Q405" t="n">
         <v>15</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L406" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M406" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K407" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L407" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M407" t="n">
-        <v>4700</v>
+        <v>3250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>470</v>
+        <v>325</v>
       </c>
       <c r="Q407" t="n">
         <v>10</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L408" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M408" t="n">
-        <v>6214</v>
+        <v>3250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="Q408" t="n">
         <v>15</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29808,17 +29808,17 @@
         <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L409" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M409" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>425</v>
+        <v>217</v>
       </c>
       <c r="Q409" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K410" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L410" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M410" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K411" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L411" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M411" t="n">
-        <v>4250</v>
+        <v>4700</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>283</v>
+        <v>470</v>
       </c>
       <c r="Q411" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K412" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M412" t="n">
-        <v>4750</v>
+        <v>6214</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="Q412" t="n">
         <v>15</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30096,13 +30096,13 @@
         <v>100</v>
       </c>
       <c r="K413" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L413" t="n">
         <v>4500</v>
       </c>
-      <c r="L413" t="n">
-        <v>5000</v>
-      </c>
       <c r="M413" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="Q413" t="n">
         <v>10</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -30240,13 +30240,13 @@
         <v>100</v>
       </c>
       <c r="K415" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L415" t="n">
         <v>4500</v>
       </c>
-      <c r="L415" t="n">
-        <v>5000</v>
-      </c>
       <c r="M415" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q415" t="n">
         <v>15</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44330</v>
+        <v>44238</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30312,13 +30312,13 @@
         <v>100</v>
       </c>
       <c r="K416" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L416" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="Q416" t="n">
         <v>15</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44432</v>
+        <v>44236</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -30384,13 +30384,13 @@
         <v>100</v>
       </c>
       <c r="K417" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L417" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M417" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="Q417" t="n">
         <v>10</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44432</v>
+        <v>44236</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K418" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L418" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M418" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>517</v>
+        <v>350</v>
       </c>
       <c r="Q418" t="n">
         <v>15</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30528,17 +30528,17 @@
         <v>100</v>
       </c>
       <c r="K419" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L419" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M419" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="Q419" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -30600,13 +30600,13 @@
         <v>100</v>
       </c>
       <c r="K420" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L420" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M420" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q420" t="n">
         <v>15</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30672,17 +30672,17 @@
         <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L421" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M421" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>283</v>
+        <v>725</v>
       </c>
       <c r="Q421" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30744,13 +30744,13 @@
         <v>100</v>
       </c>
       <c r="K422" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L422" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M422" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="Q422" t="n">
         <v>15</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -30816,13 +30816,13 @@
         <v>100</v>
       </c>
       <c r="K423" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L423" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M423" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>675</v>
+        <v>425</v>
       </c>
       <c r="Q423" t="n">
         <v>10</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -30888,13 +30888,13 @@
         <v>100</v>
       </c>
       <c r="K424" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M424" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q424" t="n">
         <v>15</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -30960,13 +30960,13 @@
         <v>100</v>
       </c>
       <c r="K425" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L425" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M425" t="n">
-        <v>6500</v>
+        <v>4250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="Q425" t="n">
         <v>15</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44309</v>
+        <v>44194</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31032,17 +31032,17 @@
         <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L426" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M426" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="Q426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44309</v>
+        <v>44271</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31114,19 +31114,19 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44309</v>
+        <v>44271</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31176,13 +31176,13 @@
         <v>100</v>
       </c>
       <c r="K428" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L428" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M428" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,16 +31191,304 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>383</v>
+        <v>550</v>
       </c>
       <c r="Q428" t="n">
         <v>15</v>
       </c>
       <c r="R428" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>11</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="E429" t="n">
+        <v>8</v>
+      </c>
+      <c r="F429" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>100</v>
+      </c>
+      <c r="K429" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>15</v>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>11</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E430" t="n">
+        <v>8</v>
+      </c>
+      <c r="F430" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>100</v>
+      </c>
+      <c r="K430" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L430" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M430" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>10</v>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>11</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E431" t="n">
+        <v>8</v>
+      </c>
+      <c r="F431" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>100</v>
+      </c>
+      <c r="K431" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L431" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M431" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P431" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>15</v>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>11</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D432" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E432" t="n">
+        <v>8</v>
+      </c>
+      <c r="F432" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>100</v>
+      </c>
+      <c r="K432" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L432" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M432" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P432" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>15</v>
+      </c>
+      <c r="R432" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R460"/>
+  <dimension ref="A1:R464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L375" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M375" t="n">
-        <v>5222</v>
+        <v>4250</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>522</v>
+        <v>425</v>
       </c>
       <c r="Q375" t="n">
         <v>10</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K376" t="n">
         <v>5000</v>
@@ -27438,7 +27438,7 @@
         <v>5500</v>
       </c>
       <c r="M376" t="n">
-        <v>5278</v>
+        <v>5250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q376" t="n">
         <v>15</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K377" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L377" t="n">
         <v>4500</v>
       </c>
-      <c r="L377" t="n">
-        <v>5000</v>
-      </c>
       <c r="M377" t="n">
-        <v>4786</v>
+        <v>4250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="Q377" t="n">
         <v>15</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K378" t="n">
         <v>4000</v>
@@ -27582,11 +27582,11 @@
         <v>4500</v>
       </c>
       <c r="M378" t="n">
-        <v>4214</v>
+        <v>4250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="Q378" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K379" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L379" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M379" t="n">
-        <v>6750</v>
+        <v>5222</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>675</v>
+        <v>522</v>
       </c>
       <c r="Q379" t="n">
         <v>10</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K380" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L380" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M380" t="n">
-        <v>12500</v>
+        <v>5278</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>833</v>
+        <v>352</v>
       </c>
       <c r="Q380" t="n">
         <v>15</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K381" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L381" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M381" t="n">
-        <v>6250</v>
+        <v>4786</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q381" t="n">
         <v>15</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44321</v>
+        <v>44519</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K382" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L382" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M382" t="n">
-        <v>7250</v>
+        <v>4214</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>483</v>
+        <v>281</v>
       </c>
       <c r="Q382" t="n">
         <v>15</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,13 +28008,13 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L384" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M384" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28023,11 +28023,11 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q384" t="n">
         <v>15</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44385</v>
+        <v>44420</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28090,7 +28090,7 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28152,13 +28152,13 @@
         <v>100</v>
       </c>
       <c r="K386" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L386" t="n">
         <v>7500</v>
       </c>
-      <c r="L386" t="n">
-        <v>8000</v>
-      </c>
       <c r="M386" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="Q386" t="n">
         <v>15</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,13 +28224,13 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L387" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M387" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q387" t="n">
         <v>15</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28296,13 +28296,13 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L388" t="n">
         <v>6500</v>
       </c>
-      <c r="L388" t="n">
-        <v>7000</v>
-      </c>
       <c r="M388" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28440,13 +28440,13 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L390" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M390" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>433</v>
+        <v>517</v>
       </c>
       <c r="Q390" t="n">
         <v>15</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,17 +28512,17 @@
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L391" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M391" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="Q391" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P392" t="n">
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,29 +28728,29 @@
         <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L394" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M394" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="Q394" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28800,13 +28800,13 @@
         <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L395" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M395" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q395" t="n">
         <v>10</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K396" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L396" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M396" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="Q396" t="n">
         <v>15</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28944,13 +28944,13 @@
         <v>100</v>
       </c>
       <c r="K397" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L397" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M397" t="n">
-        <v>3250</v>
+        <v>6250</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="Q397" t="n">
         <v>15</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44474</v>
+        <v>44308</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29016,17 +29016,17 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L398" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M398" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>525</v>
+        <v>288</v>
       </c>
       <c r="Q398" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29088,29 +29088,29 @@
         <v>100</v>
       </c>
       <c r="K399" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L399" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M399" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="Q399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K400" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L400" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M400" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q400" t="n">
         <v>15</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29232,13 +29232,13 @@
         <v>100</v>
       </c>
       <c r="K401" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L401" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M401" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="Q401" t="n">
         <v>15</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29304,13 +29304,13 @@
         <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L402" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M402" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q402" t="n">
         <v>10</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29376,29 +29376,29 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L403" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M403" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>825</v>
+        <v>483</v>
       </c>
       <c r="Q403" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29448,29 +29448,29 @@
         <v>100</v>
       </c>
       <c r="K404" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L404" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M404" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="Q404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44405</v>
+        <v>44474</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,13 +29520,13 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L405" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M405" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q405" t="n">
         <v>15</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29592,17 +29592,17 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L406" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M406" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q406" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29664,17 +29664,17 @@
         <v>100</v>
       </c>
       <c r="K407" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L407" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M407" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>417</v>
+        <v>825</v>
       </c>
       <c r="Q407" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29736,13 +29736,13 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L408" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M408" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="Q408" t="n">
         <v>10</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M409" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q409" t="n">
         <v>15</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29880,13 +29880,13 @@
         <v>100</v>
       </c>
       <c r="K410" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L410" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M410" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29952,13 +29952,13 @@
         <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L411" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M411" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="Q411" t="n">
         <v>15</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -30240,13 +30240,13 @@
         <v>100</v>
       </c>
       <c r="K415" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L415" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M415" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q415" t="n">
         <v>15</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -30312,13 +30312,13 @@
         <v>100</v>
       </c>
       <c r="K416" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L416" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M416" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Q416" t="n">
         <v>10</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K417" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M417" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q417" t="n">
         <v>15</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -30456,13 +30456,13 @@
         <v>100</v>
       </c>
       <c r="K418" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L418" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M418" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q418" t="n">
         <v>15</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30528,17 +30528,17 @@
         <v>100</v>
       </c>
       <c r="K419" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L419" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M419" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="Q419" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44432</v>
+        <v>44188</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -30600,13 +30600,13 @@
         <v>100</v>
       </c>
       <c r="K420" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L420" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M420" t="n">
-        <v>7250</v>
+        <v>3250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>725</v>
+        <v>325</v>
       </c>
       <c r="Q420" t="n">
         <v>10</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44432</v>
+        <v>44188</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -30672,13 +30672,13 @@
         <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L421" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M421" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="Q421" t="n">
         <v>15</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44428</v>
+        <v>44188</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30744,17 +30744,17 @@
         <v>100</v>
       </c>
       <c r="K422" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L422" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M422" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>675</v>
+        <v>217</v>
       </c>
       <c r="Q422" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44428</v>
+        <v>44188</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30816,29 +30816,29 @@
         <v>100</v>
       </c>
       <c r="K423" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L423" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M423" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>767</v>
+        <v>162</v>
       </c>
       <c r="Q423" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,29 +30888,29 @@
         <v>100</v>
       </c>
       <c r="K424" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L424" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M424" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q424" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30960,13 +30960,13 @@
         <v>100</v>
       </c>
       <c r="K425" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M425" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q425" t="n">
         <v>15</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -31032,13 +31032,13 @@
         <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L426" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M426" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>425</v>
+        <v>675</v>
       </c>
       <c r="Q426" t="n">
         <v>10</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -31104,13 +31104,13 @@
         <v>100</v>
       </c>
       <c r="K427" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L427" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M427" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>450</v>
+        <v>767</v>
       </c>
       <c r="Q427" t="n">
         <v>15</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31176,13 +31176,13 @@
         <v>100</v>
       </c>
       <c r="K428" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L428" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M428" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="Q428" t="n">
         <v>15</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31248,17 +31248,17 @@
         <v>100</v>
       </c>
       <c r="K429" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L429" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M429" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q429" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31320,29 +31320,29 @@
         <v>100</v>
       </c>
       <c r="K430" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L430" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M430" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="Q430" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31392,13 +31392,13 @@
         <v>100</v>
       </c>
       <c r="K431" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L431" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M431" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q431" t="n">
         <v>15</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31464,13 +31464,13 @@
         <v>100</v>
       </c>
       <c r="K432" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L432" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M432" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q432" t="n">
         <v>15</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44239</v>
+        <v>44329</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31536,17 +31536,17 @@
         <v>100</v>
       </c>
       <c r="K433" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L433" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M433" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44239</v>
+        <v>44329</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31608,13 +31608,13 @@
         <v>100</v>
       </c>
       <c r="K434" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L434" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M434" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q434" t="n">
         <v>15</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44239</v>
+        <v>44329</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31680,17 +31680,17 @@
         <v>100</v>
       </c>
       <c r="K435" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L435" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M435" t="n">
-        <v>4750</v>
+        <v>6250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="Q435" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31752,29 +31752,29 @@
         <v>100</v>
       </c>
       <c r="K436" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M436" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="Q436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -31824,13 +31824,13 @@
         <v>100</v>
       </c>
       <c r="K437" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L437" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M437" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q437" t="n">
         <v>15</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -31896,13 +31896,13 @@
         <v>100</v>
       </c>
       <c r="K438" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L438" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M438" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q438" t="n">
         <v>15</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31968,17 +31968,17 @@
         <v>100</v>
       </c>
       <c r="K439" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L439" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M439" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>575</v>
+        <v>238</v>
       </c>
       <c r="Q439" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32040,29 +32040,29 @@
         <v>100</v>
       </c>
       <c r="K440" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L440" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M440" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>483</v>
+        <v>575</v>
       </c>
       <c r="Q440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E441" t="n">
         <v>8</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32112,13 +32112,13 @@
         <v>100</v>
       </c>
       <c r="K441" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L441" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M441" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q441" t="n">
         <v>15</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32184,13 +32184,13 @@
         <v>100</v>
       </c>
       <c r="K442" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L442" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M442" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q442" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32256,17 +32256,17 @@
         <v>100</v>
       </c>
       <c r="K443" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L443" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M443" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>262</v>
+        <v>575</v>
       </c>
       <c r="Q443" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32328,29 +32328,29 @@
         <v>100</v>
       </c>
       <c r="K444" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M444" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q444" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32400,13 +32400,13 @@
         <v>100</v>
       </c>
       <c r="K445" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L445" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M445" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q445" t="n">
         <v>15</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E446" t="n">
         <v>8</v>
@@ -32472,13 +32472,13 @@
         <v>100</v>
       </c>
       <c r="K446" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L446" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M446" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q446" t="n">
         <v>15</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32544,17 +32544,17 @@
         <v>100</v>
       </c>
       <c r="K447" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M447" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q447" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44454</v>
+        <v>44357</v>
       </c>
       <c r="E448" t="n">
         <v>8</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32626,7 +32626,7 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q448" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44454</v>
+        <v>44357</v>
       </c>
       <c r="E449" t="n">
         <v>8</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32698,19 +32698,19 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q449" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32760,17 +32760,17 @@
         <v>100</v>
       </c>
       <c r="K450" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L450" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M450" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32832,13 +32832,13 @@
         <v>100</v>
       </c>
       <c r="K451" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L451" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M451" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q451" t="n">
         <v>15</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32904,13 +32904,13 @@
         <v>100</v>
       </c>
       <c r="K452" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L452" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M452" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q452" t="n">
         <v>15</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32976,17 +32976,17 @@
         <v>100</v>
       </c>
       <c r="K453" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L453" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M453" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="Q453" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -33048,13 +33048,13 @@
         <v>100</v>
       </c>
       <c r="K454" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L454" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M454" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q454" t="n">
         <v>10</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -33120,13 +33120,13 @@
         <v>100</v>
       </c>
       <c r="K455" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L455" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M455" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q455" t="n">
         <v>15</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E456" t="n">
         <v>8</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33192,13 +33192,13 @@
         <v>100</v>
       </c>
       <c r="K456" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L456" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M456" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q456" t="n">
         <v>15</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E457" t="n">
         <v>8</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33264,17 +33264,17 @@
         <v>100</v>
       </c>
       <c r="K457" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L457" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M457" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q457" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K458" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L458" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M458" t="n">
-        <v>3773</v>
+        <v>6250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>377</v>
+        <v>625</v>
       </c>
       <c r="Q458" t="n">
         <v>10</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K459" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L459" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M459" t="n">
-        <v>4727</v>
+        <v>7250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q459" t="n">
         <v>15</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K460" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L460" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M460" t="n">
-        <v>4722</v>
+        <v>6250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,12 +33499,300 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>315</v>
+        <v>417</v>
       </c>
       <c r="Q460" t="n">
         <v>15</v>
       </c>
       <c r="R460" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>11</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="E461" t="n">
+        <v>8</v>
+      </c>
+      <c r="F461" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>100</v>
+      </c>
+      <c r="K461" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L461" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M461" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P461" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>20</v>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>11</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E462" t="n">
+        <v>8</v>
+      </c>
+      <c r="F462" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>220</v>
+      </c>
+      <c r="K462" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L462" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M462" t="n">
+        <v>3773</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P462" t="n">
+        <v>377</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>10</v>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>11</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E463" t="n">
+        <v>8</v>
+      </c>
+      <c r="F463" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>220</v>
+      </c>
+      <c r="K463" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L463" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M463" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P463" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>15</v>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>11</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D464" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E464" t="n">
+        <v>8</v>
+      </c>
+      <c r="F464" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>180</v>
+      </c>
+      <c r="K464" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L464" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M464" t="n">
+        <v>4722</v>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P464" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>15</v>
+      </c>
+      <c r="R464" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,32 +26565,32 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K364" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L364" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M364" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="Q364" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P365" t="n">
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26712,13 +26712,13 @@
         <v>100</v>
       </c>
       <c r="K366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L366" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M366" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q366" t="n">
         <v>15</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E367" t="n">
         <v>8</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26784,13 +26784,13 @@
         <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L367" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M367" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q367" t="n">
         <v>15</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,17 +26856,17 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L368" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M368" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q368" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44279</v>
+        <v>44341</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K369" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L369" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q369" t="n">
         <v>15</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44208</v>
+        <v>44341</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27000,17 +27000,17 @@
         <v>100</v>
       </c>
       <c r="K370" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L370" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M370" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q370" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44208</v>
+        <v>44341</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K371" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L371" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M371" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27087,11 +27087,11 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q371" t="n">
         <v>15</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27144,13 +27144,13 @@
         <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L372" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M372" t="n">
-        <v>3750</v>
+        <v>7250</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="Q372" t="n">
         <v>15</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27216,13 +27216,13 @@
         <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L373" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M373" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q373" t="n">
         <v>15</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27288,17 +27288,17 @@
         <v>100</v>
       </c>
       <c r="K374" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L374" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M374" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="Q374" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,29 +27360,29 @@
         <v>100</v>
       </c>
       <c r="K375" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L375" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M375" t="n">
-        <v>8250</v>
+        <v>3750</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="Q375" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,32 +27429,32 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K376" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L376" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M376" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q376" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,17 +27504,17 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L377" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M377" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q377" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27576,13 +27576,13 @@
         <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L378" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M378" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="Q378" t="n">
         <v>15</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,17 +27648,17 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L379" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M379" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>350</v>
+        <v>725</v>
       </c>
       <c r="Q379" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27720,29 +27720,29 @@
         <v>100</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L380" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M380" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>262</v>
+        <v>550</v>
       </c>
       <c r="Q380" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27792,17 +27792,17 @@
         <v>100</v>
       </c>
       <c r="K381" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L381" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M381" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="Q381" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27874,19 +27874,19 @@
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q382" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,13 +27936,13 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L383" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M383" t="n">
-        <v>4250</v>
+        <v>7250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="Q383" t="n">
         <v>15</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44551</v>
+        <v>44491</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,17 +28008,17 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L384" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M384" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="Q384" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44551</v>
+        <v>44491</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28090,19 +28090,19 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q385" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q386" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,29 +28224,29 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M387" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="Q387" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44519</v>
+        <v>44232</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L388" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M388" t="n">
-        <v>5222</v>
+        <v>4250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>522</v>
+        <v>283</v>
       </c>
       <c r="Q388" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,20 +28365,20 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L389" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M389" t="n">
-        <v>5278</v>
+        <v>4250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="Q389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,29 +28437,29 @@
         </is>
       </c>
       <c r="J390" t="n">
+        <v>100</v>
+      </c>
+      <c r="K390" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L390" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M390" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
         <v>350</v>
-      </c>
-      <c r="K390" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L390" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M390" t="n">
-        <v>4786</v>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P390" t="n">
-        <v>319</v>
       </c>
       <c r="Q390" t="n">
         <v>15</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,7 +28509,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K391" t="n">
         <v>4000</v>
@@ -28518,7 +28518,7 @@
         <v>4500</v>
       </c>
       <c r="M391" t="n">
-        <v>4214</v>
+        <v>4250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q391" t="n">
         <v>15</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44420</v>
+        <v>44551</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28584,17 +28584,17 @@
         <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L392" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M392" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>675</v>
+        <v>212</v>
       </c>
       <c r="Q392" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,32 +28653,32 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K393" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L393" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M393" t="n">
-        <v>12500</v>
+        <v>5222</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>833</v>
+        <v>522</v>
       </c>
       <c r="Q393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K394" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L394" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M394" t="n">
-        <v>6250</v>
+        <v>5278</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="Q394" t="n">
         <v>15</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44321</v>
+        <v>44519</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K395" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L395" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M395" t="n">
-        <v>7250</v>
+        <v>4786</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="Q395" t="n">
         <v>15</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44321</v>
+        <v>44519</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K396" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L396" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M396" t="n">
-        <v>6750</v>
+        <v>4214</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>450</v>
+        <v>281</v>
       </c>
       <c r="Q396" t="n">
         <v>15</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28944,17 +28944,17 @@
         <v>100</v>
       </c>
       <c r="K397" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L397" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M397" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="Q397" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44385</v>
+        <v>44420</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29016,29 +29016,29 @@
         <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L398" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M398" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>625</v>
+        <v>833</v>
       </c>
       <c r="Q398" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44385</v>
+        <v>44420</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29088,13 +29088,13 @@
         <v>100</v>
       </c>
       <c r="K399" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M399" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Q399" t="n">
         <v>15</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29160,13 +29160,13 @@
         <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M400" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q400" t="n">
         <v>15</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q402" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29379,26 +29379,26 @@
         <v>6000</v>
       </c>
       <c r="L403" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M403" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>433</v>
+        <v>625</v>
       </c>
       <c r="Q403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29448,29 +29448,29 @@
         <v>100</v>
       </c>
       <c r="K404" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L404" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="Q404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,13 +29520,13 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L405" t="n">
         <v>6500</v>
       </c>
-      <c r="L405" t="n">
-        <v>7000</v>
-      </c>
       <c r="M405" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q405" t="n">
         <v>15</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L406" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M406" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29664,17 +29664,17 @@
         <v>100</v>
       </c>
       <c r="K407" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L407" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M407" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="Q407" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,29 +29736,29 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L408" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M408" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="Q408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,32 +29805,32 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L409" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M409" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="Q409" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29880,13 +29880,13 @@
         <v>100</v>
       </c>
       <c r="K410" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L410" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M410" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44474</v>
+        <v>44308</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29952,17 +29952,17 @@
         <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L411" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M411" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="Q411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44474</v>
+        <v>44308</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30024,29 +30024,29 @@
         <v>100</v>
       </c>
       <c r="K412" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L412" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M412" t="n">
-        <v>7250</v>
+        <v>5750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q412" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,29 +30096,29 @@
         <v>100</v>
       </c>
       <c r="K413" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L413" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M413" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="Q413" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L414" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M414" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="Q414" t="n">
         <v>15</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44446</v>
+        <v>44187</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30240,17 +30240,17 @@
         <v>100</v>
       </c>
       <c r="K415" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L415" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M415" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>625</v>
+        <v>217</v>
       </c>
       <c r="Q415" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30312,13 +30312,13 @@
         <v>100</v>
       </c>
       <c r="K416" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L416" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M416" t="n">
-        <v>8250</v>
+        <v>5250</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="Q416" t="n">
         <v>10</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44350</v>
+        <v>44474</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30384,29 +30384,29 @@
         <v>100</v>
       </c>
       <c r="K417" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L417" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M417" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="Q417" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44405</v>
+        <v>44474</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -30456,13 +30456,13 @@
         <v>100</v>
       </c>
       <c r="K418" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L418" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M418" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q418" t="n">
         <v>15</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44405</v>
+        <v>44474</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30543,7 +30543,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P419" t="n">
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q420" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44238</v>
+        <v>44446</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30672,13 +30672,13 @@
         <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L421" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M421" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>425</v>
+        <v>825</v>
       </c>
       <c r="Q421" t="n">
         <v>10</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,32 +30741,32 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K422" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L422" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M422" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="Q422" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30816,13 +30816,13 @@
         <v>100</v>
       </c>
       <c r="K423" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L423" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M423" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q423" t="n">
         <v>15</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,13 +30888,13 @@
         <v>100</v>
       </c>
       <c r="K424" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M424" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="Q424" t="n">
         <v>15</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44196</v>
+        <v>44405</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30960,17 +30960,17 @@
         <v>100</v>
       </c>
       <c r="K425" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L425" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M425" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q425" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,32 +31029,32 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L426" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M426" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="Q426" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M427" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31119,11 +31119,11 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q427" t="n">
         <v>15</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44196</v>
+        <v>44238</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31248,17 +31248,17 @@
         <v>100</v>
       </c>
       <c r="K429" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L429" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M429" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q429" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31330,19 +31330,19 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="Q430" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K431" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L431" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M431" t="n">
-        <v>3250</v>
+        <v>5250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="Q431" t="n">
         <v>15</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31464,17 +31464,17 @@
         <v>100</v>
       </c>
       <c r="K432" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L432" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M432" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="Q432" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44432</v>
+        <v>44196</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31536,17 +31536,17 @@
         <v>100</v>
       </c>
       <c r="K433" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L433" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M433" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q433" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44432</v>
+        <v>44188</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31608,29 +31608,29 @@
         <v>100</v>
       </c>
       <c r="K434" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L434" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M434" t="n">
-        <v>7750</v>
+        <v>3250</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>517</v>
+        <v>325</v>
       </c>
       <c r="Q434" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44428</v>
+        <v>44188</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31680,29 +31680,29 @@
         <v>100</v>
       </c>
       <c r="K435" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L435" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M435" t="n">
-        <v>6750</v>
+        <v>4250</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>675</v>
+        <v>283</v>
       </c>
       <c r="Q435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44428</v>
+        <v>44188</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31752,13 +31752,13 @@
         <v>100</v>
       </c>
       <c r="K436" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L436" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M436" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>767</v>
+        <v>217</v>
       </c>
       <c r="Q436" t="n">
         <v>15</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44428</v>
+        <v>44188</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31824,29 +31824,29 @@
         <v>100</v>
       </c>
       <c r="K437" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L437" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M437" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="Q437" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31896,17 +31896,17 @@
         <v>100</v>
       </c>
       <c r="K438" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L438" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M438" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44224</v>
+        <v>44432</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31968,29 +31968,29 @@
         <v>100</v>
       </c>
       <c r="K439" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L439" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M439" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="Q439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32050,19 +32050,19 @@
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E441" t="n">
         <v>8</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32112,13 +32112,13 @@
         <v>100</v>
       </c>
       <c r="K441" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L441" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M441" t="n">
-        <v>4250</v>
+        <v>11500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>283</v>
+        <v>767</v>
       </c>
       <c r="Q441" t="n">
         <v>15</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32184,29 +32184,29 @@
         <v>100</v>
       </c>
       <c r="K442" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L442" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M442" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q442" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32256,13 +32256,13 @@
         <v>100</v>
       </c>
       <c r="K443" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L443" t="n">
         <v>7000</v>
       </c>
-      <c r="L443" t="n">
-        <v>7500</v>
-      </c>
       <c r="M443" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q443" t="n">
         <v>15</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32328,17 +32328,17 @@
         <v>100</v>
       </c>
       <c r="K444" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L444" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M444" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q444" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -32400,13 +32400,13 @@
         <v>100</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L445" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M445" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q445" t="n">
         <v>15</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E446" t="n">
         <v>8</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44239</v>
+        <v>44329</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32544,17 +32544,17 @@
         <v>100</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M447" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>283</v>
+        <v>625</v>
       </c>
       <c r="Q447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44239</v>
+        <v>44329</v>
       </c>
       <c r="E448" t="n">
         <v>8</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32616,29 +32616,29 @@
         <v>100</v>
       </c>
       <c r="K448" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L448" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M448" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="Q448" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44461</v>
+        <v>44329</v>
       </c>
       <c r="E449" t="n">
         <v>8</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32688,17 +32688,17 @@
         <v>100</v>
       </c>
       <c r="K449" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L449" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M449" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="Q449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32775,7 +32775,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P450" t="n">
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32832,13 +32832,13 @@
         <v>100</v>
       </c>
       <c r="K451" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L451" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M451" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="Q451" t="n">
         <v>15</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32904,17 +32904,17 @@
         <v>100</v>
       </c>
       <c r="K452" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L452" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M452" t="n">
-        <v>5750</v>
+        <v>4250</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>575</v>
+        <v>283</v>
       </c>
       <c r="Q452" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32976,29 +32976,29 @@
         <v>100</v>
       </c>
       <c r="K453" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L453" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M453" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>483</v>
+        <v>238</v>
       </c>
       <c r="Q453" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33058,7 +33058,7 @@
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>383</v>
+        <v>575</v>
       </c>
       <c r="Q454" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -33120,13 +33120,13 @@
         <v>100</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M455" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q455" t="n">
         <v>15</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E456" t="n">
         <v>8</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33192,17 +33192,17 @@
         <v>100</v>
       </c>
       <c r="K456" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q456" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E457" t="n">
         <v>8</v>
@@ -33264,13 +33264,13 @@
         <v>100</v>
       </c>
       <c r="K457" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L457" t="n">
         <v>6000</v>
       </c>
-      <c r="L457" t="n">
-        <v>6500</v>
-      </c>
       <c r="M457" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q457" t="n">
         <v>10</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -33336,13 +33336,13 @@
         <v>100</v>
       </c>
       <c r="K458" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M458" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q458" t="n">
         <v>15</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33408,13 +33408,13 @@
         <v>100</v>
       </c>
       <c r="K459" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L459" t="n">
         <v>6000</v>
       </c>
-      <c r="L459" t="n">
-        <v>6500</v>
-      </c>
       <c r="M459" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q459" t="n">
         <v>15</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33480,13 +33480,13 @@
         <v>100</v>
       </c>
       <c r="K460" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L460" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M460" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q460" t="n">
         <v>15</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44454</v>
+        <v>44463</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33552,17 +33552,17 @@
         <v>100</v>
       </c>
       <c r="K461" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L461" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M461" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q461" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44454</v>
+        <v>44357</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33624,17 +33624,17 @@
         <v>100</v>
       </c>
       <c r="K462" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L462" t="n">
         <v>6500</v>
       </c>
-      <c r="L462" t="n">
-        <v>7000</v>
-      </c>
       <c r="M462" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>338</v>
+        <v>625</v>
       </c>
       <c r="Q462" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E463" t="n">
         <v>8</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33696,29 +33696,29 @@
         <v>100</v>
       </c>
       <c r="K463" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L463" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M463" t="n">
-        <v>4250</v>
+        <v>6750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="Q463" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E464" t="n">
         <v>8</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33768,13 +33768,13 @@
         <v>100</v>
       </c>
       <c r="K464" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L464" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M464" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q464" t="n">
         <v>15</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E465" t="n">
         <v>8</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33840,13 +33840,13 @@
         <v>100</v>
       </c>
       <c r="K465" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L465" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M465" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q465" t="n">
         <v>15</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E466" t="n">
         <v>8</v>
@@ -33912,13 +33912,13 @@
         <v>100</v>
       </c>
       <c r="K466" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L466" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M466" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q466" t="n">
         <v>15</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33984,17 +33984,17 @@
         <v>100</v>
       </c>
       <c r="K467" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L467" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>625</v>
+        <v>338</v>
       </c>
       <c r="Q467" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34056,29 +34056,29 @@
         <v>100</v>
       </c>
       <c r="K468" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L468" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M468" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="Q468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34128,13 +34128,13 @@
         <v>100</v>
       </c>
       <c r="K469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L469" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M469" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q469" t="n">
         <v>15</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34200,17 +34200,17 @@
         <v>100</v>
       </c>
       <c r="K470" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L470" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M470" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q470" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,20 +34269,20 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K471" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L471" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M471" t="n">
-        <v>3773</v>
+        <v>4250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="Q471" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,20 +34341,20 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K472" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M472" t="n">
-        <v>4727</v>
+        <v>6250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>315</v>
+        <v>625</v>
       </c>
       <c r="Q472" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M473" t="n">
-        <v>4722</v>
+        <v>7250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,16 +34431,376 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="Q473" t="n">
         <v>15</v>
       </c>
       <c r="R473" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>11</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="E474" t="n">
+        <v>8</v>
+      </c>
+      <c r="F474" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>100</v>
+      </c>
+      <c r="K474" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L474" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M474" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P474" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>15</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>11</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="E475" t="n">
+        <v>8</v>
+      </c>
+      <c r="F475" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>100</v>
+      </c>
+      <c r="K475" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L475" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M475" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P475" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>20</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>11</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E476" t="n">
+        <v>8</v>
+      </c>
+      <c r="F476" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>220</v>
+      </c>
+      <c r="K476" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L476" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M476" t="n">
+        <v>3773</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P476" t="n">
+        <v>377</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>10</v>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>11</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E477" t="n">
+        <v>8</v>
+      </c>
+      <c r="F477" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>220</v>
+      </c>
+      <c r="K477" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L477" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M477" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P477" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>15</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>11</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D478" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E478" t="n">
+        <v>8</v>
+      </c>
+      <c r="F478" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>180</v>
+      </c>
+      <c r="K478" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L478" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M478" t="n">
+        <v>4722</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P478" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>15</v>
+      </c>
+      <c r="R478" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R482"/>
+  <dimension ref="A1:R483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44390</v>
+        <v>44566</v>
       </c>
       <c r="E247" t="n">
         <v>8</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K247" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L247" t="n">
         <v>6500</v>
       </c>
       <c r="M247" t="n">
-        <v>6250</v>
+        <v>6033</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="Q247" t="n">
         <v>10</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18216,29 +18216,29 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L248" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M248" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18288,13 +18288,13 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L249" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M249" t="n">
-        <v>5250</v>
+        <v>8250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q249" t="n">
         <v>15</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18360,13 +18360,13 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L250" t="n">
         <v>5500</v>
       </c>
-      <c r="L250" t="n">
-        <v>6000</v>
-      </c>
       <c r="M250" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q250" t="n">
         <v>15</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44482</v>
+        <v>44390</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,32 +18429,32 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L251" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M251" t="n">
-        <v>4700</v>
+        <v>5750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,32 +18501,32 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K252" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L252" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M252" t="n">
-        <v>6278</v>
+        <v>4700</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="Q252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,32 +18573,32 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K253" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M253" t="n">
-        <v>5300</v>
+        <v>6278</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="Q253" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,32 +18645,32 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K254" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L254" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M254" t="n">
-        <v>7250</v>
+        <v>5300</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>725</v>
+        <v>294</v>
       </c>
       <c r="Q254" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,29 +18720,29 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M255" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>567</v>
+        <v>725</v>
       </c>
       <c r="Q255" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18792,13 +18792,13 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L256" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M256" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="Q256" t="n">
         <v>15</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,17 +18864,17 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L257" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M257" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,29 +18936,29 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L258" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M258" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19008,13 +19008,13 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M259" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q259" t="n">
         <v>15</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19090,7 +19090,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q260" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44469</v>
+        <v>44364</v>
       </c>
       <c r="E261" t="n">
         <v>8</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,17 +19152,17 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L261" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M261" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>575</v>
+        <v>312</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19224,29 +19224,29 @@
         <v>100</v>
       </c>
       <c r="K262" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L262" t="n">
         <v>6000</v>
       </c>
-      <c r="L262" t="n">
-        <v>6500</v>
-      </c>
       <c r="M262" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19296,13 +19296,13 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M263" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19311,11 +19311,11 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q263" t="n">
         <v>15</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19368,13 +19368,13 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L264" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M264" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q264" t="n">
         <v>15</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19450,7 +19450,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q265" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44265</v>
+        <v>44469</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19512,17 +19512,17 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L266" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M266" t="n">
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44330</v>
+        <v>44265</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19599,7 +19599,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P267" t="n">
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44280</v>
+        <v>44330</v>
       </c>
       <c r="E268" t="n">
         <v>8</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19656,29 +19656,29 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L268" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M268" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19738,19 +19738,19 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19810,19 +19810,19 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q270" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E271" t="n">
         <v>8</v>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19872,17 +19872,17 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L271" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M271" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="Q271" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19944,29 +19944,29 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L272" t="n">
         <v>4000</v>
       </c>
-      <c r="L272" t="n">
-        <v>4500</v>
-      </c>
       <c r="M272" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="Q272" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20016,29 +20016,29 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L273" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M273" t="n">
-        <v>7250</v>
+        <v>4250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="Q273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20088,29 +20088,29 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L274" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M274" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="Q274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44306</v>
+        <v>44266</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20160,29 +20160,29 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L275" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M275" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20232,29 +20232,29 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M276" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20304,13 +20304,13 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L277" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M277" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20319,11 +20319,11 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q277" t="n">
         <v>15</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="E278" t="n">
         <v>8</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,20 +20373,20 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L278" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M278" t="n">
-        <v>4222</v>
+        <v>6250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q278" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20448,17 +20448,17 @@
         <v>450</v>
       </c>
       <c r="K279" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L279" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M279" t="n">
-        <v>5222</v>
+        <v>4222</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="Q279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K280" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L280" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M280" t="n">
-        <v>4700</v>
+        <v>5222</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="Q280" t="n">
         <v>15</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44427</v>
+        <v>44516</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,20 +20589,20 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K281" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L281" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M281" t="n">
-        <v>6750</v>
+        <v>4700</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>675</v>
+        <v>313</v>
       </c>
       <c r="Q281" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20664,29 +20664,29 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L282" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>833</v>
+        <v>675</v>
       </c>
       <c r="Q282" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44533</v>
+        <v>44427</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,32 +20733,32 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L283" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M283" t="n">
-        <v>3773</v>
+        <v>12500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>377</v>
+        <v>833</v>
       </c>
       <c r="Q283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K284" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L284" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M284" t="n">
-        <v>5278</v>
+        <v>3773</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="Q284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L285" t="n">
         <v>5500</v>
       </c>
-      <c r="L285" t="n">
-        <v>6000</v>
-      </c>
       <c r="M285" t="n">
-        <v>5760</v>
+        <v>5278</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>576</v>
+        <v>352</v>
       </c>
       <c r="Q285" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K286" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M286" t="n">
-        <v>6786</v>
+        <v>5760</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>452</v>
+        <v>576</v>
       </c>
       <c r="Q286" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44539</v>
+        <v>44495</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K287" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L287" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M287" t="n">
-        <v>4300</v>
+        <v>6786</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="Q287" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L288" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M288" t="n">
-        <v>5227</v>
+        <v>4300</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="Q288" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K289" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L289" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M289" t="n">
-        <v>4147</v>
+        <v>5227</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="Q289" t="n">
         <v>15</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44370</v>
+        <v>44539</v>
       </c>
       <c r="E290" t="n">
         <v>8</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K290" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L290" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M290" t="n">
-        <v>6250</v>
+        <v>4147</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>625</v>
+        <v>276</v>
       </c>
       <c r="Q290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,29 +21312,29 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L291" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M291" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21384,13 +21384,13 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L292" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M292" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21399,11 +21399,11 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q292" t="n">
         <v>15</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21456,13 +21456,13 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M293" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21471,11 +21471,11 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q293" t="n">
         <v>15</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21528,13 +21528,13 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M294" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q294" t="n">
         <v>15</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21600,17 +21600,17 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L295" t="n">
         <v>5500</v>
       </c>
-      <c r="L295" t="n">
-        <v>6000</v>
-      </c>
       <c r="M295" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q295" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44379</v>
+        <v>44475</v>
       </c>
       <c r="E296" t="n">
         <v>8</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21672,29 +21672,29 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L296" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M296" t="n">
-        <v>9250</v>
+        <v>5750</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>617</v>
+        <v>288</v>
       </c>
       <c r="Q296" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21744,13 +21744,13 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L297" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M297" t="n">
-        <v>6250</v>
+        <v>9250</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21759,11 +21759,11 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>417</v>
+        <v>617</v>
       </c>
       <c r="Q297" t="n">
         <v>15</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44532</v>
+        <v>44379</v>
       </c>
       <c r="E298" t="n">
         <v>8</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="M298" t="n">
-        <v>3278</v>
+        <v>6250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="Q298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K299" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L299" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M299" t="n">
-        <v>4400</v>
+        <v>3278</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Q299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21960,17 +21960,17 @@
         <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L300" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M300" t="n">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="Q300" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44498</v>
+        <v>44532</v>
       </c>
       <c r="E301" t="n">
         <v>8</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22032,17 +22032,17 @@
         <v>250</v>
       </c>
       <c r="K301" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L301" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M301" t="n">
-        <v>5260</v>
+        <v>3700</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K302" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L302" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M302" t="n">
-        <v>4000</v>
+        <v>5260</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>333</v>
+        <v>526</v>
       </c>
       <c r="Q302" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22164,29 +22164,29 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L303" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M303" t="n">
-        <v>5192</v>
+        <v>4000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q303" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="K304" t="n">
         <v>5000</v>
@@ -22254,7 +22254,7 @@
         <v>5500</v>
       </c>
       <c r="M304" t="n">
-        <v>5333</v>
+        <v>5192</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="Q304" t="n">
         <v>15</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22320,13 +22320,13 @@
         <v>150</v>
       </c>
       <c r="K305" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L305" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M305" t="n">
-        <v>4767</v>
+        <v>5333</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="Q305" t="n">
         <v>15</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44449</v>
+        <v>44498</v>
       </c>
       <c r="E306" t="n">
         <v>8</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K306" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L306" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M306" t="n">
-        <v>6250</v>
+        <v>4767</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>625</v>
+        <v>318</v>
       </c>
       <c r="Q306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22464,29 +22464,29 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L307" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M307" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P307" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q307" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44210</v>
+        <v>44449</v>
       </c>
       <c r="E308" t="n">
         <v>8</v>
@@ -22536,13 +22536,13 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L308" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M308" t="n">
-        <v>4250</v>
+        <v>8250</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>283</v>
+        <v>550</v>
       </c>
       <c r="Q308" t="n">
         <v>15</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22608,13 +22608,13 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L309" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M309" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q309" t="n">
         <v>15</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22762,7 +22762,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="Q311" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44526</v>
+        <v>44210</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22824,17 +22824,17 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L312" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M312" t="n">
-        <v>4250</v>
+        <v>3250</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>425</v>
+        <v>162</v>
       </c>
       <c r="Q312" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,32 +22893,32 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L313" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M313" t="n">
-        <v>5667</v>
+        <v>4250</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="Q313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K314" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L314" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M314" t="n">
-        <v>4250</v>
+        <v>5667</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="Q314" t="n">
         <v>15</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23112,13 +23112,13 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L316" t="n">
         <v>4500</v>
       </c>
-      <c r="L316" t="n">
-        <v>5000</v>
-      </c>
       <c r="M316" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="Q316" t="n">
         <v>15</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44271</v>
+        <v>44526</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23184,17 +23184,17 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L317" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M317" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>317</v>
       </c>
       <c r="Q317" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23256,29 +23256,29 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L318" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M318" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="Q318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23328,13 +23328,13 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L319" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M319" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23343,11 +23343,11 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="Q319" t="n">
         <v>15</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44425</v>
+        <v>44271</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23400,17 +23400,17 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L320" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M320" t="n">
-        <v>8250</v>
+        <v>6500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>825</v>
+        <v>433</v>
       </c>
       <c r="Q320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23472,29 +23472,29 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L321" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M321" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P321" t="n">
-        <v>767</v>
+        <v>825</v>
       </c>
       <c r="Q321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23544,13 +23544,13 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L322" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M322" t="n">
-        <v>7250</v>
+        <v>11500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23559,11 +23559,11 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>483</v>
+        <v>767</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44476</v>
+        <v>44425</v>
       </c>
       <c r="E323" t="n">
         <v>8</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23616,17 +23616,17 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L323" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M323" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="Q323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23688,29 +23688,29 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L324" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M324" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44218</v>
+        <v>44476</v>
       </c>
       <c r="E325" t="n">
         <v>8</v>
@@ -23760,13 +23760,13 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L325" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M325" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="Q325" t="n">
         <v>15</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23832,13 +23832,13 @@
         <v>100</v>
       </c>
       <c r="K326" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L326" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M326" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Q326" t="n">
         <v>15</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23904,17 +23904,17 @@
         <v>100</v>
       </c>
       <c r="K327" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L327" t="n">
         <v>4500</v>
       </c>
-      <c r="L327" t="n">
-        <v>5000</v>
-      </c>
       <c r="M327" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>475</v>
+        <v>283</v>
       </c>
       <c r="Q327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23976,29 +23976,29 @@
         <v>100</v>
       </c>
       <c r="K328" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L328" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M328" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="Q328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24048,13 +24048,13 @@
         <v>100</v>
       </c>
       <c r="K329" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L329" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M329" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24063,11 +24063,11 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q329" t="n">
         <v>15</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24120,17 +24120,17 @@
         <v>100</v>
       </c>
       <c r="K330" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L330" t="n">
         <v>4500</v>
       </c>
-      <c r="L330" t="n">
-        <v>5000</v>
-      </c>
       <c r="M330" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="Q330" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24192,17 +24192,17 @@
         <v>100</v>
       </c>
       <c r="K331" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L331" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M331" t="n">
-        <v>3250</v>
+        <v>4750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="Q331" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24274,19 +24274,19 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24351,7 +24351,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P333" t="n">
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24408,13 +24408,13 @@
         <v>100</v>
       </c>
       <c r="K334" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L334" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M334" t="n">
-        <v>6250</v>
+        <v>3250</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q334" t="n">
         <v>15</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24540,7 +24540,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24562,7 +24562,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q336" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44553</v>
+        <v>44447</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24621,20 +24621,20 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L337" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M337" t="n">
-        <v>5167</v>
+        <v>6250</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="Q337" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K338" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L338" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M338" t="n">
-        <v>4250</v>
+        <v>5167</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="Q338" t="n">
         <v>15</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24850,7 +24850,7 @@
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="Q340" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24912,17 +24912,17 @@
         <v>100</v>
       </c>
       <c r="K341" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L341" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M341" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="Q341" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24994,19 +24994,19 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="Q342" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P343" t="n">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25200,13 +25200,13 @@
         <v>100</v>
       </c>
       <c r="K345" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L345" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M345" t="n">
-        <v>6750</v>
+        <v>3250</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="Q345" t="n">
         <v>15</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25272,13 +25272,13 @@
         <v>100</v>
       </c>
       <c r="K346" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L346" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M346" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q346" t="n">
         <v>15</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25354,7 +25354,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q347" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44285</v>
+        <v>44328</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25416,17 +25416,17 @@
         <v>100</v>
       </c>
       <c r="K348" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L348" t="n">
         <v>6500</v>
       </c>
-      <c r="L348" t="n">
-        <v>7000</v>
-      </c>
       <c r="M348" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>675</v>
+        <v>312</v>
       </c>
       <c r="Q348" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K349" t="n">
         <v>6500</v>
@@ -25498,19 +25498,19 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q349" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,7 +25557,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K350" t="n">
         <v>6500</v>
@@ -25575,7 +25575,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P350" t="n">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25642,7 +25642,7 @@
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q351" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44434</v>
+        <v>44285</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25704,17 +25704,17 @@
         <v>100</v>
       </c>
       <c r="K352" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L352" t="n">
         <v>7000</v>
       </c>
-      <c r="L352" t="n">
-        <v>7500</v>
-      </c>
       <c r="M352" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>725</v>
+        <v>338</v>
       </c>
       <c r="Q352" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25776,29 +25776,29 @@
         <v>100</v>
       </c>
       <c r="K353" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L353" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M353" t="n">
-        <v>10750</v>
+        <v>7250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q353" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25848,13 +25848,13 @@
         <v>100</v>
       </c>
       <c r="K354" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L354" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M354" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25863,11 +25863,11 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>450</v>
+        <v>717</v>
       </c>
       <c r="Q354" t="n">
         <v>15</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44467</v>
+        <v>44434</v>
       </c>
       <c r="E356" t="n">
         <v>8</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25992,17 +25992,17 @@
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L356" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M356" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="Q356" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26064,29 +26064,29 @@
         <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L357" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M357" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="Q357" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26136,13 +26136,13 @@
         <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L358" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M358" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q358" t="n">
         <v>15</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26218,7 +26218,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q359" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44490</v>
+        <v>44467</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26290,19 +26290,19 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>262</v>
       </c>
       <c r="Q360" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26352,29 +26352,29 @@
         <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M361" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="Q361" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,20 +26493,20 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K363" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L363" t="n">
         <v>6500</v>
       </c>
-      <c r="L363" t="n">
-        <v>7000</v>
-      </c>
       <c r="M363" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="Q363" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26568,29 +26568,29 @@
         <v>200</v>
       </c>
       <c r="K364" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L364" t="n">
         <v>7000</v>
       </c>
-      <c r="L364" t="n">
-        <v>8000</v>
-      </c>
       <c r="M364" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="Q364" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L365" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M365" t="n">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q365" t="n">
         <v>15</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26787,14 +26787,14 @@
         <v>6000</v>
       </c>
       <c r="L367" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M367" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="Q367" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26856,17 +26856,17 @@
         <v>100</v>
       </c>
       <c r="K368" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M368" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="Q368" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,29 +26928,29 @@
         <v>100</v>
       </c>
       <c r="K369" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L369" t="n">
         <v>6000</v>
       </c>
-      <c r="L369" t="n">
-        <v>6500</v>
-      </c>
       <c r="M369" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q369" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27000,13 +27000,13 @@
         <v>100</v>
       </c>
       <c r="K370" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L370" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M370" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q370" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q372" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,32 +27213,32 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L373" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M373" t="n">
-        <v>7750</v>
+        <v>5250</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>517</v>
+        <v>262</v>
       </c>
       <c r="Q373" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K374" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L374" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M374" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q374" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44279</v>
+        <v>44341</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27432,13 +27432,13 @@
         <v>100</v>
       </c>
       <c r="K376" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L376" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M376" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q376" t="n">
         <v>15</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,13 +27504,13 @@
         <v>100</v>
       </c>
       <c r="K377" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L377" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M377" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q377" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27648,17 +27648,17 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M379" t="n">
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,32 +27717,32 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K380" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L380" t="n">
         <v>4000</v>
       </c>
-      <c r="L380" t="n">
-        <v>4500</v>
-      </c>
       <c r="M380" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="Q380" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K381" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L381" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M381" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="Q381" t="n">
         <v>15</v>
@@ -27852,7 +27852,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27936,17 +27936,17 @@
         <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L383" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M383" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>725</v>
+        <v>250</v>
       </c>
       <c r="Q383" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,29 +28008,29 @@
         <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L384" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M384" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="Q384" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28080,29 +28080,29 @@
         <v>100</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L385" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M385" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="Q385" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>625</v>
+        <v>312</v>
       </c>
       <c r="Q386" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28224,29 +28224,29 @@
         <v>100</v>
       </c>
       <c r="K387" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M387" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q387" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44491</v>
+        <v>44322</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,13 +28296,13 @@
         <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L388" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M388" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q388" t="n">
         <v>15</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28378,7 +28378,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q389" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44232</v>
+        <v>44491</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28440,17 +28440,17 @@
         <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L390" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M390" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="Q390" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28512,29 +28512,29 @@
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L391" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M391" t="n">
-        <v>6250</v>
+        <v>4250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P391" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q391" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28584,13 +28584,13 @@
         <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L392" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M392" t="n">
-        <v>4250</v>
+        <v>6250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28599,11 +28599,11 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P392" t="n">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="Q392" t="n">
         <v>15</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="Q393" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28728,29 +28728,29 @@
         <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L394" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M394" t="n">
-        <v>5250</v>
+        <v>4250</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="Q394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28800,13 +28800,13 @@
         <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L395" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M395" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q395" t="n">
         <v>15</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28882,7 +28882,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="Q396" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,20 +28941,20 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K397" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L397" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M397" t="n">
-        <v>5222</v>
+        <v>4250</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>522</v>
+        <v>212</v>
       </c>
       <c r="Q397" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29022,11 +29022,11 @@
         <v>5500</v>
       </c>
       <c r="M398" t="n">
-        <v>5278</v>
+        <v>5222</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>352</v>
+        <v>522</v>
       </c>
       <c r="Q398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K399" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L399" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M399" t="n">
-        <v>4786</v>
+        <v>5278</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="Q399" t="n">
         <v>15</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29160,13 +29160,13 @@
         <v>350</v>
       </c>
       <c r="K400" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L400" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M400" t="n">
-        <v>4214</v>
+        <v>4786</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="Q400" t="n">
         <v>15</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K401" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L401" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M401" t="n">
-        <v>6750</v>
+        <v>4214</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>675</v>
+        <v>281</v>
       </c>
       <c r="Q401" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29304,29 +29304,29 @@
         <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L402" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M402" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>833</v>
+        <v>675</v>
       </c>
       <c r="Q402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29376,13 +29376,13 @@
         <v>100</v>
       </c>
       <c r="K403" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L403" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M403" t="n">
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q403" t="n">
         <v>15</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29448,13 +29448,13 @@
         <v>100</v>
       </c>
       <c r="K404" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L404" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M404" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q404" t="n">
         <v>15</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29520,13 +29520,13 @@
         <v>100</v>
       </c>
       <c r="K405" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L405" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M405" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29535,11 +29535,11 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q405" t="n">
         <v>15</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29592,13 +29592,13 @@
         <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L406" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M406" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q406" t="n">
         <v>15</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q407" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29736,29 +29736,29 @@
         <v>100</v>
       </c>
       <c r="K408" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M408" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>517</v>
+        <v>625</v>
       </c>
       <c r="Q408" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29808,13 +29808,13 @@
         <v>100</v>
       </c>
       <c r="K409" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L409" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M409" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="Q409" t="n">
         <v>15</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29880,13 +29880,13 @@
         <v>100</v>
       </c>
       <c r="K410" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L410" t="n">
         <v>6500</v>
       </c>
-      <c r="L410" t="n">
-        <v>7000</v>
-      </c>
       <c r="M410" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q410" t="n">
         <v>15</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29952,17 +29952,17 @@
         <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L411" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M411" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>625</v>
+        <v>450</v>
       </c>
       <c r="Q411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30027,26 +30027,26 @@
         <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M412" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>433</v>
+        <v>625</v>
       </c>
       <c r="Q412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,29 +30096,29 @@
         <v>100</v>
       </c>
       <c r="K413" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L413" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M413" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>575</v>
+        <v>433</v>
       </c>
       <c r="Q413" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30168,29 +30168,29 @@
         <v>100</v>
       </c>
       <c r="K414" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L414" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M414" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="Q414" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30240,13 +30240,13 @@
         <v>100</v>
       </c>
       <c r="K415" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L415" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M415" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q415" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30312,17 +30312,17 @@
         <v>100</v>
       </c>
       <c r="K416" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L416" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M416" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q416" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30384,17 +30384,17 @@
         <v>100</v>
       </c>
       <c r="K417" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L417" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="Q417" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,32 +30453,32 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K418" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L418" t="n">
         <v>4000</v>
       </c>
-      <c r="L418" t="n">
-        <v>4500</v>
-      </c>
       <c r="M418" t="n">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="Q418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K419" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L419" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M419" t="n">
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q419" t="n">
         <v>15</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30600,17 +30600,17 @@
         <v>100</v>
       </c>
       <c r="K420" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L420" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M420" t="n">
-        <v>5250</v>
+        <v>3250</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>525</v>
+        <v>217</v>
       </c>
       <c r="Q420" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30672,29 +30672,29 @@
         <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L421" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M421" t="n">
-        <v>7250</v>
+        <v>5250</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="Q421" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30744,13 +30744,13 @@
         <v>100</v>
       </c>
       <c r="K422" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L422" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M422" t="n">
-        <v>5250</v>
+        <v>7250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q422" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,29 +30888,29 @@
         <v>100</v>
       </c>
       <c r="K424" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M424" t="n">
-        <v>6250</v>
+        <v>5250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="Q424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30960,13 +30960,13 @@
         <v>100</v>
       </c>
       <c r="K425" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L425" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M425" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="Q425" t="n">
         <v>10</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31032,13 +31032,13 @@
         <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L426" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M426" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="Q426" t="n">
         <v>10</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31114,7 +31114,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31176,13 +31176,13 @@
         <v>100</v>
       </c>
       <c r="K428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L428" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M428" t="n">
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="Q428" t="n">
         <v>15</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31248,13 +31248,13 @@
         <v>100</v>
       </c>
       <c r="K429" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L429" t